--- a/database/industries/ghaza/ghepino/product/monthly.xlsx
+++ b/database/industries/ghaza/ghepino/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghepino\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghepino\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05683E6-3F7E-4545-894C-A7136194ADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CD97B0-7CAE-4CDA-B86F-196AD9DC702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1402/02</t>
   </si>
   <si>
     <t>گروه آدامس وایت</t>
@@ -1418,154 +1418,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>135601</v>
+        <v>27576</v>
       </c>
       <c r="F11" s="11">
-        <v>27576</v>
+        <v>15462</v>
       </c>
       <c r="G11" s="11">
-        <v>15462</v>
+        <v>6569</v>
       </c>
       <c r="H11" s="11">
-        <v>6569</v>
+        <v>92140</v>
       </c>
       <c r="I11" s="11">
-        <v>92140</v>
+        <v>81753</v>
       </c>
       <c r="J11" s="11">
-        <v>81753</v>
+        <v>70198</v>
       </c>
       <c r="K11" s="11">
-        <v>70198</v>
+        <v>967</v>
       </c>
       <c r="L11" s="11">
-        <v>967</v>
+        <v>53545</v>
       </c>
       <c r="M11" s="11">
-        <v>53545</v>
+        <v>173557</v>
       </c>
       <c r="N11" s="11">
-        <v>173557</v>
+        <v>56428</v>
       </c>
       <c r="O11" s="11">
-        <v>56428</v>
+        <v>106111</v>
       </c>
       <c r="P11" s="11">
-        <v>106111</v>
+        <v>74577</v>
       </c>
       <c r="Q11" s="11">
-        <v>74577</v>
+        <v>0</v>
       </c>
       <c r="R11" s="11">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="S11" s="11">
-        <v>17400</v>
+        <v>49818</v>
       </c>
       <c r="T11" s="11">
-        <v>49818</v>
+        <v>56452</v>
       </c>
       <c r="U11" s="11">
-        <v>56452</v>
+        <v>49919</v>
       </c>
       <c r="V11" s="11">
-        <v>49919</v>
+        <v>59685</v>
       </c>
       <c r="W11" s="11">
-        <v>59685</v>
+        <v>68298</v>
       </c>
       <c r="X11" s="11">
-        <v>68298</v>
+        <v>52545</v>
       </c>
       <c r="Y11" s="11">
-        <v>52545</v>
+        <v>44308</v>
       </c>
       <c r="Z11" s="11">
-        <v>44308</v>
+        <v>42586</v>
       </c>
       <c r="AA11" s="11">
-        <v>42586</v>
+        <v>55561</v>
       </c>
       <c r="AB11" s="11">
-        <v>55561</v>
+        <v>56449</v>
       </c>
       <c r="AC11" s="11">
-        <v>56449</v>
+        <v>22146</v>
       </c>
       <c r="AD11" s="11">
-        <v>22146</v>
+        <v>35798</v>
       </c>
       <c r="AE11" s="11">
-        <v>35798</v>
+        <v>15833</v>
       </c>
       <c r="AF11" s="11">
-        <v>15833</v>
+        <v>34681</v>
       </c>
       <c r="AG11" s="11">
-        <v>34681</v>
+        <v>9946</v>
       </c>
       <c r="AH11" s="11">
-        <v>9946</v>
+        <v>26952</v>
       </c>
       <c r="AI11" s="11">
-        <v>26952</v>
+        <v>37846</v>
       </c>
       <c r="AJ11" s="11">
-        <v>37846</v>
+        <v>49183</v>
       </c>
       <c r="AK11" s="11">
-        <v>49183</v>
+        <v>51114</v>
       </c>
       <c r="AL11" s="11">
-        <v>51114</v>
+        <v>66330</v>
       </c>
       <c r="AM11" s="11">
-        <v>66330</v>
+        <v>42936</v>
       </c>
       <c r="AN11" s="11">
-        <v>42936</v>
+        <v>36751</v>
       </c>
       <c r="AO11" s="11">
-        <v>36751</v>
+        <v>8</v>
       </c>
       <c r="AP11" s="11">
-        <v>8</v>
+        <v>19964</v>
       </c>
       <c r="AQ11" s="11">
-        <v>19964</v>
+        <v>26579</v>
       </c>
       <c r="AR11" s="11">
-        <v>26579</v>
+        <v>44813</v>
       </c>
       <c r="AS11" s="11">
-        <v>44813</v>
+        <v>21119</v>
       </c>
       <c r="AT11" s="11">
-        <v>21119</v>
+        <v>27408</v>
       </c>
       <c r="AU11" s="11">
-        <v>27408</v>
+        <v>14108</v>
       </c>
       <c r="AV11" s="11">
-        <v>14108</v>
+        <v>74929</v>
       </c>
       <c r="AW11" s="11">
-        <v>74929</v>
+        <v>57376</v>
       </c>
       <c r="AX11" s="11">
-        <v>57376</v>
+        <v>38712</v>
       </c>
       <c r="AY11" s="11">
-        <v>38712</v>
+        <v>22133</v>
       </c>
       <c r="AZ11" s="11">
-        <v>22133</v>
+        <v>8532</v>
       </c>
       <c r="BA11" s="11">
-        <v>8532</v>
+        <v>10070</v>
       </c>
       <c r="BB11" s="11">
-        <v>10070</v>
+        <v>35935</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1577,154 +1577,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>256507</v>
+        <v>96419</v>
       </c>
       <c r="F12" s="13">
-        <v>96419</v>
+        <v>359374</v>
       </c>
       <c r="G12" s="13">
-        <v>359374</v>
+        <v>257361</v>
       </c>
       <c r="H12" s="13">
-        <v>257361</v>
+        <v>329827</v>
       </c>
       <c r="I12" s="13">
-        <v>329827</v>
+        <v>130584</v>
       </c>
       <c r="J12" s="13">
-        <v>130584</v>
+        <v>223146</v>
       </c>
       <c r="K12" s="13">
-        <v>223146</v>
+        <v>401167</v>
       </c>
       <c r="L12" s="13">
-        <v>401167</v>
+        <v>176014</v>
       </c>
       <c r="M12" s="13">
-        <v>176014</v>
+        <v>336820</v>
       </c>
       <c r="N12" s="13">
-        <v>336820</v>
+        <v>174044</v>
       </c>
       <c r="O12" s="13">
-        <v>174044</v>
+        <v>323282</v>
       </c>
       <c r="P12" s="13">
-        <v>323282</v>
+        <v>153294</v>
       </c>
       <c r="Q12" s="13">
-        <v>153294</v>
+        <v>23029</v>
       </c>
       <c r="R12" s="13">
-        <v>23029</v>
+        <v>313248</v>
       </c>
       <c r="S12" s="13">
-        <v>313248</v>
+        <v>193169</v>
       </c>
       <c r="T12" s="13">
-        <v>193169</v>
+        <v>319354</v>
       </c>
       <c r="U12" s="13">
-        <v>319354</v>
+        <v>271349</v>
       </c>
       <c r="V12" s="13">
-        <v>271349</v>
+        <v>368429</v>
       </c>
       <c r="W12" s="13">
-        <v>368429</v>
+        <v>329205</v>
       </c>
       <c r="X12" s="13">
-        <v>329205</v>
+        <v>237986</v>
       </c>
       <c r="Y12" s="13">
-        <v>237986</v>
+        <v>387199</v>
       </c>
       <c r="Z12" s="13">
-        <v>387199</v>
+        <v>313236</v>
       </c>
       <c r="AA12" s="13">
-        <v>313236</v>
+        <v>322383</v>
       </c>
       <c r="AB12" s="13">
-        <v>322383</v>
+        <v>308583</v>
       </c>
       <c r="AC12" s="13">
-        <v>308583</v>
+        <v>193327</v>
       </c>
       <c r="AD12" s="13">
-        <v>193327</v>
+        <v>196089</v>
       </c>
       <c r="AE12" s="13">
-        <v>196089</v>
+        <v>315404</v>
       </c>
       <c r="AF12" s="13">
-        <v>315404</v>
+        <v>194882</v>
       </c>
       <c r="AG12" s="13">
-        <v>194882</v>
+        <v>109712</v>
       </c>
       <c r="AH12" s="13">
-        <v>109712</v>
+        <v>248045</v>
       </c>
       <c r="AI12" s="13">
-        <v>248045</v>
+        <v>239253</v>
       </c>
       <c r="AJ12" s="13">
-        <v>239253</v>
+        <v>164686</v>
       </c>
       <c r="AK12" s="13">
-        <v>164686</v>
+        <v>243701</v>
       </c>
       <c r="AL12" s="13">
-        <v>243701</v>
+        <v>218780</v>
       </c>
       <c r="AM12" s="13">
-        <v>218780</v>
+        <v>138591</v>
       </c>
       <c r="AN12" s="13">
-        <v>138591</v>
+        <v>148639</v>
       </c>
       <c r="AO12" s="13">
-        <v>148639</v>
+        <v>107633</v>
       </c>
       <c r="AP12" s="13">
-        <v>107633</v>
+        <v>200762</v>
       </c>
       <c r="AQ12" s="13">
-        <v>200762</v>
+        <v>213672</v>
       </c>
       <c r="AR12" s="13">
-        <v>213672</v>
+        <v>180764</v>
       </c>
       <c r="AS12" s="13">
-        <v>180764</v>
+        <v>119414</v>
       </c>
       <c r="AT12" s="13">
-        <v>119414</v>
+        <v>246857</v>
       </c>
       <c r="AU12" s="13">
-        <v>246857</v>
+        <v>185873</v>
       </c>
       <c r="AV12" s="13">
-        <v>185873</v>
+        <v>180002</v>
       </c>
       <c r="AW12" s="13">
-        <v>180002</v>
+        <v>179438</v>
       </c>
       <c r="AX12" s="13">
-        <v>179438</v>
+        <v>168518</v>
       </c>
       <c r="AY12" s="13">
-        <v>168518</v>
+        <v>184784</v>
       </c>
       <c r="AZ12" s="13">
-        <v>184784</v>
+        <v>252638</v>
       </c>
       <c r="BA12" s="13">
-        <v>252638</v>
+        <v>152430</v>
       </c>
       <c r="BB12" s="13">
-        <v>152430</v>
+        <v>243312</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1736,154 +1736,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>525298</v>
+        <v>239163</v>
       </c>
       <c r="F13" s="11">
-        <v>239163</v>
+        <v>585418</v>
       </c>
       <c r="G13" s="11">
-        <v>585418</v>
+        <v>508781</v>
       </c>
       <c r="H13" s="11">
-        <v>508781</v>
+        <v>495556</v>
       </c>
       <c r="I13" s="11">
-        <v>495556</v>
+        <v>349931</v>
       </c>
       <c r="J13" s="11">
-        <v>349931</v>
+        <v>542261</v>
       </c>
       <c r="K13" s="11">
-        <v>542261</v>
+        <v>611047</v>
       </c>
       <c r="L13" s="11">
-        <v>611047</v>
+        <v>435393</v>
       </c>
       <c r="M13" s="11">
-        <v>435393</v>
+        <v>440846</v>
       </c>
       <c r="N13" s="11">
-        <v>440846</v>
+        <v>449796</v>
       </c>
       <c r="O13" s="11">
-        <v>449796</v>
+        <v>591088</v>
       </c>
       <c r="P13" s="11">
-        <v>591088</v>
+        <v>515170</v>
       </c>
       <c r="Q13" s="11">
-        <v>515170</v>
+        <v>35083</v>
       </c>
       <c r="R13" s="11">
-        <v>35083</v>
+        <v>575430</v>
       </c>
       <c r="S13" s="11">
-        <v>575430</v>
+        <v>546520</v>
       </c>
       <c r="T13" s="11">
-        <v>546520</v>
+        <v>538688</v>
       </c>
       <c r="U13" s="11">
-        <v>538688</v>
+        <v>302907</v>
       </c>
       <c r="V13" s="11">
-        <v>302907</v>
+        <v>480583</v>
       </c>
       <c r="W13" s="11">
-        <v>480583</v>
+        <v>562681</v>
       </c>
       <c r="X13" s="11">
-        <v>562681</v>
+        <v>189736</v>
       </c>
       <c r="Y13" s="11">
-        <v>189736</v>
+        <v>513295</v>
       </c>
       <c r="Z13" s="11">
-        <v>513295</v>
+        <v>811907</v>
       </c>
       <c r="AA13" s="11">
-        <v>811907</v>
+        <v>838613</v>
       </c>
       <c r="AB13" s="11">
-        <v>838613</v>
+        <v>830873</v>
       </c>
       <c r="AC13" s="11">
-        <v>830873</v>
+        <v>401333</v>
       </c>
       <c r="AD13" s="11">
-        <v>401333</v>
+        <v>482157</v>
       </c>
       <c r="AE13" s="11">
-        <v>482157</v>
+        <v>521273</v>
       </c>
       <c r="AF13" s="11">
-        <v>521273</v>
+        <v>608589</v>
       </c>
       <c r="AG13" s="11">
-        <v>608589</v>
+        <v>341283</v>
       </c>
       <c r="AH13" s="11">
-        <v>341283</v>
+        <v>713834</v>
       </c>
       <c r="AI13" s="11">
-        <v>713834</v>
+        <v>578019</v>
       </c>
       <c r="AJ13" s="11">
-        <v>578019</v>
+        <v>653567</v>
       </c>
       <c r="AK13" s="11">
-        <v>653567</v>
+        <v>681217</v>
       </c>
       <c r="AL13" s="11">
-        <v>681217</v>
+        <v>683531</v>
       </c>
       <c r="AM13" s="11">
-        <v>683531</v>
+        <v>598934</v>
       </c>
       <c r="AN13" s="11">
-        <v>598934</v>
+        <v>703867</v>
       </c>
       <c r="AO13" s="11">
-        <v>703867</v>
+        <v>430963</v>
       </c>
       <c r="AP13" s="11">
-        <v>430963</v>
+        <v>503960</v>
       </c>
       <c r="AQ13" s="11">
-        <v>503960</v>
+        <v>635402</v>
       </c>
       <c r="AR13" s="11">
-        <v>635402</v>
+        <v>635862</v>
       </c>
       <c r="AS13" s="11">
-        <v>635862</v>
+        <v>378048</v>
       </c>
       <c r="AT13" s="11">
-        <v>378048</v>
+        <v>691187</v>
       </c>
       <c r="AU13" s="11">
-        <v>691187</v>
+        <v>514105</v>
       </c>
       <c r="AV13" s="11">
-        <v>514105</v>
+        <v>664946</v>
       </c>
       <c r="AW13" s="11">
-        <v>664946</v>
+        <v>679069</v>
       </c>
       <c r="AX13" s="11">
-        <v>679069</v>
+        <v>589591</v>
       </c>
       <c r="AY13" s="11">
-        <v>589591</v>
+        <v>526221</v>
       </c>
       <c r="AZ13" s="11">
-        <v>526221</v>
+        <v>533064</v>
       </c>
       <c r="BA13" s="11">
-        <v>533064</v>
+        <v>349541</v>
       </c>
       <c r="BB13" s="11">
-        <v>349541</v>
+        <v>510167</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1895,154 +1895,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>613446</v>
+        <v>291153</v>
       </c>
       <c r="F14" s="13">
-        <v>291153</v>
+        <v>631503</v>
       </c>
       <c r="G14" s="13">
-        <v>631503</v>
+        <v>545978</v>
       </c>
       <c r="H14" s="13">
-        <v>545978</v>
+        <v>751366</v>
       </c>
       <c r="I14" s="13">
-        <v>751366</v>
+        <v>364577</v>
       </c>
       <c r="J14" s="13">
-        <v>364577</v>
+        <v>533332</v>
       </c>
       <c r="K14" s="13">
-        <v>533332</v>
+        <v>623624</v>
       </c>
       <c r="L14" s="13">
-        <v>623624</v>
+        <v>516594</v>
       </c>
       <c r="M14" s="13">
-        <v>516594</v>
+        <v>612314</v>
       </c>
       <c r="N14" s="13">
-        <v>612314</v>
+        <v>634304</v>
       </c>
       <c r="O14" s="13">
-        <v>634304</v>
+        <v>564878</v>
       </c>
       <c r="P14" s="13">
-        <v>564878</v>
+        <v>412770</v>
       </c>
       <c r="Q14" s="13">
-        <v>412770</v>
+        <v>54201</v>
       </c>
       <c r="R14" s="13">
-        <v>54201</v>
+        <v>597155</v>
       </c>
       <c r="S14" s="13">
-        <v>597155</v>
+        <v>551267</v>
       </c>
       <c r="T14" s="13">
-        <v>551267</v>
+        <v>631183</v>
       </c>
       <c r="U14" s="13">
-        <v>631183</v>
+        <v>437029</v>
       </c>
       <c r="V14" s="13">
-        <v>437029</v>
+        <v>667799</v>
       </c>
       <c r="W14" s="13">
-        <v>667799</v>
+        <v>543766</v>
       </c>
       <c r="X14" s="13">
-        <v>543766</v>
+        <v>557042</v>
       </c>
       <c r="Y14" s="13">
-        <v>557042</v>
+        <v>701873</v>
       </c>
       <c r="Z14" s="13">
-        <v>701873</v>
+        <v>649063</v>
       </c>
       <c r="AA14" s="13">
-        <v>649063</v>
+        <v>630346</v>
       </c>
       <c r="AB14" s="13">
-        <v>630346</v>
+        <v>626549</v>
       </c>
       <c r="AC14" s="13">
-        <v>626549</v>
+        <v>426148</v>
       </c>
       <c r="AD14" s="13">
-        <v>426148</v>
+        <v>521822</v>
       </c>
       <c r="AE14" s="13">
-        <v>521822</v>
+        <v>575170</v>
       </c>
       <c r="AF14" s="13">
-        <v>575170</v>
+        <v>575921</v>
       </c>
       <c r="AG14" s="13">
-        <v>575921</v>
+        <v>278343</v>
       </c>
       <c r="AH14" s="13">
-        <v>278343</v>
+        <v>589695</v>
       </c>
       <c r="AI14" s="13">
-        <v>589695</v>
+        <v>519559</v>
       </c>
       <c r="AJ14" s="13">
-        <v>519559</v>
+        <v>591166</v>
       </c>
       <c r="AK14" s="13">
-        <v>591166</v>
+        <v>671464</v>
       </c>
       <c r="AL14" s="13">
-        <v>671464</v>
+        <v>704984</v>
       </c>
       <c r="AM14" s="13">
-        <v>704984</v>
+        <v>632731</v>
       </c>
       <c r="AN14" s="13">
-        <v>632731</v>
+        <v>633424</v>
       </c>
       <c r="AO14" s="13">
-        <v>633424</v>
+        <v>435770</v>
       </c>
       <c r="AP14" s="13">
-        <v>435770</v>
+        <v>550910</v>
       </c>
       <c r="AQ14" s="13">
-        <v>550910</v>
+        <v>735036</v>
       </c>
       <c r="AR14" s="13">
-        <v>735036</v>
+        <v>699684</v>
       </c>
       <c r="AS14" s="13">
-        <v>699684</v>
+        <v>407729</v>
       </c>
       <c r="AT14" s="13">
-        <v>407729</v>
+        <v>783874</v>
       </c>
       <c r="AU14" s="13">
-        <v>783874</v>
+        <v>548762</v>
       </c>
       <c r="AV14" s="13">
-        <v>548762</v>
+        <v>739109</v>
       </c>
       <c r="AW14" s="13">
-        <v>739109</v>
+        <v>756458</v>
       </c>
       <c r="AX14" s="13">
-        <v>756458</v>
+        <v>638894</v>
       </c>
       <c r="AY14" s="13">
-        <v>638894</v>
+        <v>623066</v>
       </c>
       <c r="AZ14" s="13">
-        <v>623066</v>
+        <v>606586</v>
       </c>
       <c r="BA14" s="13">
-        <v>606586</v>
+        <v>397149</v>
       </c>
       <c r="BB14" s="13">
-        <v>397149</v>
+        <v>622316</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2054,154 +2054,154 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>176416</v>
+        <v>81185</v>
       </c>
       <c r="F15" s="11">
-        <v>81185</v>
+        <v>195537</v>
       </c>
       <c r="G15" s="11">
-        <v>195537</v>
+        <v>174975</v>
       </c>
       <c r="H15" s="11">
-        <v>174975</v>
+        <v>226657</v>
       </c>
       <c r="I15" s="11">
-        <v>226657</v>
+        <v>121245</v>
       </c>
       <c r="J15" s="11">
-        <v>121245</v>
+        <v>181152</v>
       </c>
       <c r="K15" s="11">
-        <v>181152</v>
+        <v>176814</v>
       </c>
       <c r="L15" s="11">
-        <v>176814</v>
+        <v>150855</v>
       </c>
       <c r="M15" s="11">
-        <v>150855</v>
+        <v>234694</v>
       </c>
       <c r="N15" s="11">
-        <v>234694</v>
+        <v>244299</v>
       </c>
       <c r="O15" s="11">
-        <v>244299</v>
+        <v>197026</v>
       </c>
       <c r="P15" s="11">
-        <v>197026</v>
+        <v>184585</v>
       </c>
       <c r="Q15" s="11">
-        <v>184585</v>
+        <v>9396</v>
       </c>
       <c r="R15" s="11">
-        <v>9396</v>
+        <v>204553</v>
       </c>
       <c r="S15" s="11">
-        <v>204553</v>
+        <v>209572</v>
       </c>
       <c r="T15" s="11">
-        <v>209572</v>
+        <v>245297</v>
       </c>
       <c r="U15" s="11">
-        <v>245297</v>
+        <v>140448</v>
       </c>
       <c r="V15" s="11">
-        <v>140448</v>
+        <v>216288</v>
       </c>
       <c r="W15" s="11">
-        <v>216288</v>
+        <v>217806</v>
       </c>
       <c r="X15" s="11">
-        <v>217806</v>
+        <v>216095</v>
       </c>
       <c r="Y15" s="11">
-        <v>216095</v>
+        <v>302768</v>
       </c>
       <c r="Z15" s="11">
-        <v>302768</v>
+        <v>268140</v>
       </c>
       <c r="AA15" s="11">
-        <v>268140</v>
+        <v>279993</v>
       </c>
       <c r="AB15" s="11">
-        <v>279993</v>
+        <v>229968</v>
       </c>
       <c r="AC15" s="11">
-        <v>229968</v>
+        <v>119389</v>
       </c>
       <c r="AD15" s="11">
-        <v>119389</v>
+        <v>217706</v>
       </c>
       <c r="AE15" s="11">
-        <v>217706</v>
+        <v>241488</v>
       </c>
       <c r="AF15" s="11">
-        <v>241488</v>
+        <v>241698</v>
       </c>
       <c r="AG15" s="11">
-        <v>241698</v>
+        <v>108368</v>
       </c>
       <c r="AH15" s="11">
-        <v>108368</v>
+        <v>235243</v>
       </c>
       <c r="AI15" s="11">
-        <v>235243</v>
+        <v>239511</v>
       </c>
       <c r="AJ15" s="11">
-        <v>239511</v>
+        <v>277858</v>
       </c>
       <c r="AK15" s="11">
-        <v>277858</v>
+        <v>274621</v>
       </c>
       <c r="AL15" s="11">
-        <v>274621</v>
+        <v>258497</v>
       </c>
       <c r="AM15" s="11">
-        <v>258497</v>
+        <v>225034</v>
       </c>
       <c r="AN15" s="11">
-        <v>225034</v>
+        <v>246397</v>
       </c>
       <c r="AO15" s="11">
-        <v>246397</v>
+        <v>138066</v>
       </c>
       <c r="AP15" s="11">
-        <v>138066</v>
+        <v>139819</v>
       </c>
       <c r="AQ15" s="11">
-        <v>139819</v>
+        <v>280820</v>
       </c>
       <c r="AR15" s="11">
-        <v>280820</v>
+        <v>245160</v>
       </c>
       <c r="AS15" s="11">
-        <v>245160</v>
+        <v>123635</v>
       </c>
       <c r="AT15" s="11">
-        <v>123635</v>
+        <v>240836</v>
       </c>
       <c r="AU15" s="11">
-        <v>240836</v>
+        <v>174970</v>
       </c>
       <c r="AV15" s="11">
-        <v>174970</v>
+        <v>240991</v>
       </c>
       <c r="AW15" s="11">
-        <v>240991</v>
+        <v>223130</v>
       </c>
       <c r="AX15" s="11">
-        <v>223130</v>
+        <v>155516</v>
       </c>
       <c r="AY15" s="11">
-        <v>155516</v>
+        <v>127142</v>
       </c>
       <c r="AZ15" s="11">
-        <v>127142</v>
+        <v>78182</v>
       </c>
       <c r="BA15" s="11">
-        <v>78182</v>
+        <v>120431</v>
       </c>
       <c r="BB15" s="11">
-        <v>120431</v>
+        <v>163254</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2213,154 +2213,154 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>325989</v>
+        <v>158939</v>
       </c>
       <c r="F16" s="13">
-        <v>158939</v>
+        <v>331058</v>
       </c>
       <c r="G16" s="13">
-        <v>331058</v>
+        <v>276110</v>
       </c>
       <c r="H16" s="13">
-        <v>276110</v>
+        <v>290567</v>
       </c>
       <c r="I16" s="13">
-        <v>290567</v>
+        <v>142180</v>
       </c>
       <c r="J16" s="13">
-        <v>142180</v>
+        <v>302207</v>
       </c>
       <c r="K16" s="13">
-        <v>302207</v>
+        <v>235694</v>
       </c>
       <c r="L16" s="13">
-        <v>235694</v>
+        <v>235705</v>
       </c>
       <c r="M16" s="13">
-        <v>235705</v>
+        <v>146428</v>
       </c>
       <c r="N16" s="13">
-        <v>146428</v>
+        <v>178177</v>
       </c>
       <c r="O16" s="13">
-        <v>178177</v>
+        <v>120363</v>
       </c>
       <c r="P16" s="13">
-        <v>120363</v>
+        <v>223409</v>
       </c>
       <c r="Q16" s="13">
-        <v>223409</v>
+        <v>21762</v>
       </c>
       <c r="R16" s="13">
-        <v>21762</v>
+        <v>291957</v>
       </c>
       <c r="S16" s="13">
-        <v>291957</v>
+        <v>174056</v>
       </c>
       <c r="T16" s="13">
-        <v>174056</v>
+        <v>201297</v>
       </c>
       <c r="U16" s="13">
-        <v>201297</v>
+        <v>151189</v>
       </c>
       <c r="V16" s="13">
-        <v>151189</v>
+        <v>195046</v>
       </c>
       <c r="W16" s="13">
-        <v>195046</v>
+        <v>189192</v>
       </c>
       <c r="X16" s="13">
-        <v>189192</v>
+        <v>118629</v>
       </c>
       <c r="Y16" s="13">
-        <v>118629</v>
+        <v>209314</v>
       </c>
       <c r="Z16" s="13">
-        <v>209314</v>
+        <v>231252</v>
       </c>
       <c r="AA16" s="13">
-        <v>231252</v>
+        <v>368541</v>
       </c>
       <c r="AB16" s="13">
-        <v>368541</v>
+        <v>435227</v>
       </c>
       <c r="AC16" s="13">
-        <v>435227</v>
+        <v>138251</v>
       </c>
       <c r="AD16" s="13">
-        <v>138251</v>
+        <v>157955</v>
       </c>
       <c r="AE16" s="13">
-        <v>157955</v>
+        <v>150038</v>
       </c>
       <c r="AF16" s="13">
-        <v>150038</v>
+        <v>125027</v>
       </c>
       <c r="AG16" s="13">
-        <v>125027</v>
+        <v>80842</v>
       </c>
       <c r="AH16" s="13">
-        <v>80842</v>
+        <v>116717</v>
       </c>
       <c r="AI16" s="13">
-        <v>116717</v>
+        <v>164550</v>
       </c>
       <c r="AJ16" s="13">
-        <v>164550</v>
+        <v>145712</v>
       </c>
       <c r="AK16" s="13">
-        <v>145712</v>
+        <v>190391</v>
       </c>
       <c r="AL16" s="13">
-        <v>190391</v>
+        <v>210172</v>
       </c>
       <c r="AM16" s="13">
-        <v>210172</v>
+        <v>168689</v>
       </c>
       <c r="AN16" s="13">
-        <v>168689</v>
+        <v>167314</v>
       </c>
       <c r="AO16" s="13">
-        <v>167314</v>
+        <v>98176</v>
       </c>
       <c r="AP16" s="13">
-        <v>98176</v>
+        <v>105667</v>
       </c>
       <c r="AQ16" s="13">
-        <v>105667</v>
+        <v>163636</v>
       </c>
       <c r="AR16" s="13">
-        <v>163636</v>
+        <v>208735</v>
       </c>
       <c r="AS16" s="13">
-        <v>208735</v>
+        <v>102394</v>
       </c>
       <c r="AT16" s="13">
-        <v>102394</v>
+        <v>189602</v>
       </c>
       <c r="AU16" s="13">
-        <v>189602</v>
+        <v>154097</v>
       </c>
       <c r="AV16" s="13">
-        <v>154097</v>
+        <v>138872</v>
       </c>
       <c r="AW16" s="13">
-        <v>138872</v>
+        <v>104200</v>
       </c>
       <c r="AX16" s="13">
-        <v>104200</v>
+        <v>83464</v>
       </c>
       <c r="AY16" s="13">
-        <v>83464</v>
+        <v>153000</v>
       </c>
       <c r="AZ16" s="13">
-        <v>153000</v>
+        <v>196328</v>
       </c>
       <c r="BA16" s="13">
-        <v>196328</v>
+        <v>98010</v>
       </c>
       <c r="BB16" s="13">
-        <v>98010</v>
+        <v>77195</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2372,154 +2372,154 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>235990</v>
+        <v>124137</v>
       </c>
       <c r="F17" s="11">
-        <v>124137</v>
+        <v>171494</v>
       </c>
       <c r="G17" s="11">
-        <v>171494</v>
+        <v>167085</v>
       </c>
       <c r="H17" s="11">
-        <v>167085</v>
+        <v>252786</v>
       </c>
       <c r="I17" s="11">
-        <v>252786</v>
+        <v>136126</v>
       </c>
       <c r="J17" s="11">
-        <v>136126</v>
+        <v>178872</v>
       </c>
       <c r="K17" s="11">
-        <v>178872</v>
+        <v>167399</v>
       </c>
       <c r="L17" s="11">
-        <v>167399</v>
+        <v>40832</v>
       </c>
       <c r="M17" s="11">
-        <v>40832</v>
+        <v>112676</v>
       </c>
       <c r="N17" s="11">
-        <v>112676</v>
+        <v>78770</v>
       </c>
       <c r="O17" s="11">
-        <v>78770</v>
+        <v>155257</v>
       </c>
       <c r="P17" s="11">
-        <v>155257</v>
+        <v>228043</v>
       </c>
       <c r="Q17" s="11">
-        <v>228043</v>
+        <v>46715</v>
       </c>
       <c r="R17" s="11">
-        <v>46715</v>
+        <v>176237</v>
       </c>
       <c r="S17" s="11">
-        <v>176237</v>
+        <v>174106</v>
       </c>
       <c r="T17" s="11">
-        <v>174106</v>
+        <v>182756</v>
       </c>
       <c r="U17" s="11">
-        <v>182756</v>
+        <v>66464</v>
       </c>
       <c r="V17" s="11">
-        <v>66464</v>
+        <v>178646</v>
       </c>
       <c r="W17" s="11">
-        <v>178646</v>
+        <v>133644</v>
       </c>
       <c r="X17" s="11">
-        <v>133644</v>
+        <v>147032</v>
       </c>
       <c r="Y17" s="11">
-        <v>147032</v>
+        <v>124456</v>
       </c>
       <c r="Z17" s="11">
-        <v>124456</v>
+        <v>155724</v>
       </c>
       <c r="AA17" s="11">
-        <v>155724</v>
+        <v>19117</v>
       </c>
       <c r="AB17" s="11">
-        <v>19117</v>
+        <v>1802</v>
       </c>
       <c r="AC17" s="11">
-        <v>1802</v>
+        <v>152558</v>
       </c>
       <c r="AD17" s="11">
-        <v>152558</v>
+        <v>252954</v>
       </c>
       <c r="AE17" s="11">
-        <v>252954</v>
+        <v>305025</v>
       </c>
       <c r="AF17" s="11">
-        <v>305025</v>
+        <v>310374</v>
       </c>
       <c r="AG17" s="11">
-        <v>310374</v>
+        <v>142155</v>
       </c>
       <c r="AH17" s="11">
-        <v>142155</v>
+        <v>248534</v>
       </c>
       <c r="AI17" s="11">
-        <v>248534</v>
+        <v>236346</v>
       </c>
       <c r="AJ17" s="11">
-        <v>236346</v>
+        <v>318542</v>
       </c>
       <c r="AK17" s="11">
-        <v>318542</v>
+        <v>311910</v>
       </c>
       <c r="AL17" s="11">
-        <v>311910</v>
+        <v>257870</v>
       </c>
       <c r="AM17" s="11">
-        <v>257870</v>
+        <v>270465</v>
       </c>
       <c r="AN17" s="11">
-        <v>270465</v>
+        <v>263957</v>
       </c>
       <c r="AO17" s="11">
-        <v>263957</v>
+        <v>165660</v>
       </c>
       <c r="AP17" s="11">
-        <v>165660</v>
+        <v>203704</v>
       </c>
       <c r="AQ17" s="11">
-        <v>203704</v>
+        <v>318828</v>
       </c>
       <c r="AR17" s="11">
-        <v>318828</v>
+        <v>168643</v>
       </c>
       <c r="AS17" s="11">
-        <v>168643</v>
+        <v>94877</v>
       </c>
       <c r="AT17" s="11">
-        <v>94877</v>
+        <v>242922</v>
       </c>
       <c r="AU17" s="11">
-        <v>242922</v>
+        <v>133003</v>
       </c>
       <c r="AV17" s="11">
-        <v>133003</v>
+        <v>194737</v>
       </c>
       <c r="AW17" s="11">
-        <v>194737</v>
+        <v>237572</v>
       </c>
       <c r="AX17" s="11">
-        <v>237572</v>
+        <v>184843</v>
       </c>
       <c r="AY17" s="11">
-        <v>184843</v>
+        <v>245503</v>
       </c>
       <c r="AZ17" s="11">
-        <v>245503</v>
+        <v>320021</v>
       </c>
       <c r="BA17" s="11">
-        <v>320021</v>
+        <v>182032</v>
       </c>
       <c r="BB17" s="11">
-        <v>182032</v>
+        <v>217018</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2531,121 +2531,121 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>28641</v>
+        <v>1319</v>
       </c>
       <c r="F18" s="13">
-        <v>1319</v>
+        <v>4414</v>
       </c>
       <c r="G18" s="13">
-        <v>4414</v>
+        <v>3310</v>
       </c>
       <c r="H18" s="13">
-        <v>3310</v>
+        <v>805</v>
       </c>
       <c r="I18" s="13">
-        <v>805</v>
+        <v>2908</v>
       </c>
       <c r="J18" s="13">
-        <v>2908</v>
+        <v>1559</v>
       </c>
       <c r="K18" s="13">
-        <v>1559</v>
+        <v>5912</v>
       </c>
       <c r="L18" s="13">
-        <v>5912</v>
+        <v>12410</v>
       </c>
       <c r="M18" s="13">
-        <v>12410</v>
+        <v>9742</v>
       </c>
       <c r="N18" s="13">
-        <v>9742</v>
+        <v>5763</v>
       </c>
       <c r="O18" s="13">
-        <v>5763</v>
+        <v>6933</v>
       </c>
       <c r="P18" s="13">
-        <v>6933</v>
+        <v>8241</v>
       </c>
       <c r="Q18" s="13">
-        <v>8241</v>
+        <v>0</v>
       </c>
       <c r="R18" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="S18" s="13">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="T18" s="13">
-        <v>144</v>
+        <v>4195</v>
       </c>
       <c r="U18" s="13">
-        <v>4195</v>
+        <v>1100</v>
       </c>
       <c r="V18" s="13">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="13">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="X18" s="13">
-        <v>576</v>
+        <v>3706</v>
       </c>
       <c r="Y18" s="13">
-        <v>3706</v>
+        <v>3438</v>
       </c>
       <c r="Z18" s="13">
-        <v>3438</v>
+        <v>638</v>
       </c>
       <c r="AA18" s="13">
-        <v>638</v>
+        <v>4541</v>
       </c>
       <c r="AB18" s="13">
-        <v>4541</v>
+        <v>6827</v>
       </c>
       <c r="AC18" s="13">
-        <v>6827</v>
+        <v>147</v>
       </c>
       <c r="AD18" s="13">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="AE18" s="13">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AF18" s="13">
+        <v>40</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>11</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>66</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>3014</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>2898</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>2049</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>11183</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>17529</v>
+      </c>
+      <c r="AO18" s="13">
         <v>10</v>
       </c>
-      <c r="AG18" s="13">
-        <v>40</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>11</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>66</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>3014</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>2898</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>2049</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>11183</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>17529</v>
-      </c>
       <c r="AP18" s="13">
-        <v>10</v>
+        <v>7500</v>
       </c>
       <c r="AQ18" s="13">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="13">
         <v>0</v>
@@ -2654,31 +2654,31 @@
         <v>0</v>
       </c>
       <c r="AT18" s="13">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AU18" s="13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="13">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="AW18" s="13">
-        <v>613</v>
+        <v>5722</v>
       </c>
       <c r="AX18" s="13">
-        <v>5722</v>
+        <v>17238</v>
       </c>
       <c r="AY18" s="13">
-        <v>17238</v>
+        <v>5932</v>
       </c>
       <c r="AZ18" s="13">
-        <v>5932</v>
+        <v>13127</v>
       </c>
       <c r="BA18" s="13">
-        <v>13127</v>
+        <v>164</v>
       </c>
       <c r="BB18" s="13">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2783,8 +2783,8 @@
       <c r="Q20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="R20" s="17" t="s">
-        <v>66</v>
+      <c r="R20" s="17">
+        <v>0</v>
       </c>
       <c r="S20" s="17">
         <v>0</v>
@@ -2902,154 +2902,154 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19">
-        <v>2297888</v>
+        <v>1019891</v>
       </c>
       <c r="F21" s="19">
-        <v>1019891</v>
+        <v>2294260</v>
       </c>
       <c r="G21" s="19">
-        <v>2294260</v>
+        <v>1940169</v>
       </c>
       <c r="H21" s="19">
-        <v>1940169</v>
+        <v>2439704</v>
       </c>
       <c r="I21" s="19">
-        <v>2439704</v>
+        <v>1329304</v>
       </c>
       <c r="J21" s="19">
-        <v>1329304</v>
+        <v>2032727</v>
       </c>
       <c r="K21" s="19">
-        <v>2032727</v>
+        <v>2222624</v>
       </c>
       <c r="L21" s="19">
-        <v>2222624</v>
+        <v>1621348</v>
       </c>
       <c r="M21" s="19">
-        <v>1621348</v>
+        <v>2067077</v>
       </c>
       <c r="N21" s="19">
-        <v>2067077</v>
+        <v>1821581</v>
       </c>
       <c r="O21" s="19">
-        <v>1821581</v>
+        <v>2064938</v>
       </c>
       <c r="P21" s="19">
-        <v>2064938</v>
+        <v>1800089</v>
       </c>
       <c r="Q21" s="19">
-        <v>1800089</v>
+        <v>190186</v>
       </c>
       <c r="R21" s="19">
-        <v>190186</v>
+        <v>2176051</v>
       </c>
       <c r="S21" s="19">
-        <v>2176051</v>
+        <v>1898652</v>
       </c>
       <c r="T21" s="19">
-        <v>1898652</v>
+        <v>2179222</v>
       </c>
       <c r="U21" s="19">
-        <v>2179222</v>
+        <v>1420405</v>
       </c>
       <c r="V21" s="19">
-        <v>1420405</v>
+        <v>2166476</v>
       </c>
       <c r="W21" s="19">
-        <v>2166476</v>
+        <v>2045168</v>
       </c>
       <c r="X21" s="19">
-        <v>2045168</v>
+        <v>1522771</v>
       </c>
       <c r="Y21" s="19">
-        <v>1522771</v>
+        <v>2286651</v>
       </c>
       <c r="Z21" s="19">
-        <v>2286651</v>
+        <v>2472546</v>
       </c>
       <c r="AA21" s="19">
-        <v>2472546</v>
+        <v>2519095</v>
       </c>
       <c r="AB21" s="19">
-        <v>2519095</v>
+        <v>2496278</v>
       </c>
       <c r="AC21" s="19">
-        <v>2496278</v>
+        <v>1453299</v>
       </c>
       <c r="AD21" s="19">
-        <v>1453299</v>
+        <v>1864499</v>
       </c>
       <c r="AE21" s="19">
-        <v>1864499</v>
+        <v>2124241</v>
       </c>
       <c r="AF21" s="19">
-        <v>2124241</v>
+        <v>2091212</v>
       </c>
       <c r="AG21" s="19">
-        <v>2091212</v>
+        <v>1070660</v>
       </c>
       <c r="AH21" s="19">
-        <v>1070660</v>
+        <v>2179086</v>
       </c>
       <c r="AI21" s="19">
-        <v>2179086</v>
+        <v>2018098</v>
       </c>
       <c r="AJ21" s="19">
-        <v>2018098</v>
+        <v>2203612</v>
       </c>
       <c r="AK21" s="19">
-        <v>2203612</v>
+        <v>2424418</v>
       </c>
       <c r="AL21" s="19">
-        <v>2424418</v>
+        <v>2402213</v>
       </c>
       <c r="AM21" s="19">
-        <v>2402213</v>
+        <v>2088563</v>
       </c>
       <c r="AN21" s="19">
-        <v>2088563</v>
+        <v>2217878</v>
       </c>
       <c r="AO21" s="19">
-        <v>2217878</v>
+        <v>1376286</v>
       </c>
       <c r="AP21" s="19">
-        <v>1376286</v>
+        <v>1732286</v>
       </c>
       <c r="AQ21" s="19">
-        <v>1732286</v>
+        <v>2373973</v>
       </c>
       <c r="AR21" s="19">
-        <v>2373973</v>
+        <v>2183661</v>
       </c>
       <c r="AS21" s="19">
-        <v>2183661</v>
+        <v>1247216</v>
       </c>
       <c r="AT21" s="19">
-        <v>1247216</v>
+        <v>2422722</v>
       </c>
       <c r="AU21" s="19">
-        <v>2422722</v>
+        <v>1724918</v>
       </c>
       <c r="AV21" s="19">
-        <v>1724918</v>
+        <v>2234199</v>
       </c>
       <c r="AW21" s="19">
-        <v>2234199</v>
+        <v>2242965</v>
       </c>
       <c r="AX21" s="19">
-        <v>2242965</v>
+        <v>1876776</v>
       </c>
       <c r="AY21" s="19">
-        <v>1876776</v>
+        <v>1887781</v>
       </c>
       <c r="AZ21" s="19">
-        <v>1887781</v>
+        <v>2008478</v>
       </c>
       <c r="BA21" s="19">
-        <v>2008478</v>
+        <v>1309827</v>
       </c>
       <c r="BB21" s="19">
-        <v>1309827</v>
+        <v>1869197</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3495,154 +3495,154 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>135601</v>
+        <v>27576</v>
       </c>
       <c r="F28" s="11">
-        <v>27576</v>
+        <v>15462</v>
       </c>
       <c r="G28" s="11">
-        <v>15462</v>
+        <v>6569</v>
       </c>
       <c r="H28" s="11">
-        <v>6569</v>
+        <v>92140</v>
       </c>
       <c r="I28" s="11">
-        <v>92140</v>
+        <v>81753</v>
       </c>
       <c r="J28" s="11">
-        <v>81753</v>
+        <v>70198</v>
       </c>
       <c r="K28" s="11">
-        <v>70198</v>
+        <v>967</v>
       </c>
       <c r="L28" s="11">
-        <v>967</v>
+        <v>53545</v>
       </c>
       <c r="M28" s="11">
-        <v>53545</v>
+        <v>173557</v>
       </c>
       <c r="N28" s="11">
-        <v>173557</v>
+        <v>56428</v>
       </c>
       <c r="O28" s="11">
-        <v>56428</v>
+        <v>106111</v>
       </c>
       <c r="P28" s="11">
-        <v>106111</v>
+        <v>74577</v>
       </c>
       <c r="Q28" s="11">
-        <v>74577</v>
+        <v>0</v>
       </c>
       <c r="R28" s="11">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="S28" s="11">
-        <v>17400</v>
+        <v>49818</v>
       </c>
       <c r="T28" s="11">
-        <v>49818</v>
+        <v>56452</v>
       </c>
       <c r="U28" s="11">
-        <v>56452</v>
+        <v>49919</v>
       </c>
       <c r="V28" s="11">
-        <v>49919</v>
+        <v>59685</v>
       </c>
       <c r="W28" s="11">
-        <v>59685</v>
+        <v>68298</v>
       </c>
       <c r="X28" s="11">
-        <v>68298</v>
+        <v>52545</v>
       </c>
       <c r="Y28" s="11">
-        <v>52545</v>
+        <v>44308</v>
       </c>
       <c r="Z28" s="11">
-        <v>44308</v>
+        <v>42586</v>
       </c>
       <c r="AA28" s="11">
-        <v>42586</v>
+        <v>55561</v>
       </c>
       <c r="AB28" s="11">
-        <v>55561</v>
+        <v>56449</v>
       </c>
       <c r="AC28" s="11">
-        <v>56449</v>
+        <v>22146</v>
       </c>
       <c r="AD28" s="11">
-        <v>22146</v>
+        <v>35798</v>
       </c>
       <c r="AE28" s="11">
-        <v>35798</v>
+        <v>15833</v>
       </c>
       <c r="AF28" s="11">
-        <v>15833</v>
+        <v>34681</v>
       </c>
       <c r="AG28" s="11">
-        <v>34681</v>
+        <v>9946</v>
       </c>
       <c r="AH28" s="11">
-        <v>9946</v>
+        <v>26952</v>
       </c>
       <c r="AI28" s="11">
-        <v>26952</v>
+        <v>37846</v>
       </c>
       <c r="AJ28" s="11">
-        <v>37846</v>
+        <v>49183</v>
       </c>
       <c r="AK28" s="11">
-        <v>49183</v>
+        <v>51114</v>
       </c>
       <c r="AL28" s="11">
-        <v>51114</v>
+        <v>66330</v>
       </c>
       <c r="AM28" s="11">
-        <v>66330</v>
+        <v>42936</v>
       </c>
       <c r="AN28" s="11">
-        <v>42936</v>
+        <v>36751</v>
       </c>
       <c r="AO28" s="11">
-        <v>36751</v>
+        <v>8</v>
       </c>
       <c r="AP28" s="11">
-        <v>8</v>
+        <v>19964</v>
       </c>
       <c r="AQ28" s="11">
-        <v>19964</v>
+        <v>26579</v>
       </c>
       <c r="AR28" s="11">
-        <v>26579</v>
+        <v>44813</v>
       </c>
       <c r="AS28" s="11">
-        <v>44813</v>
+        <v>21119</v>
       </c>
       <c r="AT28" s="11">
-        <v>21119</v>
+        <v>27408</v>
       </c>
       <c r="AU28" s="11">
-        <v>27408</v>
+        <v>14108</v>
       </c>
       <c r="AV28" s="11">
-        <v>14108</v>
+        <v>74929</v>
       </c>
       <c r="AW28" s="11">
-        <v>74929</v>
+        <v>57376</v>
       </c>
       <c r="AX28" s="11">
-        <v>57376</v>
+        <v>38712</v>
       </c>
       <c r="AY28" s="11">
-        <v>38712</v>
+        <v>22133</v>
       </c>
       <c r="AZ28" s="11">
-        <v>22133</v>
+        <v>8532</v>
       </c>
       <c r="BA28" s="11">
-        <v>8532</v>
+        <v>10070</v>
       </c>
       <c r="BB28" s="11">
-        <v>10070</v>
+        <v>35935</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3654,154 +3654,154 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>256507</v>
+        <v>96419</v>
       </c>
       <c r="F29" s="13">
-        <v>96419</v>
+        <v>359374</v>
       </c>
       <c r="G29" s="13">
-        <v>359374</v>
+        <v>257361</v>
       </c>
       <c r="H29" s="13">
-        <v>257361</v>
+        <v>329827</v>
       </c>
       <c r="I29" s="13">
-        <v>329827</v>
+        <v>130584</v>
       </c>
       <c r="J29" s="13">
-        <v>130584</v>
+        <v>223146</v>
       </c>
       <c r="K29" s="13">
-        <v>223146</v>
+        <v>401167</v>
       </c>
       <c r="L29" s="13">
-        <v>401167</v>
+        <v>176014</v>
       </c>
       <c r="M29" s="13">
-        <v>176014</v>
+        <v>336820</v>
       </c>
       <c r="N29" s="13">
-        <v>336820</v>
+        <v>174044</v>
       </c>
       <c r="O29" s="13">
-        <v>174044</v>
+        <v>323282</v>
       </c>
       <c r="P29" s="13">
-        <v>323282</v>
+        <v>153294</v>
       </c>
       <c r="Q29" s="13">
-        <v>153294</v>
+        <v>23029</v>
       </c>
       <c r="R29" s="13">
-        <v>23029</v>
+        <v>313248</v>
       </c>
       <c r="S29" s="13">
-        <v>313248</v>
+        <v>193169</v>
       </c>
       <c r="T29" s="13">
-        <v>193169</v>
+        <v>319354</v>
       </c>
       <c r="U29" s="13">
-        <v>319354</v>
+        <v>271349</v>
       </c>
       <c r="V29" s="13">
-        <v>271349</v>
+        <v>368429</v>
       </c>
       <c r="W29" s="13">
-        <v>368429</v>
+        <v>329205</v>
       </c>
       <c r="X29" s="13">
-        <v>329205</v>
+        <v>237986</v>
       </c>
       <c r="Y29" s="13">
-        <v>237986</v>
+        <v>387199</v>
       </c>
       <c r="Z29" s="13">
-        <v>387199</v>
+        <v>313236</v>
       </c>
       <c r="AA29" s="13">
-        <v>313236</v>
+        <v>322383</v>
       </c>
       <c r="AB29" s="13">
-        <v>322383</v>
+        <v>308583</v>
       </c>
       <c r="AC29" s="13">
-        <v>308583</v>
+        <v>193327</v>
       </c>
       <c r="AD29" s="13">
-        <v>193327</v>
+        <v>196089</v>
       </c>
       <c r="AE29" s="13">
-        <v>196089</v>
+        <v>315404</v>
       </c>
       <c r="AF29" s="13">
-        <v>315404</v>
+        <v>194882</v>
       </c>
       <c r="AG29" s="13">
-        <v>194882</v>
+        <v>109712</v>
       </c>
       <c r="AH29" s="13">
-        <v>109712</v>
+        <v>248045</v>
       </c>
       <c r="AI29" s="13">
-        <v>248045</v>
+        <v>239253</v>
       </c>
       <c r="AJ29" s="13">
-        <v>239253</v>
+        <v>164686</v>
       </c>
       <c r="AK29" s="13">
-        <v>164686</v>
+        <v>243701</v>
       </c>
       <c r="AL29" s="13">
-        <v>243701</v>
+        <v>218780</v>
       </c>
       <c r="AM29" s="13">
-        <v>218780</v>
+        <v>138591</v>
       </c>
       <c r="AN29" s="13">
-        <v>138591</v>
+        <v>148639</v>
       </c>
       <c r="AO29" s="13">
-        <v>148639</v>
+        <v>107633</v>
       </c>
       <c r="AP29" s="13">
-        <v>107633</v>
+        <v>200762</v>
       </c>
       <c r="AQ29" s="13">
-        <v>200762</v>
+        <v>213672</v>
       </c>
       <c r="AR29" s="13">
-        <v>213672</v>
+        <v>180764</v>
       </c>
       <c r="AS29" s="13">
-        <v>180764</v>
+        <v>119414</v>
       </c>
       <c r="AT29" s="13">
-        <v>119414</v>
+        <v>246857</v>
       </c>
       <c r="AU29" s="13">
-        <v>246857</v>
+        <v>185873</v>
       </c>
       <c r="AV29" s="13">
-        <v>185873</v>
+        <v>180002</v>
       </c>
       <c r="AW29" s="13">
-        <v>180002</v>
+        <v>179438</v>
       </c>
       <c r="AX29" s="13">
-        <v>179438</v>
+        <v>168518</v>
       </c>
       <c r="AY29" s="13">
-        <v>168518</v>
+        <v>184784</v>
       </c>
       <c r="AZ29" s="13">
-        <v>184784</v>
+        <v>252638</v>
       </c>
       <c r="BA29" s="13">
-        <v>252638</v>
+        <v>152430</v>
       </c>
       <c r="BB29" s="13">
-        <v>152430</v>
+        <v>243312</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3813,154 +3813,154 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>525298</v>
+        <v>239163</v>
       </c>
       <c r="F30" s="11">
-        <v>239163</v>
+        <v>585418</v>
       </c>
       <c r="G30" s="11">
-        <v>585418</v>
+        <v>508781</v>
       </c>
       <c r="H30" s="11">
-        <v>508781</v>
+        <v>495556</v>
       </c>
       <c r="I30" s="11">
-        <v>495556</v>
+        <v>349931</v>
       </c>
       <c r="J30" s="11">
-        <v>349931</v>
+        <v>542261</v>
       </c>
       <c r="K30" s="11">
-        <v>542261</v>
+        <v>611047</v>
       </c>
       <c r="L30" s="11">
-        <v>611047</v>
+        <v>435393</v>
       </c>
       <c r="M30" s="11">
-        <v>435393</v>
+        <v>440846</v>
       </c>
       <c r="N30" s="11">
-        <v>440846</v>
+        <v>449796</v>
       </c>
       <c r="O30" s="11">
-        <v>449796</v>
+        <v>591088</v>
       </c>
       <c r="P30" s="11">
-        <v>591088</v>
+        <v>515170</v>
       </c>
       <c r="Q30" s="11">
-        <v>515170</v>
+        <v>35083</v>
       </c>
       <c r="R30" s="11">
-        <v>35083</v>
+        <v>575430</v>
       </c>
       <c r="S30" s="11">
-        <v>575430</v>
+        <v>546520</v>
       </c>
       <c r="T30" s="11">
-        <v>546520</v>
+        <v>538688</v>
       </c>
       <c r="U30" s="11">
-        <v>538688</v>
+        <v>302907</v>
       </c>
       <c r="V30" s="11">
-        <v>302907</v>
+        <v>480583</v>
       </c>
       <c r="W30" s="11">
-        <v>480583</v>
+        <v>562681</v>
       </c>
       <c r="X30" s="11">
-        <v>562681</v>
+        <v>189736</v>
       </c>
       <c r="Y30" s="11">
-        <v>189736</v>
+        <v>513295</v>
       </c>
       <c r="Z30" s="11">
-        <v>513295</v>
+        <v>811907</v>
       </c>
       <c r="AA30" s="11">
-        <v>811907</v>
+        <v>838613</v>
       </c>
       <c r="AB30" s="11">
-        <v>838613</v>
+        <v>830873</v>
       </c>
       <c r="AC30" s="11">
-        <v>830873</v>
+        <v>401333</v>
       </c>
       <c r="AD30" s="11">
-        <v>401333</v>
+        <v>482157</v>
       </c>
       <c r="AE30" s="11">
-        <v>482157</v>
+        <v>521273</v>
       </c>
       <c r="AF30" s="11">
-        <v>521273</v>
+        <v>608589</v>
       </c>
       <c r="AG30" s="11">
-        <v>608589</v>
+        <v>341283</v>
       </c>
       <c r="AH30" s="11">
-        <v>341283</v>
+        <v>713834</v>
       </c>
       <c r="AI30" s="11">
-        <v>713834</v>
+        <v>578019</v>
       </c>
       <c r="AJ30" s="11">
-        <v>578019</v>
+        <v>653567</v>
       </c>
       <c r="AK30" s="11">
-        <v>653567</v>
+        <v>681217</v>
       </c>
       <c r="AL30" s="11">
-        <v>681217</v>
+        <v>683531</v>
       </c>
       <c r="AM30" s="11">
-        <v>683531</v>
+        <v>598934</v>
       </c>
       <c r="AN30" s="11">
-        <v>598934</v>
+        <v>703867</v>
       </c>
       <c r="AO30" s="11">
-        <v>703867</v>
+        <v>430963</v>
       </c>
       <c r="AP30" s="11">
-        <v>430963</v>
+        <v>503960</v>
       </c>
       <c r="AQ30" s="11">
-        <v>503960</v>
+        <v>635402</v>
       </c>
       <c r="AR30" s="11">
-        <v>635402</v>
+        <v>635862</v>
       </c>
       <c r="AS30" s="11">
-        <v>635862</v>
+        <v>378048</v>
       </c>
       <c r="AT30" s="11">
-        <v>378048</v>
+        <v>691187</v>
       </c>
       <c r="AU30" s="11">
-        <v>691187</v>
+        <v>514105</v>
       </c>
       <c r="AV30" s="11">
-        <v>514105</v>
+        <v>664946</v>
       </c>
       <c r="AW30" s="11">
-        <v>664946</v>
+        <v>679069</v>
       </c>
       <c r="AX30" s="11">
-        <v>679069</v>
+        <v>589591</v>
       </c>
       <c r="AY30" s="11">
-        <v>589591</v>
+        <v>526221</v>
       </c>
       <c r="AZ30" s="11">
-        <v>526221</v>
+        <v>533064</v>
       </c>
       <c r="BA30" s="11">
-        <v>533064</v>
+        <v>349541</v>
       </c>
       <c r="BB30" s="11">
-        <v>349541</v>
+        <v>510167</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3972,154 +3972,154 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>613446</v>
+        <v>291153</v>
       </c>
       <c r="F31" s="13">
-        <v>291153</v>
+        <v>631503</v>
       </c>
       <c r="G31" s="13">
-        <v>631503</v>
+        <v>545978</v>
       </c>
       <c r="H31" s="13">
-        <v>545978</v>
+        <v>751366</v>
       </c>
       <c r="I31" s="13">
-        <v>751366</v>
+        <v>364577</v>
       </c>
       <c r="J31" s="13">
-        <v>364577</v>
+        <v>533332</v>
       </c>
       <c r="K31" s="13">
-        <v>533332</v>
+        <v>623624</v>
       </c>
       <c r="L31" s="13">
-        <v>623624</v>
+        <v>516594</v>
       </c>
       <c r="M31" s="13">
-        <v>516594</v>
+        <v>612314</v>
       </c>
       <c r="N31" s="13">
-        <v>612314</v>
+        <v>634304</v>
       </c>
       <c r="O31" s="13">
-        <v>634304</v>
+        <v>564878</v>
       </c>
       <c r="P31" s="13">
-        <v>564878</v>
+        <v>412770</v>
       </c>
       <c r="Q31" s="13">
-        <v>412770</v>
+        <v>54201</v>
       </c>
       <c r="R31" s="13">
-        <v>54201</v>
+        <v>597155</v>
       </c>
       <c r="S31" s="13">
-        <v>597155</v>
+        <v>551267</v>
       </c>
       <c r="T31" s="13">
-        <v>551267</v>
+        <v>631183</v>
       </c>
       <c r="U31" s="13">
-        <v>631183</v>
+        <v>437029</v>
       </c>
       <c r="V31" s="13">
-        <v>437029</v>
+        <v>667799</v>
       </c>
       <c r="W31" s="13">
-        <v>667799</v>
+        <v>543766</v>
       </c>
       <c r="X31" s="13">
-        <v>543766</v>
+        <v>557042</v>
       </c>
       <c r="Y31" s="13">
-        <v>557042</v>
+        <v>701873</v>
       </c>
       <c r="Z31" s="13">
-        <v>701873</v>
+        <v>649063</v>
       </c>
       <c r="AA31" s="13">
-        <v>649063</v>
+        <v>630346</v>
       </c>
       <c r="AB31" s="13">
-        <v>630346</v>
+        <v>626549</v>
       </c>
       <c r="AC31" s="13">
-        <v>626549</v>
+        <v>426148</v>
       </c>
       <c r="AD31" s="13">
-        <v>426148</v>
+        <v>521822</v>
       </c>
       <c r="AE31" s="13">
-        <v>521822</v>
+        <v>575170</v>
       </c>
       <c r="AF31" s="13">
-        <v>575170</v>
+        <v>575921</v>
       </c>
       <c r="AG31" s="13">
-        <v>575921</v>
+        <v>278343</v>
       </c>
       <c r="AH31" s="13">
-        <v>278343</v>
+        <v>589695</v>
       </c>
       <c r="AI31" s="13">
-        <v>589695</v>
+        <v>519559</v>
       </c>
       <c r="AJ31" s="13">
-        <v>519559</v>
+        <v>591166</v>
       </c>
       <c r="AK31" s="13">
-        <v>591166</v>
+        <v>671464</v>
       </c>
       <c r="AL31" s="13">
-        <v>671464</v>
+        <v>704984</v>
       </c>
       <c r="AM31" s="13">
-        <v>704984</v>
+        <v>632631</v>
       </c>
       <c r="AN31" s="13">
-        <v>632631</v>
+        <v>633424</v>
       </c>
       <c r="AO31" s="13">
-        <v>633424</v>
+        <v>435770</v>
       </c>
       <c r="AP31" s="13">
-        <v>435770</v>
+        <v>550910</v>
       </c>
       <c r="AQ31" s="13">
-        <v>550910</v>
+        <v>735036</v>
       </c>
       <c r="AR31" s="13">
-        <v>735036</v>
+        <v>699684</v>
       </c>
       <c r="AS31" s="13">
-        <v>699684</v>
+        <v>407729</v>
       </c>
       <c r="AT31" s="13">
-        <v>407729</v>
+        <v>783874</v>
       </c>
       <c r="AU31" s="13">
-        <v>783874</v>
+        <v>548762</v>
       </c>
       <c r="AV31" s="13">
-        <v>548762</v>
+        <v>739109</v>
       </c>
       <c r="AW31" s="13">
-        <v>739109</v>
+        <v>756458</v>
       </c>
       <c r="AX31" s="13">
-        <v>756458</v>
+        <v>638894</v>
       </c>
       <c r="AY31" s="13">
-        <v>638894</v>
+        <v>623066</v>
       </c>
       <c r="AZ31" s="13">
-        <v>623066</v>
+        <v>606586</v>
       </c>
       <c r="BA31" s="13">
-        <v>606586</v>
+        <v>397149</v>
       </c>
       <c r="BB31" s="13">
-        <v>397149</v>
+        <v>622316</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4131,154 +4131,154 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>176416</v>
+        <v>81185</v>
       </c>
       <c r="F32" s="11">
-        <v>81185</v>
+        <v>195537</v>
       </c>
       <c r="G32" s="11">
-        <v>195537</v>
+        <v>174975</v>
       </c>
       <c r="H32" s="11">
-        <v>174975</v>
+        <v>226657</v>
       </c>
       <c r="I32" s="11">
-        <v>226657</v>
+        <v>121245</v>
       </c>
       <c r="J32" s="11">
-        <v>121245</v>
+        <v>181152</v>
       </c>
       <c r="K32" s="11">
-        <v>181152</v>
+        <v>176814</v>
       </c>
       <c r="L32" s="11">
-        <v>176814</v>
+        <v>150855</v>
       </c>
       <c r="M32" s="11">
-        <v>150855</v>
+        <v>234694</v>
       </c>
       <c r="N32" s="11">
-        <v>234694</v>
+        <v>244299</v>
       </c>
       <c r="O32" s="11">
-        <v>244299</v>
+        <v>197026</v>
       </c>
       <c r="P32" s="11">
-        <v>197026</v>
+        <v>184585</v>
       </c>
       <c r="Q32" s="11">
-        <v>184585</v>
+        <v>9396</v>
       </c>
       <c r="R32" s="11">
-        <v>9396</v>
+        <v>204553</v>
       </c>
       <c r="S32" s="11">
-        <v>204553</v>
+        <v>209572</v>
       </c>
       <c r="T32" s="11">
-        <v>209572</v>
+        <v>245297</v>
       </c>
       <c r="U32" s="11">
-        <v>245297</v>
+        <v>140448</v>
       </c>
       <c r="V32" s="11">
-        <v>140448</v>
+        <v>216288</v>
       </c>
       <c r="W32" s="11">
-        <v>216288</v>
+        <v>217806</v>
       </c>
       <c r="X32" s="11">
-        <v>217806</v>
+        <v>216095</v>
       </c>
       <c r="Y32" s="11">
-        <v>216095</v>
+        <v>302768</v>
       </c>
       <c r="Z32" s="11">
-        <v>302768</v>
+        <v>268140</v>
       </c>
       <c r="AA32" s="11">
-        <v>268140</v>
+        <v>279993</v>
       </c>
       <c r="AB32" s="11">
-        <v>279993</v>
+        <v>229968</v>
       </c>
       <c r="AC32" s="11">
-        <v>229968</v>
+        <v>119389</v>
       </c>
       <c r="AD32" s="11">
-        <v>119389</v>
+        <v>217706</v>
       </c>
       <c r="AE32" s="11">
-        <v>217706</v>
+        <v>241488</v>
       </c>
       <c r="AF32" s="11">
-        <v>241488</v>
+        <v>241698</v>
       </c>
       <c r="AG32" s="11">
-        <v>241698</v>
+        <v>108368</v>
       </c>
       <c r="AH32" s="11">
-        <v>108368</v>
+        <v>235243</v>
       </c>
       <c r="AI32" s="11">
-        <v>235243</v>
+        <v>239511</v>
       </c>
       <c r="AJ32" s="11">
-        <v>239511</v>
+        <v>277858</v>
       </c>
       <c r="AK32" s="11">
-        <v>277858</v>
+        <v>274621</v>
       </c>
       <c r="AL32" s="11">
-        <v>274621</v>
+        <v>258497</v>
       </c>
       <c r="AM32" s="11">
-        <v>258497</v>
+        <v>225034</v>
       </c>
       <c r="AN32" s="11">
-        <v>225034</v>
+        <v>246397</v>
       </c>
       <c r="AO32" s="11">
-        <v>246397</v>
+        <v>138066</v>
       </c>
       <c r="AP32" s="11">
-        <v>138066</v>
+        <v>139819</v>
       </c>
       <c r="AQ32" s="11">
-        <v>139819</v>
+        <v>280820</v>
       </c>
       <c r="AR32" s="11">
-        <v>280820</v>
+        <v>245160</v>
       </c>
       <c r="AS32" s="11">
-        <v>245160</v>
+        <v>123635</v>
       </c>
       <c r="AT32" s="11">
-        <v>123635</v>
+        <v>240836</v>
       </c>
       <c r="AU32" s="11">
-        <v>240836</v>
+        <v>174970</v>
       </c>
       <c r="AV32" s="11">
-        <v>174970</v>
+        <v>240991</v>
       </c>
       <c r="AW32" s="11">
-        <v>240991</v>
+        <v>223130</v>
       </c>
       <c r="AX32" s="11">
-        <v>223130</v>
+        <v>155516</v>
       </c>
       <c r="AY32" s="11">
-        <v>155516</v>
+        <v>127142</v>
       </c>
       <c r="AZ32" s="11">
-        <v>127142</v>
+        <v>78182</v>
       </c>
       <c r="BA32" s="11">
-        <v>78182</v>
+        <v>120431</v>
       </c>
       <c r="BB32" s="11">
-        <v>120431</v>
+        <v>163254</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4290,154 +4290,154 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>325989</v>
+        <v>158939</v>
       </c>
       <c r="F33" s="13">
-        <v>158939</v>
+        <v>331058</v>
       </c>
       <c r="G33" s="13">
-        <v>331058</v>
+        <v>276110</v>
       </c>
       <c r="H33" s="13">
-        <v>276110</v>
+        <v>290567</v>
       </c>
       <c r="I33" s="13">
-        <v>290567</v>
+        <v>142180</v>
       </c>
       <c r="J33" s="13">
-        <v>142180</v>
+        <v>302207</v>
       </c>
       <c r="K33" s="13">
-        <v>302207</v>
+        <v>235694</v>
       </c>
       <c r="L33" s="13">
-        <v>235694</v>
+        <v>235705</v>
       </c>
       <c r="M33" s="13">
-        <v>235705</v>
+        <v>146428</v>
       </c>
       <c r="N33" s="13">
-        <v>146428</v>
+        <v>178177</v>
       </c>
       <c r="O33" s="13">
-        <v>178177</v>
+        <v>120363</v>
       </c>
       <c r="P33" s="13">
-        <v>120363</v>
+        <v>223409</v>
       </c>
       <c r="Q33" s="13">
-        <v>223409</v>
+        <v>21762</v>
       </c>
       <c r="R33" s="13">
-        <v>21762</v>
+        <v>291957</v>
       </c>
       <c r="S33" s="13">
-        <v>291957</v>
+        <v>174056</v>
       </c>
       <c r="T33" s="13">
-        <v>174056</v>
+        <v>201297</v>
       </c>
       <c r="U33" s="13">
-        <v>201297</v>
+        <v>151189</v>
       </c>
       <c r="V33" s="13">
-        <v>151189</v>
+        <v>195046</v>
       </c>
       <c r="W33" s="13">
-        <v>195046</v>
+        <v>189192</v>
       </c>
       <c r="X33" s="13">
-        <v>189192</v>
+        <v>118629</v>
       </c>
       <c r="Y33" s="13">
-        <v>118629</v>
+        <v>209314</v>
       </c>
       <c r="Z33" s="13">
-        <v>209314</v>
+        <v>231252</v>
       </c>
       <c r="AA33" s="13">
-        <v>231252</v>
+        <v>368541</v>
       </c>
       <c r="AB33" s="13">
-        <v>368541</v>
+        <v>435227</v>
       </c>
       <c r="AC33" s="13">
-        <v>435227</v>
+        <v>138251</v>
       </c>
       <c r="AD33" s="13">
-        <v>138251</v>
+        <v>157955</v>
       </c>
       <c r="AE33" s="13">
-        <v>157955</v>
+        <v>150038</v>
       </c>
       <c r="AF33" s="13">
-        <v>150038</v>
+        <v>125027</v>
       </c>
       <c r="AG33" s="13">
-        <v>125027</v>
+        <v>80842</v>
       </c>
       <c r="AH33" s="13">
-        <v>80842</v>
+        <v>116717</v>
       </c>
       <c r="AI33" s="13">
-        <v>116717</v>
+        <v>164550</v>
       </c>
       <c r="AJ33" s="13">
-        <v>164550</v>
+        <v>145712</v>
       </c>
       <c r="AK33" s="13">
-        <v>145712</v>
+        <v>190391</v>
       </c>
       <c r="AL33" s="13">
-        <v>190391</v>
+        <v>210172</v>
       </c>
       <c r="AM33" s="13">
-        <v>210172</v>
+        <v>168689</v>
       </c>
       <c r="AN33" s="13">
-        <v>168689</v>
+        <v>167314</v>
       </c>
       <c r="AO33" s="13">
-        <v>167314</v>
+        <v>98176</v>
       </c>
       <c r="AP33" s="13">
-        <v>98176</v>
+        <v>105667</v>
       </c>
       <c r="AQ33" s="13">
-        <v>105667</v>
+        <v>163636</v>
       </c>
       <c r="AR33" s="13">
-        <v>163636</v>
+        <v>208735</v>
       </c>
       <c r="AS33" s="13">
-        <v>208735</v>
+        <v>102394</v>
       </c>
       <c r="AT33" s="13">
-        <v>102394</v>
+        <v>189602</v>
       </c>
       <c r="AU33" s="13">
-        <v>189602</v>
+        <v>154097</v>
       </c>
       <c r="AV33" s="13">
-        <v>154097</v>
+        <v>138872</v>
       </c>
       <c r="AW33" s="13">
-        <v>138872</v>
+        <v>104200</v>
       </c>
       <c r="AX33" s="13">
-        <v>104200</v>
+        <v>83464</v>
       </c>
       <c r="AY33" s="13">
-        <v>83464</v>
+        <v>153000</v>
       </c>
       <c r="AZ33" s="13">
-        <v>153000</v>
+        <v>196328</v>
       </c>
       <c r="BA33" s="13">
-        <v>196328</v>
+        <v>98010</v>
       </c>
       <c r="BB33" s="13">
-        <v>98010</v>
+        <v>77195</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4449,154 +4449,154 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>235990</v>
+        <v>124137</v>
       </c>
       <c r="F34" s="11">
-        <v>124137</v>
+        <v>171494</v>
       </c>
       <c r="G34" s="11">
-        <v>171494</v>
+        <v>167085</v>
       </c>
       <c r="H34" s="11">
-        <v>167085</v>
+        <v>252786</v>
       </c>
       <c r="I34" s="11">
-        <v>252786</v>
+        <v>136126</v>
       </c>
       <c r="J34" s="11">
-        <v>136126</v>
+        <v>178872</v>
       </c>
       <c r="K34" s="11">
-        <v>178872</v>
+        <v>167399</v>
       </c>
       <c r="L34" s="11">
-        <v>167399</v>
+        <v>40832</v>
       </c>
       <c r="M34" s="11">
-        <v>40832</v>
+        <v>112676</v>
       </c>
       <c r="N34" s="11">
-        <v>112676</v>
+        <v>78770</v>
       </c>
       <c r="O34" s="11">
-        <v>78770</v>
+        <v>155257</v>
       </c>
       <c r="P34" s="11">
-        <v>155257</v>
+        <v>228043</v>
       </c>
       <c r="Q34" s="11">
-        <v>228043</v>
+        <v>46715</v>
       </c>
       <c r="R34" s="11">
-        <v>46715</v>
+        <v>176237</v>
       </c>
       <c r="S34" s="11">
-        <v>176237</v>
+        <v>174106</v>
       </c>
       <c r="T34" s="11">
-        <v>174106</v>
+        <v>182756</v>
       </c>
       <c r="U34" s="11">
-        <v>182756</v>
+        <v>66464</v>
       </c>
       <c r="V34" s="11">
-        <v>66464</v>
+        <v>178646</v>
       </c>
       <c r="W34" s="11">
-        <v>178646</v>
+        <v>133644</v>
       </c>
       <c r="X34" s="11">
-        <v>133644</v>
+        <v>147032</v>
       </c>
       <c r="Y34" s="11">
-        <v>147032</v>
+        <v>124456</v>
       </c>
       <c r="Z34" s="11">
-        <v>124456</v>
+        <v>155724</v>
       </c>
       <c r="AA34" s="11">
-        <v>155724</v>
+        <v>19117</v>
       </c>
       <c r="AB34" s="11">
-        <v>19117</v>
+        <v>1802</v>
       </c>
       <c r="AC34" s="11">
-        <v>1802</v>
+        <v>152558</v>
       </c>
       <c r="AD34" s="11">
-        <v>152558</v>
+        <v>252954</v>
       </c>
       <c r="AE34" s="11">
-        <v>252954</v>
+        <v>305025</v>
       </c>
       <c r="AF34" s="11">
-        <v>305025</v>
+        <v>310374</v>
       </c>
       <c r="AG34" s="11">
-        <v>310374</v>
+        <v>142155</v>
       </c>
       <c r="AH34" s="11">
-        <v>142155</v>
+        <v>248534</v>
       </c>
       <c r="AI34" s="11">
-        <v>248534</v>
+        <v>236346</v>
       </c>
       <c r="AJ34" s="11">
-        <v>236346</v>
+        <v>318542</v>
       </c>
       <c r="AK34" s="11">
-        <v>318542</v>
+        <v>311910</v>
       </c>
       <c r="AL34" s="11">
-        <v>311910</v>
+        <v>257870</v>
       </c>
       <c r="AM34" s="11">
-        <v>257870</v>
+        <v>270465</v>
       </c>
       <c r="AN34" s="11">
-        <v>270465</v>
+        <v>263957</v>
       </c>
       <c r="AO34" s="11">
-        <v>263957</v>
+        <v>165660</v>
       </c>
       <c r="AP34" s="11">
-        <v>165660</v>
+        <v>203704</v>
       </c>
       <c r="AQ34" s="11">
-        <v>203704</v>
+        <v>318828</v>
       </c>
       <c r="AR34" s="11">
-        <v>318828</v>
+        <v>168643</v>
       </c>
       <c r="AS34" s="11">
-        <v>168643</v>
+        <v>94877</v>
       </c>
       <c r="AT34" s="11">
-        <v>94877</v>
+        <v>242922</v>
       </c>
       <c r="AU34" s="11">
-        <v>242922</v>
+        <v>133003</v>
       </c>
       <c r="AV34" s="11">
-        <v>133003</v>
+        <v>194737</v>
       </c>
       <c r="AW34" s="11">
-        <v>194737</v>
+        <v>237572</v>
       </c>
       <c r="AX34" s="11">
-        <v>237572</v>
+        <v>184843</v>
       </c>
       <c r="AY34" s="11">
-        <v>184843</v>
+        <v>245503</v>
       </c>
       <c r="AZ34" s="11">
-        <v>245503</v>
+        <v>320021</v>
       </c>
       <c r="BA34" s="11">
-        <v>320021</v>
+        <v>182032</v>
       </c>
       <c r="BB34" s="11">
-        <v>182032</v>
+        <v>217018</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4608,121 +4608,121 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>28641</v>
+        <v>1319</v>
       </c>
       <c r="F35" s="13">
-        <v>1319</v>
+        <v>4414</v>
       </c>
       <c r="G35" s="13">
-        <v>4414</v>
+        <v>3310</v>
       </c>
       <c r="H35" s="13">
-        <v>3310</v>
+        <v>805</v>
       </c>
       <c r="I35" s="13">
-        <v>805</v>
+        <v>2908</v>
       </c>
       <c r="J35" s="13">
-        <v>2908</v>
+        <v>1559</v>
       </c>
       <c r="K35" s="13">
-        <v>1559</v>
+        <v>5912</v>
       </c>
       <c r="L35" s="13">
-        <v>5912</v>
+        <v>12410</v>
       </c>
       <c r="M35" s="13">
-        <v>12410</v>
+        <v>9742</v>
       </c>
       <c r="N35" s="13">
-        <v>9742</v>
+        <v>5763</v>
       </c>
       <c r="O35" s="13">
-        <v>5763</v>
+        <v>6933</v>
       </c>
       <c r="P35" s="13">
-        <v>6933</v>
+        <v>8241</v>
       </c>
       <c r="Q35" s="13">
-        <v>8241</v>
+        <v>0</v>
       </c>
       <c r="R35" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="S35" s="13">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="T35" s="13">
-        <v>144</v>
+        <v>4195</v>
       </c>
       <c r="U35" s="13">
-        <v>4195</v>
+        <v>1100</v>
       </c>
       <c r="V35" s="13">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="X35" s="13">
-        <v>576</v>
+        <v>3706</v>
       </c>
       <c r="Y35" s="13">
-        <v>3706</v>
+        <v>3438</v>
       </c>
       <c r="Z35" s="13">
-        <v>3438</v>
+        <v>638</v>
       </c>
       <c r="AA35" s="13">
-        <v>638</v>
+        <v>4541</v>
       </c>
       <c r="AB35" s="13">
-        <v>4541</v>
+        <v>6827</v>
       </c>
       <c r="AC35" s="13">
-        <v>6827</v>
+        <v>147</v>
       </c>
       <c r="AD35" s="13">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="AE35" s="13">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AF35" s="13">
+        <v>40</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>11</v>
+      </c>
+      <c r="AH35" s="13">
+        <v>66</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>3014</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>2898</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="13">
+        <v>2049</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>11183</v>
+      </c>
+      <c r="AN35" s="13">
+        <v>17529</v>
+      </c>
+      <c r="AO35" s="13">
         <v>10</v>
       </c>
-      <c r="AG35" s="13">
-        <v>40</v>
-      </c>
-      <c r="AH35" s="13">
-        <v>11</v>
-      </c>
-      <c r="AI35" s="13">
-        <v>66</v>
-      </c>
-      <c r="AJ35" s="13">
-        <v>3014</v>
-      </c>
-      <c r="AK35" s="13">
-        <v>2898</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="13">
-        <v>2049</v>
-      </c>
-      <c r="AN35" s="13">
-        <v>11183</v>
-      </c>
-      <c r="AO35" s="13">
-        <v>17529</v>
-      </c>
       <c r="AP35" s="13">
-        <v>10</v>
+        <v>7500</v>
       </c>
       <c r="AQ35" s="13">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="13">
         <v>0</v>
@@ -4731,31 +4731,31 @@
         <v>0</v>
       </c>
       <c r="AT35" s="13">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AU35" s="13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="13">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="AW35" s="13">
-        <v>613</v>
+        <v>5722</v>
       </c>
       <c r="AX35" s="13">
-        <v>5722</v>
+        <v>17238</v>
       </c>
       <c r="AY35" s="13">
-        <v>17238</v>
+        <v>5932</v>
       </c>
       <c r="AZ35" s="13">
-        <v>5932</v>
+        <v>13127</v>
       </c>
       <c r="BA35" s="13">
-        <v>13127</v>
+        <v>164</v>
       </c>
       <c r="BB35" s="13">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4860,8 +4860,8 @@
       <c r="Q37" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="R37" s="17" t="s">
-        <v>66</v>
+      <c r="R37" s="17">
+        <v>0</v>
       </c>
       <c r="S37" s="17">
         <v>0</v>
@@ -5076,90 +5076,90 @@
       <c r="Q39" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R39" s="11" t="s">
-        <v>66</v>
+      <c r="R39" s="11">
+        <v>332</v>
       </c>
       <c r="S39" s="11">
-        <v>332</v>
+        <v>-22</v>
       </c>
       <c r="T39" s="11">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="U39" s="11">
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="V39" s="11">
-        <v>-155</v>
+        <v>-1439</v>
       </c>
       <c r="W39" s="11">
-        <v>-1439</v>
+        <v>0</v>
       </c>
       <c r="X39" s="11">
         <v>0</v>
       </c>
       <c r="Y39" s="11">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="Z39" s="11">
-        <v>-40</v>
+        <v>-2786</v>
       </c>
       <c r="AA39" s="11">
-        <v>-2786</v>
+        <v>-591</v>
       </c>
       <c r="AB39" s="11">
-        <v>-591</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="11" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>1162</v>
       </c>
       <c r="AE39" s="11">
-        <v>1162</v>
+        <v>-995</v>
       </c>
       <c r="AF39" s="11">
-        <v>-995</v>
-      </c>
-      <c r="AG39" s="11">
         <v>-201</v>
       </c>
-      <c r="AH39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI39" s="11">
+      <c r="AG39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH39" s="11">
         <v>-283</v>
       </c>
-      <c r="AJ39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK39" s="11">
+      <c r="AI39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ39" s="11">
         <v>-5029</v>
       </c>
+      <c r="AK39" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AL39" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AM39" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AN39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO39" s="11">
+      <c r="AN39" s="11">
         <v>-20</v>
       </c>
+      <c r="AO39" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AP39" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AQ39" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AR39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS39" s="11">
+      <c r="AR39" s="11">
         <v>-240</v>
       </c>
+      <c r="AS39" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AT39" s="11" t="s">
         <v>66</v>
       </c>
@@ -5169,23 +5169,23 @@
       <c r="AV39" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AW39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX39" s="11">
+      <c r="AW39" s="11">
         <v>-505</v>
       </c>
-      <c r="AY39" s="11" t="s">
-        <v>66</v>
+      <c r="AX39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY39" s="11">
+        <v>-570</v>
       </c>
       <c r="AZ39" s="11">
-        <v>-570</v>
-      </c>
-      <c r="BA39" s="11">
         <v>-56</v>
       </c>
-      <c r="BB39" s="11" t="s">
-        <v>66</v>
+      <c r="BA39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB39" s="11">
+        <v>-996</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5259,8 +5259,8 @@
       <c r="Y40" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z40" s="13" t="s">
-        <v>66</v>
+      <c r="Z40" s="13">
+        <v>0</v>
       </c>
       <c r="AA40" s="13">
         <v>0</v>
@@ -5268,18 +5268,18 @@
       <c r="AB40" s="13">
         <v>0</v>
       </c>
-      <c r="AC40" s="13">
-        <v>0</v>
+      <c r="AC40" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="AD40" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AE40" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF40" s="13">
+      <c r="AE40" s="13">
         <v>-901</v>
       </c>
+      <c r="AF40" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="AG40" s="13" t="s">
         <v>66</v>
       </c>
@@ -5289,35 +5289,35 @@
       <c r="AI40" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AJ40" s="13" t="s">
-        <v>66</v>
+      <c r="AJ40" s="13">
+        <v>-24839</v>
       </c>
       <c r="AK40" s="13">
-        <v>-24839</v>
+        <v>-6247</v>
       </c>
       <c r="AL40" s="13">
-        <v>-6247</v>
-      </c>
-      <c r="AM40" s="13">
         <v>-10</v>
       </c>
+      <c r="AM40" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="AN40" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AO40" s="13" t="s">
-        <v>66</v>
+      <c r="AO40" s="13">
+        <v>-5247</v>
       </c>
       <c r="AP40" s="13">
-        <v>-5247</v>
+        <v>-4821</v>
       </c>
       <c r="AQ40" s="13">
-        <v>-4821</v>
+        <v>-4336</v>
       </c>
       <c r="AR40" s="13">
-        <v>-4336</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS40" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="AT40" s="13" t="s">
         <v>66</v>
@@ -5328,20 +5328,20 @@
       <c r="AV40" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AW40" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX40" s="13">
+      <c r="AW40" s="13">
         <v>-653</v>
       </c>
+      <c r="AX40" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="AY40" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AZ40" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA40" s="13">
+      <c r="AZ40" s="13">
         <v>-248</v>
+      </c>
+      <c r="BA40" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="BB40" s="13" t="s">
         <v>66</v>
@@ -5394,96 +5394,96 @@
       <c r="Q41" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R41" s="11" t="s">
-        <v>66</v>
+      <c r="R41" s="11">
+        <v>150</v>
       </c>
       <c r="S41" s="11">
-        <v>150</v>
+        <v>-120</v>
       </c>
       <c r="T41" s="11">
-        <v>-120</v>
+        <v>-42</v>
       </c>
       <c r="U41" s="11">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="V41" s="11">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="W41" s="11">
-        <v>-40</v>
+        <v>-224</v>
       </c>
       <c r="X41" s="11">
-        <v>-224</v>
+        <v>-352</v>
       </c>
       <c r="Y41" s="11">
-        <v>-352</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="11">
-        <v>0</v>
+        <v>-178</v>
       </c>
       <c r="AA41" s="11">
-        <v>-178</v>
+        <v>-344</v>
       </c>
       <c r="AB41" s="11">
-        <v>-344</v>
+        <v>-138</v>
       </c>
       <c r="AC41" s="11">
-        <v>-138</v>
+        <v>1200</v>
       </c>
       <c r="AD41" s="11">
-        <v>1200</v>
+        <v>12</v>
       </c>
       <c r="AE41" s="11">
-        <v>12</v>
-      </c>
-      <c r="AF41" s="11">
         <v>-903</v>
       </c>
-      <c r="AG41" s="11" t="s">
-        <v>66</v>
+      <c r="AF41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>-75</v>
       </c>
       <c r="AH41" s="11">
-        <v>-75</v>
-      </c>
-      <c r="AI41" s="11">
         <v>-34</v>
       </c>
-      <c r="AJ41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK41" s="11">
+      <c r="AI41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ41" s="11">
         <v>-10</v>
       </c>
-      <c r="AL41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM41" s="11">
+      <c r="AK41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL41" s="11">
         <v>-4</v>
       </c>
-      <c r="AN41" s="11" t="s">
-        <v>66</v>
+      <c r="AM41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>-84</v>
       </c>
       <c r="AO41" s="11">
-        <v>-84</v>
-      </c>
-      <c r="AP41" s="11">
         <v>-3</v>
       </c>
-      <c r="AQ41" s="11" t="s">
-        <v>66</v>
+      <c r="AP41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>-68</v>
       </c>
       <c r="AR41" s="11">
-        <v>-68</v>
-      </c>
-      <c r="AS41" s="11">
         <v>-126</v>
       </c>
-      <c r="AT41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU41" s="11">
+      <c r="AS41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT41" s="11">
         <v>-20</v>
       </c>
+      <c r="AU41" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AV41" s="11" t="s">
         <v>66</v>
       </c>
@@ -5496,11 +5496,11 @@
       <c r="AY41" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AZ41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA41" s="11">
+      <c r="AZ41" s="11">
         <v>-105</v>
+      </c>
+      <c r="BA41" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="BB41" s="11" t="s">
         <v>66</v>
@@ -5556,11 +5556,11 @@
       <c r="R42" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S42" s="13" t="s">
-        <v>66</v>
+      <c r="S42" s="13">
+        <v>-30</v>
       </c>
       <c r="T42" s="13">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="U42" s="13">
         <v>0</v>
@@ -5586,8 +5586,8 @@
       <c r="AB42" s="13">
         <v>0</v>
       </c>
-      <c r="AC42" s="13">
-        <v>0</v>
+      <c r="AC42" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="AD42" s="13" t="s">
         <v>66</v>
@@ -5631,11 +5631,11 @@
       <c r="AQ42" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AR42" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS42" s="13">
-        <v>0</v>
+      <c r="AR42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="AT42" s="13" t="s">
         <v>66</v>
@@ -5712,57 +5712,57 @@
       <c r="Q43" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R43" s="11" t="s">
-        <v>66</v>
+      <c r="R43" s="11">
+        <v>854</v>
       </c>
       <c r="S43" s="11">
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="T43" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U43" s="11">
-        <v>-1</v>
+        <v>-284</v>
       </c>
       <c r="V43" s="11">
-        <v>-284</v>
+        <v>-123</v>
       </c>
       <c r="W43" s="11">
-        <v>-123</v>
+        <v>0</v>
       </c>
       <c r="X43" s="11">
         <v>0</v>
       </c>
       <c r="Y43" s="11">
-        <v>0</v>
+        <v>-164</v>
       </c>
       <c r="Z43" s="11">
-        <v>-164</v>
+        <v>-201</v>
       </c>
       <c r="AA43" s="11">
-        <v>-201</v>
+        <v>-474</v>
       </c>
       <c r="AB43" s="11">
-        <v>-474</v>
-      </c>
-      <c r="AC43" s="11">
         <v>-1113</v>
       </c>
-      <c r="AD43" s="11" t="s">
-        <v>66</v>
+      <c r="AC43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>767</v>
       </c>
       <c r="AE43" s="11">
-        <v>767</v>
+        <v>-14</v>
       </c>
       <c r="AF43" s="11">
-        <v>-14</v>
+        <v>-798</v>
       </c>
       <c r="AG43" s="11">
-        <v>-798</v>
-      </c>
-      <c r="AH43" s="11">
         <v>-90</v>
       </c>
+      <c r="AH43" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AI43" s="11" t="s">
         <v>66</v>
       </c>
@@ -5778,47 +5778,47 @@
       <c r="AM43" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AN43" s="11" t="s">
-        <v>66</v>
+      <c r="AN43" s="11">
+        <v>-58</v>
       </c>
       <c r="AO43" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AP43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT43" s="11">
+        <v>-233</v>
+      </c>
+      <c r="AU43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW43" s="11">
+        <v>-968</v>
+      </c>
+      <c r="AX43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ43" s="11">
         <v>-58</v>
       </c>
-      <c r="AP43" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AQ43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU43" s="11">
-        <v>-233</v>
-      </c>
-      <c r="AV43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX43" s="11">
-        <v>-968</v>
-      </c>
-      <c r="AY43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ43" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA43" s="11">
-        <v>-58</v>
+      <c r="BA43" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="BB43" s="11" t="s">
         <v>66</v>
@@ -5874,17 +5874,17 @@
       <c r="R44" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S44" s="13" t="s">
-        <v>66</v>
+      <c r="S44" s="13">
+        <v>0</v>
       </c>
       <c r="T44" s="13">
         <v>0</v>
       </c>
       <c r="U44" s="13">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="V44" s="13">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="W44" s="13">
         <v>0</v>
@@ -5896,25 +5896,25 @@
         <v>0</v>
       </c>
       <c r="Z44" s="13">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AA44" s="13">
-        <v>-17</v>
+        <v>-3</v>
       </c>
       <c r="AB44" s="13">
-        <v>-3</v>
-      </c>
-      <c r="AC44" s="13">
         <v>-1</v>
       </c>
-      <c r="AD44" s="13" t="s">
-        <v>66</v>
+      <c r="AC44" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD44" s="13">
+        <v>44</v>
       </c>
       <c r="AE44" s="13">
-        <v>44</v>
-      </c>
-      <c r="AF44" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="AG44" s="13" t="s">
         <v>66</v>
@@ -5949,11 +5949,11 @@
       <c r="AQ44" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AR44" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS44" s="13">
-        <v>0</v>
+      <c r="AR44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="AT44" s="13" t="s">
         <v>66</v>
@@ -6030,50 +6030,50 @@
       <c r="Q45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R45" s="11" t="s">
-        <v>66</v>
+      <c r="R45" s="11">
+        <v>38</v>
       </c>
       <c r="S45" s="11">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T45" s="11">
         <v>0</v>
       </c>
       <c r="U45" s="11">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="V45" s="11">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="W45" s="11">
         <v>0</v>
       </c>
       <c r="X45" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Y45" s="11">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="11">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AA45" s="11">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="11">
         <v>0</v>
       </c>
-      <c r="AC45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="11" t="s">
-        <v>66</v>
+      <c r="AC45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD45" s="11">
+        <v>87</v>
       </c>
       <c r="AE45" s="11">
-        <v>87</v>
-      </c>
-      <c r="AF45" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="AG45" s="11" t="s">
         <v>66</v>
@@ -6081,12 +6081,12 @@
       <c r="AH45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AI45" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ45" s="11">
+      <c r="AI45" s="11">
         <v>-38</v>
       </c>
+      <c r="AJ45" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="AK45" s="11" t="s">
         <v>66</v>
       </c>
@@ -6108,11 +6108,11 @@
       <c r="AQ45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AR45" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS45" s="11">
-        <v>0</v>
+      <c r="AR45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="AT45" s="11" t="s">
         <v>66</v>
@@ -6189,20 +6189,20 @@
       <c r="Q46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="R46" s="13" t="s">
-        <v>66</v>
+      <c r="R46" s="13">
+        <v>38</v>
       </c>
       <c r="S46" s="13">
-        <v>38</v>
+        <v>-71</v>
       </c>
       <c r="T46" s="13">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="U46" s="13">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="V46" s="13">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="W46" s="13">
         <v>0</v>
@@ -6214,26 +6214,26 @@
         <v>0</v>
       </c>
       <c r="Z46" s="13">
-        <v>0</v>
+        <v>-84</v>
       </c>
       <c r="AA46" s="13">
-        <v>-84</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="13">
         <v>-38</v>
       </c>
+      <c r="AC46" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="AD46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AE46" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF46" s="13">
+      <c r="AE46" s="13">
         <v>-30</v>
       </c>
+      <c r="AF46" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="AG46" s="13" t="s">
         <v>66</v>
       </c>
@@ -6255,23 +6255,23 @@
       <c r="AM46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AN46" s="13" t="s">
-        <v>66</v>
+      <c r="AN46" s="13">
+        <v>-12</v>
       </c>
       <c r="AO46" s="13">
-        <v>-12</v>
-      </c>
-      <c r="AP46" s="13">
         <v>-10</v>
       </c>
+      <c r="AP46" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="AQ46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AR46" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS46" s="13">
-        <v>0</v>
+      <c r="AR46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="AT46" s="13" t="s">
         <v>66</v>
@@ -6291,11 +6291,11 @@
       <c r="AY46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AZ46" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA46" s="13">
+      <c r="AZ46" s="13">
         <v>-1750</v>
+      </c>
+      <c r="BA46" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="BB46" s="13" t="s">
         <v>66</v>
@@ -6346,116 +6346,116 @@
       <c r="Q47" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="R47" s="17" t="s">
-        <v>66</v>
+      <c r="R47" s="17">
+        <v>1412</v>
       </c>
       <c r="S47" s="17">
-        <v>1412</v>
+        <v>-243</v>
       </c>
       <c r="T47" s="17">
-        <v>-243</v>
+        <v>-43</v>
       </c>
       <c r="U47" s="17">
-        <v>-43</v>
+        <v>-594</v>
       </c>
       <c r="V47" s="17">
-        <v>-594</v>
+        <v>-1602</v>
       </c>
       <c r="W47" s="17">
-        <v>-1602</v>
+        <v>-224</v>
       </c>
       <c r="X47" s="17">
-        <v>-224</v>
+        <v>-355</v>
       </c>
       <c r="Y47" s="17">
-        <v>-355</v>
+        <v>-204</v>
       </c>
       <c r="Z47" s="17">
-        <v>-204</v>
+        <v>-3277</v>
       </c>
       <c r="AA47" s="17">
-        <v>-3277</v>
+        <v>-1412</v>
       </c>
       <c r="AB47" s="17">
-        <v>-1412</v>
+        <v>-1290</v>
       </c>
       <c r="AC47" s="17">
-        <v>-1290</v>
+        <v>1200</v>
       </c>
       <c r="AD47" s="17">
-        <v>1200</v>
+        <v>2072</v>
       </c>
       <c r="AE47" s="17">
-        <v>2072</v>
+        <v>-2843</v>
       </c>
       <c r="AF47" s="17">
-        <v>-2843</v>
+        <v>-999</v>
       </c>
       <c r="AG47" s="17">
-        <v>-999</v>
+        <v>-165</v>
       </c>
       <c r="AH47" s="17">
-        <v>-165</v>
+        <v>-317</v>
       </c>
       <c r="AI47" s="17">
-        <v>-317</v>
+        <v>-38</v>
       </c>
       <c r="AJ47" s="17">
-        <v>-38</v>
+        <v>-29878</v>
       </c>
       <c r="AK47" s="17">
-        <v>-29878</v>
+        <v>-6247</v>
       </c>
       <c r="AL47" s="17">
-        <v>-6247</v>
+        <v>-14</v>
       </c>
       <c r="AM47" s="17">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="17">
-        <v>0</v>
+        <v>-174</v>
       </c>
       <c r="AO47" s="17">
-        <v>-174</v>
+        <v>-5265</v>
       </c>
       <c r="AP47" s="17">
-        <v>-5265</v>
+        <v>-4821</v>
       </c>
       <c r="AQ47" s="17">
-        <v>-4821</v>
+        <v>-4404</v>
       </c>
       <c r="AR47" s="17">
-        <v>-4404</v>
+        <v>-366</v>
       </c>
       <c r="AS47" s="17">
-        <v>-366</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="17">
-        <v>0</v>
+        <v>-253</v>
       </c>
       <c r="AU47" s="17">
-        <v>-253</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="17">
         <v>0</v>
       </c>
       <c r="AW47" s="17">
-        <v>0</v>
+        <v>-2126</v>
       </c>
       <c r="AX47" s="17">
-        <v>-2126</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="17">
-        <v>0</v>
+        <v>-570</v>
       </c>
       <c r="AZ47" s="17">
-        <v>-570</v>
+        <v>-2217</v>
       </c>
       <c r="BA47" s="17">
-        <v>-2217</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="17">
-        <v>0</v>
+        <v>-996</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6465,154 +6465,154 @@
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>2297888</v>
+        <v>1019891</v>
       </c>
       <c r="F48" s="19">
-        <v>1019891</v>
+        <v>2294260</v>
       </c>
       <c r="G48" s="19">
-        <v>2294260</v>
+        <v>1940169</v>
       </c>
       <c r="H48" s="19">
-        <v>1940169</v>
+        <v>2439704</v>
       </c>
       <c r="I48" s="19">
-        <v>2439704</v>
+        <v>1329304</v>
       </c>
       <c r="J48" s="19">
-        <v>1329304</v>
+        <v>2032727</v>
       </c>
       <c r="K48" s="19">
-        <v>2032727</v>
+        <v>2222624</v>
       </c>
       <c r="L48" s="19">
-        <v>2222624</v>
+        <v>1621348</v>
       </c>
       <c r="M48" s="19">
-        <v>1621348</v>
+        <v>2067077</v>
       </c>
       <c r="N48" s="19">
-        <v>2067077</v>
+        <v>1821581</v>
       </c>
       <c r="O48" s="19">
-        <v>1821581</v>
+        <v>2064938</v>
       </c>
       <c r="P48" s="19">
-        <v>2064938</v>
+        <v>1800089</v>
       </c>
       <c r="Q48" s="19">
-        <v>1800089</v>
+        <v>190186</v>
       </c>
       <c r="R48" s="19">
-        <v>190186</v>
+        <v>2177463</v>
       </c>
       <c r="S48" s="19">
-        <v>2177463</v>
+        <v>1898409</v>
       </c>
       <c r="T48" s="19">
-        <v>1898409</v>
+        <v>2179179</v>
       </c>
       <c r="U48" s="19">
-        <v>2179179</v>
+        <v>1419811</v>
       </c>
       <c r="V48" s="19">
-        <v>1419811</v>
+        <v>2164874</v>
       </c>
       <c r="W48" s="19">
-        <v>2164874</v>
+        <v>2044944</v>
       </c>
       <c r="X48" s="19">
-        <v>2044944</v>
+        <v>1522416</v>
       </c>
       <c r="Y48" s="19">
-        <v>1522416</v>
+        <v>2286447</v>
       </c>
       <c r="Z48" s="19">
-        <v>2286447</v>
+        <v>2469269</v>
       </c>
       <c r="AA48" s="19">
-        <v>2469269</v>
+        <v>2517683</v>
       </c>
       <c r="AB48" s="19">
-        <v>2517683</v>
+        <v>2494988</v>
       </c>
       <c r="AC48" s="19">
-        <v>2494988</v>
+        <v>1454499</v>
       </c>
       <c r="AD48" s="19">
-        <v>1454499</v>
+        <v>1866571</v>
       </c>
       <c r="AE48" s="19">
-        <v>1866571</v>
+        <v>2121398</v>
       </c>
       <c r="AF48" s="19">
-        <v>2121398</v>
+        <v>2090213</v>
       </c>
       <c r="AG48" s="19">
-        <v>2090213</v>
+        <v>1070495</v>
       </c>
       <c r="AH48" s="19">
-        <v>1070495</v>
+        <v>2178769</v>
       </c>
       <c r="AI48" s="19">
-        <v>2178769</v>
+        <v>2018060</v>
       </c>
       <c r="AJ48" s="19">
-        <v>2018060</v>
+        <v>2173734</v>
       </c>
       <c r="AK48" s="19">
-        <v>2173734</v>
+        <v>2418171</v>
       </c>
       <c r="AL48" s="19">
-        <v>2418171</v>
+        <v>2402199</v>
       </c>
       <c r="AM48" s="19">
-        <v>2402199</v>
+        <v>2088463</v>
       </c>
       <c r="AN48" s="19">
-        <v>2088463</v>
+        <v>2217704</v>
       </c>
       <c r="AO48" s="19">
-        <v>2217704</v>
+        <v>1371021</v>
       </c>
       <c r="AP48" s="19">
-        <v>1371021</v>
+        <v>1727465</v>
       </c>
       <c r="AQ48" s="19">
-        <v>1727465</v>
+        <v>2369569</v>
       </c>
       <c r="AR48" s="19">
-        <v>2369569</v>
+        <v>2183295</v>
       </c>
       <c r="AS48" s="19">
-        <v>2183295</v>
+        <v>1247216</v>
       </c>
       <c r="AT48" s="19">
-        <v>1247216</v>
+        <v>2422469</v>
       </c>
       <c r="AU48" s="19">
-        <v>2422469</v>
+        <v>1724918</v>
       </c>
       <c r="AV48" s="19">
-        <v>1724918</v>
+        <v>2234199</v>
       </c>
       <c r="AW48" s="19">
-        <v>2234199</v>
+        <v>2240839</v>
       </c>
       <c r="AX48" s="19">
-        <v>2240839</v>
+        <v>1876776</v>
       </c>
       <c r="AY48" s="19">
-        <v>1876776</v>
+        <v>1887211</v>
       </c>
       <c r="AZ48" s="19">
-        <v>1887211</v>
+        <v>2006261</v>
       </c>
       <c r="BA48" s="19">
-        <v>2006261</v>
+        <v>1309827</v>
       </c>
       <c r="BB48" s="19">
-        <v>1309827</v>
+        <v>1868201</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -7058,154 +7058,154 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>73113</v>
+        <v>17696</v>
       </c>
       <c r="F55" s="11">
-        <v>17696</v>
+        <v>10176</v>
       </c>
       <c r="G55" s="11">
-        <v>10176</v>
+        <v>4311</v>
       </c>
       <c r="H55" s="11">
-        <v>4311</v>
+        <v>61885</v>
       </c>
       <c r="I55" s="11">
-        <v>61885</v>
+        <v>61889</v>
       </c>
       <c r="J55" s="11">
-        <v>61889</v>
+        <v>49997</v>
       </c>
       <c r="K55" s="11">
-        <v>49997</v>
+        <v>652</v>
       </c>
       <c r="L55" s="11">
-        <v>652</v>
+        <v>64155</v>
       </c>
       <c r="M55" s="11">
-        <v>64155</v>
+        <v>212721</v>
       </c>
       <c r="N55" s="11">
-        <v>212721</v>
+        <v>79441</v>
       </c>
       <c r="O55" s="11">
-        <v>79441</v>
+        <v>122467</v>
       </c>
       <c r="P55" s="11">
-        <v>122467</v>
+        <v>91158</v>
       </c>
       <c r="Q55" s="11">
-        <v>91158</v>
+        <v>0</v>
       </c>
       <c r="R55" s="11">
-        <v>0</v>
+        <v>25739</v>
       </c>
       <c r="S55" s="11">
-        <v>25739</v>
+        <v>67894</v>
       </c>
       <c r="T55" s="11">
-        <v>67894</v>
+        <v>66294</v>
       </c>
       <c r="U55" s="11">
-        <v>66294</v>
+        <v>63171</v>
       </c>
       <c r="V55" s="11">
-        <v>63171</v>
+        <v>105725</v>
       </c>
       <c r="W55" s="11">
-        <v>105725</v>
+        <v>125612</v>
       </c>
       <c r="X55" s="11">
-        <v>125612</v>
+        <v>100000</v>
       </c>
       <c r="Y55" s="11">
-        <v>100000</v>
+        <v>81614</v>
       </c>
       <c r="Z55" s="11">
-        <v>81614</v>
+        <v>71924</v>
       </c>
       <c r="AA55" s="11">
-        <v>71924</v>
+        <v>101902</v>
       </c>
       <c r="AB55" s="11">
-        <v>101902</v>
+        <v>136818</v>
       </c>
       <c r="AC55" s="11">
-        <v>136818</v>
+        <v>56991</v>
       </c>
       <c r="AD55" s="11">
-        <v>56991</v>
+        <v>94684</v>
       </c>
       <c r="AE55" s="11">
-        <v>94684</v>
+        <v>41571</v>
       </c>
       <c r="AF55" s="11">
-        <v>41571</v>
+        <v>89845</v>
       </c>
       <c r="AG55" s="11">
-        <v>89845</v>
+        <v>25493</v>
       </c>
       <c r="AH55" s="11">
-        <v>25493</v>
+        <v>59115</v>
       </c>
       <c r="AI55" s="11">
-        <v>59115</v>
+        <v>105016</v>
       </c>
       <c r="AJ55" s="11">
-        <v>105016</v>
+        <v>134831</v>
       </c>
       <c r="AK55" s="11">
-        <v>134831</v>
+        <v>141710</v>
       </c>
       <c r="AL55" s="11">
-        <v>141710</v>
+        <v>184989</v>
       </c>
       <c r="AM55" s="11">
-        <v>184989</v>
+        <v>121013</v>
       </c>
       <c r="AN55" s="11">
-        <v>121013</v>
+        <v>100694</v>
       </c>
       <c r="AO55" s="11">
-        <v>100694</v>
+        <v>26</v>
       </c>
       <c r="AP55" s="11">
-        <v>26</v>
+        <v>75449</v>
       </c>
       <c r="AQ55" s="11">
-        <v>75449</v>
+        <v>120029</v>
       </c>
       <c r="AR55" s="11">
-        <v>120029</v>
+        <v>205887</v>
       </c>
       <c r="AS55" s="11">
-        <v>205887</v>
+        <v>98577</v>
       </c>
       <c r="AT55" s="11">
-        <v>98577</v>
+        <v>133058</v>
       </c>
       <c r="AU55" s="11">
-        <v>133058</v>
+        <v>62682</v>
       </c>
       <c r="AV55" s="11">
-        <v>62682</v>
+        <v>367804</v>
       </c>
       <c r="AW55" s="11">
-        <v>367804</v>
+        <v>274254</v>
       </c>
       <c r="AX55" s="11">
-        <v>274254</v>
+        <v>176093</v>
       </c>
       <c r="AY55" s="11">
-        <v>176093</v>
+        <v>99694</v>
       </c>
       <c r="AZ55" s="11">
-        <v>99694</v>
+        <v>34264</v>
       </c>
       <c r="BA55" s="11">
-        <v>34264</v>
+        <v>53520</v>
       </c>
       <c r="BB55" s="11">
-        <v>53520</v>
+        <v>201943</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7217,154 +7217,154 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>43917</v>
+        <v>15759</v>
       </c>
       <c r="F56" s="13">
-        <v>15759</v>
+        <v>79734</v>
       </c>
       <c r="G56" s="13">
-        <v>79734</v>
+        <v>67462</v>
       </c>
       <c r="H56" s="13">
-        <v>67462</v>
+        <v>84661</v>
       </c>
       <c r="I56" s="13">
-        <v>84661</v>
+        <v>34510</v>
       </c>
       <c r="J56" s="13">
-        <v>34510</v>
+        <v>54170</v>
       </c>
       <c r="K56" s="13">
-        <v>54170</v>
+        <v>104848</v>
       </c>
       <c r="L56" s="13">
-        <v>104848</v>
+        <v>46407</v>
       </c>
       <c r="M56" s="13">
-        <v>46407</v>
+        <v>82151</v>
       </c>
       <c r="N56" s="13">
-        <v>82151</v>
+        <v>44335</v>
       </c>
       <c r="O56" s="13">
-        <v>44335</v>
+        <v>76408</v>
       </c>
       <c r="P56" s="13">
-        <v>76408</v>
+        <v>38756</v>
       </c>
       <c r="Q56" s="13">
-        <v>38756</v>
+        <v>6196</v>
       </c>
       <c r="R56" s="13">
-        <v>6196</v>
+        <v>94203</v>
       </c>
       <c r="S56" s="13">
-        <v>94203</v>
+        <v>64230</v>
       </c>
       <c r="T56" s="13">
-        <v>64230</v>
+        <v>103385</v>
       </c>
       <c r="U56" s="13">
-        <v>103385</v>
+        <v>98514</v>
       </c>
       <c r="V56" s="13">
-        <v>98514</v>
+        <v>132559</v>
       </c>
       <c r="W56" s="13">
-        <v>132559</v>
+        <v>152014</v>
       </c>
       <c r="X56" s="13">
-        <v>152014</v>
+        <v>113102</v>
       </c>
       <c r="Y56" s="13">
-        <v>113102</v>
+        <v>181456</v>
       </c>
       <c r="Z56" s="13">
-        <v>181456</v>
+        <v>164480</v>
       </c>
       <c r="AA56" s="13">
-        <v>164480</v>
+        <v>181368</v>
       </c>
       <c r="AB56" s="13">
-        <v>181368</v>
+        <v>175671</v>
       </c>
       <c r="AC56" s="13">
-        <v>175671</v>
+        <v>106663</v>
       </c>
       <c r="AD56" s="13">
-        <v>106663</v>
+        <v>111793</v>
       </c>
       <c r="AE56" s="13">
-        <v>111793</v>
+        <v>183738</v>
       </c>
       <c r="AF56" s="13">
-        <v>183738</v>
+        <v>115407</v>
       </c>
       <c r="AG56" s="13">
-        <v>115407</v>
+        <v>64218</v>
       </c>
       <c r="AH56" s="13">
-        <v>64218</v>
+        <v>144367</v>
       </c>
       <c r="AI56" s="13">
-        <v>144367</v>
+        <v>135664</v>
       </c>
       <c r="AJ56" s="13">
-        <v>135664</v>
+        <v>97168</v>
       </c>
       <c r="AK56" s="13">
-        <v>97168</v>
+        <v>141550</v>
       </c>
       <c r="AL56" s="13">
-        <v>141550</v>
+        <v>125807</v>
       </c>
       <c r="AM56" s="13">
-        <v>125807</v>
+        <v>81143</v>
       </c>
       <c r="AN56" s="13">
-        <v>81143</v>
+        <v>100341</v>
       </c>
       <c r="AO56" s="13">
-        <v>100341</v>
+        <v>83194</v>
       </c>
       <c r="AP56" s="13">
-        <v>83194</v>
+        <v>156387</v>
       </c>
       <c r="AQ56" s="13">
-        <v>156387</v>
+        <v>199539</v>
       </c>
       <c r="AR56" s="13">
-        <v>199539</v>
+        <v>180925</v>
       </c>
       <c r="AS56" s="13">
-        <v>180925</v>
+        <v>111668</v>
       </c>
       <c r="AT56" s="13">
-        <v>111668</v>
+        <v>237067</v>
       </c>
       <c r="AU56" s="13">
-        <v>237067</v>
+        <v>179564</v>
       </c>
       <c r="AV56" s="13">
-        <v>179564</v>
+        <v>185004</v>
       </c>
       <c r="AW56" s="13">
-        <v>185004</v>
+        <v>187180</v>
       </c>
       <c r="AX56" s="13">
-        <v>187180</v>
+        <v>166669</v>
       </c>
       <c r="AY56" s="13">
-        <v>166669</v>
+        <v>185696</v>
       </c>
       <c r="AZ56" s="13">
-        <v>185696</v>
+        <v>263582</v>
       </c>
       <c r="BA56" s="13">
-        <v>263582</v>
+        <v>184955</v>
       </c>
       <c r="BB56" s="13">
-        <v>184955</v>
+        <v>302824</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7376,154 +7376,154 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>44818</v>
+        <v>20702</v>
       </c>
       <c r="F57" s="11">
-        <v>20702</v>
+        <v>52814</v>
       </c>
       <c r="G57" s="11">
-        <v>52814</v>
+        <v>51393</v>
       </c>
       <c r="H57" s="11">
-        <v>51393</v>
+        <v>48579</v>
       </c>
       <c r="I57" s="11">
-        <v>48579</v>
+        <v>33735</v>
       </c>
       <c r="J57" s="11">
-        <v>33735</v>
+        <v>53783</v>
       </c>
       <c r="K57" s="11">
-        <v>53783</v>
+        <v>62207</v>
       </c>
       <c r="L57" s="11">
-        <v>62207</v>
+        <v>45104</v>
       </c>
       <c r="M57" s="11">
-        <v>45104</v>
+        <v>46438</v>
       </c>
       <c r="N57" s="11">
-        <v>46438</v>
+        <v>44770</v>
       </c>
       <c r="O57" s="11">
-        <v>44770</v>
+        <v>59785</v>
       </c>
       <c r="P57" s="11">
-        <v>59785</v>
+        <v>44946</v>
       </c>
       <c r="Q57" s="11">
-        <v>44946</v>
+        <v>3512</v>
       </c>
       <c r="R57" s="11">
-        <v>3512</v>
+        <v>61520</v>
       </c>
       <c r="S57" s="11">
-        <v>61520</v>
+        <v>77953</v>
       </c>
       <c r="T57" s="11">
-        <v>77953</v>
+        <v>76843</v>
       </c>
       <c r="U57" s="11">
-        <v>76843</v>
+        <v>43702</v>
       </c>
       <c r="V57" s="11">
-        <v>43702</v>
+        <v>67416</v>
       </c>
       <c r="W57" s="11">
-        <v>67416</v>
+        <v>80539</v>
       </c>
       <c r="X57" s="11">
-        <v>80539</v>
+        <v>23692</v>
       </c>
       <c r="Y57" s="11">
-        <v>23692</v>
+        <v>77294</v>
       </c>
       <c r="Z57" s="11">
-        <v>77294</v>
+        <v>120597</v>
       </c>
       <c r="AA57" s="11">
-        <v>120597</v>
+        <v>124509</v>
       </c>
       <c r="AB57" s="11">
-        <v>124509</v>
+        <v>140542</v>
       </c>
       <c r="AC57" s="11">
-        <v>140542</v>
+        <v>72160</v>
       </c>
       <c r="AD57" s="11">
-        <v>72160</v>
+        <v>90574</v>
       </c>
       <c r="AE57" s="11">
-        <v>90574</v>
+        <v>109105</v>
       </c>
       <c r="AF57" s="11">
-        <v>109105</v>
+        <v>126527</v>
       </c>
       <c r="AG57" s="11">
-        <v>126527</v>
+        <v>71608</v>
       </c>
       <c r="AH57" s="11">
-        <v>71608</v>
+        <v>150801</v>
       </c>
       <c r="AI57" s="11">
-        <v>150801</v>
+        <v>131567</v>
       </c>
       <c r="AJ57" s="11">
-        <v>131567</v>
+        <v>161286</v>
       </c>
       <c r="AK57" s="11">
-        <v>161286</v>
+        <v>174474</v>
       </c>
       <c r="AL57" s="11">
-        <v>174474</v>
+        <v>178251</v>
       </c>
       <c r="AM57" s="11">
-        <v>178251</v>
+        <v>161854</v>
       </c>
       <c r="AN57" s="11">
-        <v>161854</v>
+        <v>195609</v>
       </c>
       <c r="AO57" s="11">
-        <v>195609</v>
+        <v>125196</v>
       </c>
       <c r="AP57" s="11">
-        <v>125196</v>
+        <v>176976</v>
       </c>
       <c r="AQ57" s="11">
-        <v>176976</v>
+        <v>333758</v>
       </c>
       <c r="AR57" s="11">
-        <v>333758</v>
+        <v>392363</v>
       </c>
       <c r="AS57" s="11">
-        <v>392363</v>
+        <v>238610</v>
       </c>
       <c r="AT57" s="11">
-        <v>238610</v>
+        <v>432454</v>
       </c>
       <c r="AU57" s="11">
-        <v>432454</v>
+        <v>326130</v>
       </c>
       <c r="AV57" s="11">
-        <v>326130</v>
+        <v>424380</v>
       </c>
       <c r="AW57" s="11">
-        <v>424380</v>
+        <v>431133</v>
       </c>
       <c r="AX57" s="11">
-        <v>431133</v>
+        <v>366842</v>
       </c>
       <c r="AY57" s="11">
-        <v>366842</v>
+        <v>325897</v>
       </c>
       <c r="AZ57" s="11">
-        <v>325897</v>
+        <v>325094</v>
       </c>
       <c r="BA57" s="11">
-        <v>325094</v>
+        <v>252551</v>
       </c>
       <c r="BB57" s="11">
-        <v>252551</v>
+        <v>365985</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7535,154 +7535,154 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>95747</v>
+        <v>48239</v>
       </c>
       <c r="F58" s="13">
-        <v>48239</v>
+        <v>127859</v>
       </c>
       <c r="G58" s="13">
-        <v>127859</v>
+        <v>125015</v>
       </c>
       <c r="H58" s="13">
-        <v>125015</v>
+        <v>140632</v>
       </c>
       <c r="I58" s="13">
-        <v>140632</v>
+        <v>80368</v>
       </c>
       <c r="J58" s="13">
-        <v>80368</v>
+        <v>111542</v>
       </c>
       <c r="K58" s="13">
-        <v>111542</v>
+        <v>142585</v>
       </c>
       <c r="L58" s="13">
-        <v>142585</v>
+        <v>115734</v>
       </c>
       <c r="M58" s="13">
-        <v>115734</v>
+        <v>132219</v>
       </c>
       <c r="N58" s="13">
-        <v>132219</v>
+        <v>139895</v>
       </c>
       <c r="O58" s="13">
-        <v>139895</v>
+        <v>128173</v>
       </c>
       <c r="P58" s="13">
-        <v>128173</v>
+        <v>87253</v>
       </c>
       <c r="Q58" s="13">
-        <v>87253</v>
+        <v>12391</v>
       </c>
       <c r="R58" s="13">
-        <v>12391</v>
+        <v>136522</v>
       </c>
       <c r="S58" s="13">
-        <v>136522</v>
+        <v>166562</v>
       </c>
       <c r="T58" s="13">
-        <v>166562</v>
+        <v>200058</v>
       </c>
       <c r="U58" s="13">
-        <v>200058</v>
+        <v>139858</v>
       </c>
       <c r="V58" s="13">
-        <v>139858</v>
+        <v>219568</v>
       </c>
       <c r="W58" s="13">
-        <v>219568</v>
+        <v>181248</v>
       </c>
       <c r="X58" s="13">
-        <v>181248</v>
+        <v>190897</v>
       </c>
       <c r="Y58" s="13">
-        <v>190897</v>
+        <v>240574</v>
       </c>
       <c r="Z58" s="13">
-        <v>240574</v>
+        <v>222606</v>
       </c>
       <c r="AA58" s="13">
-        <v>222606</v>
+        <v>216331</v>
       </c>
       <c r="AB58" s="13">
-        <v>216331</v>
+        <v>214885</v>
       </c>
       <c r="AC58" s="13">
-        <v>214885</v>
+        <v>171474</v>
       </c>
       <c r="AD58" s="13">
-        <v>171474</v>
+        <v>238484</v>
       </c>
       <c r="AE58" s="13">
-        <v>238484</v>
+        <v>263031</v>
       </c>
       <c r="AF58" s="13">
-        <v>263031</v>
+        <v>263196</v>
       </c>
       <c r="AG58" s="13">
-        <v>263196</v>
+        <v>127243</v>
       </c>
       <c r="AH58" s="13">
-        <v>127243</v>
+        <v>269701</v>
       </c>
       <c r="AI58" s="13">
-        <v>269701</v>
+        <v>237380</v>
       </c>
       <c r="AJ58" s="13">
-        <v>237380</v>
+        <v>270251</v>
       </c>
       <c r="AK58" s="13">
-        <v>270251</v>
+        <v>307269</v>
       </c>
       <c r="AL58" s="13">
-        <v>307269</v>
+        <v>322484</v>
       </c>
       <c r="AM58" s="13">
-        <v>322484</v>
+        <v>289027</v>
       </c>
       <c r="AN58" s="13">
-        <v>289027</v>
+        <v>290002</v>
       </c>
       <c r="AO58" s="13">
-        <v>290002</v>
+        <v>326767</v>
       </c>
       <c r="AP58" s="13">
-        <v>326767</v>
+        <v>408315</v>
       </c>
       <c r="AQ58" s="13">
-        <v>408315</v>
+        <v>649105</v>
       </c>
       <c r="AR58" s="13">
-        <v>649105</v>
+        <v>688204</v>
       </c>
       <c r="AS58" s="13">
-        <v>688204</v>
+        <v>400612</v>
       </c>
       <c r="AT58" s="13">
-        <v>400612</v>
+        <v>770027</v>
       </c>
       <c r="AU58" s="13">
-        <v>770027</v>
+        <v>539025</v>
       </c>
       <c r="AV58" s="13">
-        <v>539025</v>
+        <v>726031</v>
       </c>
       <c r="AW58" s="13">
-        <v>726031</v>
+        <v>742985</v>
       </c>
       <c r="AX58" s="13">
-        <v>742985</v>
+        <v>628208</v>
       </c>
       <c r="AY58" s="13">
-        <v>628208</v>
+        <v>612676</v>
       </c>
       <c r="AZ58" s="13">
-        <v>612676</v>
+        <v>596101</v>
       </c>
       <c r="BA58" s="13">
-        <v>596101</v>
+        <v>487671</v>
       </c>
       <c r="BB58" s="13">
-        <v>487671</v>
+        <v>763689</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7694,154 +7694,154 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>40375</v>
+        <v>20639</v>
       </c>
       <c r="F59" s="11">
-        <v>20639</v>
+        <v>50586</v>
       </c>
       <c r="G59" s="11">
-        <v>50586</v>
+        <v>61635</v>
       </c>
       <c r="H59" s="11">
-        <v>61635</v>
+        <v>75051</v>
       </c>
       <c r="I59" s="11">
-        <v>75051</v>
+        <v>39938</v>
       </c>
       <c r="J59" s="11">
-        <v>39938</v>
+        <v>55361</v>
       </c>
       <c r="K59" s="11">
-        <v>55361</v>
+        <v>60139</v>
       </c>
       <c r="L59" s="11">
-        <v>60139</v>
+        <v>49128</v>
       </c>
       <c r="M59" s="11">
-        <v>49128</v>
+        <v>70880</v>
       </c>
       <c r="N59" s="11">
-        <v>70880</v>
+        <v>80596</v>
       </c>
       <c r="O59" s="11">
-        <v>80596</v>
+        <v>62599</v>
       </c>
       <c r="P59" s="11">
-        <v>62599</v>
+        <v>53371</v>
       </c>
       <c r="Q59" s="11">
-        <v>53371</v>
+        <v>3342</v>
       </c>
       <c r="R59" s="11">
-        <v>3342</v>
+        <v>71087</v>
       </c>
       <c r="S59" s="11">
-        <v>71087</v>
+        <v>95648</v>
       </c>
       <c r="T59" s="11">
-        <v>95648</v>
+        <v>125697</v>
       </c>
       <c r="U59" s="11">
-        <v>125697</v>
+        <v>73560</v>
       </c>
       <c r="V59" s="11">
-        <v>73560</v>
+        <v>114228</v>
       </c>
       <c r="W59" s="11">
-        <v>114228</v>
+        <v>110075</v>
       </c>
       <c r="X59" s="11">
-        <v>110075</v>
+        <v>109675</v>
       </c>
       <c r="Y59" s="11">
-        <v>109675</v>
+        <v>153807</v>
       </c>
       <c r="Z59" s="11">
-        <v>153807</v>
+        <v>138219</v>
       </c>
       <c r="AA59" s="11">
-        <v>138219</v>
+        <v>139523</v>
       </c>
       <c r="AB59" s="11">
-        <v>139523</v>
+        <v>155626</v>
       </c>
       <c r="AC59" s="11">
-        <v>155626</v>
+        <v>86035</v>
       </c>
       <c r="AD59" s="11">
-        <v>86035</v>
+        <v>148918</v>
       </c>
       <c r="AE59" s="11">
-        <v>148918</v>
+        <v>164579</v>
       </c>
       <c r="AF59" s="11">
-        <v>164579</v>
+        <v>165129</v>
       </c>
       <c r="AG59" s="11">
-        <v>165129</v>
+        <v>75944</v>
       </c>
       <c r="AH59" s="11">
-        <v>75944</v>
+        <v>161442</v>
       </c>
       <c r="AI59" s="11">
-        <v>161442</v>
+        <v>163808</v>
       </c>
       <c r="AJ59" s="11">
-        <v>163808</v>
+        <v>234443</v>
       </c>
       <c r="AK59" s="11">
-        <v>234443</v>
+        <v>243444</v>
       </c>
       <c r="AL59" s="11">
-        <v>243444</v>
+        <v>226225</v>
       </c>
       <c r="AM59" s="11">
-        <v>226225</v>
+        <v>227906</v>
       </c>
       <c r="AN59" s="11">
-        <v>227906</v>
+        <v>253662</v>
       </c>
       <c r="AO59" s="11">
-        <v>253662</v>
+        <v>189424</v>
       </c>
       <c r="AP59" s="11">
-        <v>189424</v>
+        <v>204621</v>
       </c>
       <c r="AQ59" s="11">
-        <v>204621</v>
+        <v>450606</v>
       </c>
       <c r="AR59" s="11">
-        <v>450606</v>
+        <v>429602</v>
       </c>
       <c r="AS59" s="11">
-        <v>429602</v>
+        <v>226723</v>
       </c>
       <c r="AT59" s="11">
-        <v>226723</v>
+        <v>440549</v>
       </c>
       <c r="AU59" s="11">
-        <v>440549</v>
+        <v>314673</v>
       </c>
       <c r="AV59" s="11">
-        <v>314673</v>
+        <v>422144</v>
       </c>
       <c r="AW59" s="11">
-        <v>422144</v>
+        <v>394827</v>
       </c>
       <c r="AX59" s="11">
-        <v>394827</v>
+        <v>282155</v>
       </c>
       <c r="AY59" s="11">
-        <v>282155</v>
+        <v>230001</v>
       </c>
       <c r="AZ59" s="11">
-        <v>230001</v>
+        <v>138153</v>
       </c>
       <c r="BA59" s="11">
-        <v>138153</v>
+        <v>228586</v>
       </c>
       <c r="BB59" s="11">
-        <v>228586</v>
+        <v>318154</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7853,154 +7853,154 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>53283</v>
+        <v>25938</v>
       </c>
       <c r="F60" s="13">
-        <v>25938</v>
+        <v>53116</v>
       </c>
       <c r="G60" s="13">
-        <v>53116</v>
+        <v>43098</v>
       </c>
       <c r="H60" s="13">
-        <v>43098</v>
+        <v>43204</v>
       </c>
       <c r="I60" s="13">
-        <v>43204</v>
+        <v>24491</v>
       </c>
       <c r="J60" s="13">
-        <v>24491</v>
+        <v>65682</v>
       </c>
       <c r="K60" s="13">
-        <v>65682</v>
+        <v>51767</v>
       </c>
       <c r="L60" s="13">
-        <v>51767</v>
+        <v>49196</v>
       </c>
       <c r="M60" s="13">
-        <v>49196</v>
+        <v>32030</v>
       </c>
       <c r="N60" s="13">
-        <v>32030</v>
+        <v>38669</v>
       </c>
       <c r="O60" s="13">
-        <v>38669</v>
+        <v>26436</v>
       </c>
       <c r="P60" s="13">
-        <v>26436</v>
+        <v>48816</v>
       </c>
       <c r="Q60" s="13">
-        <v>48816</v>
+        <v>4723</v>
       </c>
       <c r="R60" s="13">
-        <v>4723</v>
+        <v>106016</v>
       </c>
       <c r="S60" s="13">
-        <v>106016</v>
+        <v>68134</v>
       </c>
       <c r="T60" s="13">
-        <v>68134</v>
+        <v>78111</v>
       </c>
       <c r="U60" s="13">
-        <v>78111</v>
+        <v>66522</v>
       </c>
       <c r="V60" s="13">
-        <v>66522</v>
+        <v>92824</v>
       </c>
       <c r="W60" s="13">
-        <v>92824</v>
+        <v>90380</v>
       </c>
       <c r="X60" s="13">
-        <v>90380</v>
+        <v>56544</v>
       </c>
       <c r="Y60" s="13">
-        <v>56544</v>
+        <v>100144</v>
       </c>
       <c r="Z60" s="13">
-        <v>100144</v>
+        <v>108177</v>
       </c>
       <c r="AA60" s="13">
-        <v>108177</v>
+        <v>158038</v>
       </c>
       <c r="AB60" s="13">
-        <v>158038</v>
+        <v>186432</v>
       </c>
       <c r="AC60" s="13">
-        <v>186432</v>
+        <v>66374</v>
       </c>
       <c r="AD60" s="13">
-        <v>66374</v>
+        <v>76171</v>
       </c>
       <c r="AE60" s="13">
-        <v>76171</v>
+        <v>72353</v>
       </c>
       <c r="AF60" s="13">
-        <v>72353</v>
+        <v>75366</v>
       </c>
       <c r="AG60" s="13">
-        <v>75366</v>
+        <v>48731</v>
       </c>
       <c r="AH60" s="13">
-        <v>48731</v>
+        <v>70363</v>
       </c>
       <c r="AI60" s="13">
-        <v>70363</v>
+        <v>99191</v>
       </c>
       <c r="AJ60" s="13">
-        <v>99191</v>
+        <v>87835</v>
       </c>
       <c r="AK60" s="13">
-        <v>87835</v>
+        <v>114801</v>
       </c>
       <c r="AL60" s="13">
-        <v>114801</v>
+        <v>126691</v>
       </c>
       <c r="AM60" s="13">
-        <v>126691</v>
+        <v>101686</v>
       </c>
       <c r="AN60" s="13">
-        <v>101686</v>
+        <v>100857</v>
       </c>
       <c r="AO60" s="13">
-        <v>100857</v>
+        <v>63638</v>
       </c>
       <c r="AP60" s="13">
-        <v>63638</v>
+        <v>75608</v>
       </c>
       <c r="AQ60" s="13">
-        <v>75608</v>
+        <v>150482</v>
       </c>
       <c r="AR60" s="13">
-        <v>150482</v>
+        <v>221175</v>
       </c>
       <c r="AS60" s="13">
-        <v>221175</v>
+        <v>109385</v>
       </c>
       <c r="AT60" s="13">
-        <v>109385</v>
+        <v>202553</v>
       </c>
       <c r="AU60" s="13">
-        <v>202553</v>
+        <v>163778</v>
       </c>
       <c r="AV60" s="13">
-        <v>163778</v>
+        <v>148352</v>
       </c>
       <c r="AW60" s="13">
-        <v>148352</v>
+        <v>111313</v>
       </c>
       <c r="AX60" s="13">
-        <v>111313</v>
+        <v>93436</v>
       </c>
       <c r="AY60" s="13">
-        <v>93436</v>
+        <v>165047</v>
       </c>
       <c r="AZ60" s="13">
-        <v>165047</v>
+        <v>211732</v>
       </c>
       <c r="BA60" s="13">
-        <v>211732</v>
+        <v>127968</v>
       </c>
       <c r="BB60" s="13">
-        <v>127968</v>
+        <v>100791</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8012,154 +8012,154 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>31974</v>
+        <v>17379</v>
       </c>
       <c r="F61" s="11">
-        <v>17379</v>
+        <v>23948</v>
       </c>
       <c r="G61" s="11">
-        <v>23948</v>
+        <v>22405</v>
       </c>
       <c r="H61" s="11">
-        <v>22405</v>
+        <v>35155</v>
       </c>
       <c r="I61" s="11">
-        <v>35155</v>
+        <v>23129</v>
       </c>
       <c r="J61" s="11">
-        <v>23129</v>
+        <v>30634</v>
       </c>
       <c r="K61" s="11">
-        <v>30634</v>
+        <v>28236</v>
       </c>
       <c r="L61" s="11">
-        <v>28236</v>
+        <v>7168</v>
       </c>
       <c r="M61" s="11">
-        <v>7168</v>
+        <v>19144</v>
       </c>
       <c r="N61" s="11">
-        <v>19144</v>
+        <v>13422</v>
       </c>
       <c r="O61" s="11">
-        <v>13422</v>
+        <v>26973</v>
       </c>
       <c r="P61" s="11">
-        <v>26973</v>
+        <v>39415</v>
       </c>
       <c r="Q61" s="11">
-        <v>39415</v>
+        <v>7990</v>
       </c>
       <c r="R61" s="11">
-        <v>7990</v>
+        <v>48915</v>
       </c>
       <c r="S61" s="11">
-        <v>48915</v>
+        <v>51399</v>
       </c>
       <c r="T61" s="11">
-        <v>51399</v>
+        <v>53806</v>
       </c>
       <c r="U61" s="11">
-        <v>53806</v>
+        <v>20104</v>
       </c>
       <c r="V61" s="11">
-        <v>20104</v>
+        <v>63606</v>
       </c>
       <c r="W61" s="11">
-        <v>63606</v>
+        <v>48582</v>
       </c>
       <c r="X61" s="11">
-        <v>48582</v>
+        <v>54589</v>
       </c>
       <c r="Y61" s="11">
-        <v>54589</v>
+        <v>45332</v>
       </c>
       <c r="Z61" s="11">
-        <v>45332</v>
+        <v>59196</v>
       </c>
       <c r="AA61" s="11">
-        <v>59196</v>
+        <v>7727</v>
       </c>
       <c r="AB61" s="11">
-        <v>7727</v>
+        <v>865</v>
       </c>
       <c r="AC61" s="11">
-        <v>865</v>
+        <v>59347</v>
       </c>
       <c r="AD61" s="11">
-        <v>59347</v>
+        <v>99047</v>
       </c>
       <c r="AE61" s="11">
-        <v>99047</v>
+        <v>119313</v>
       </c>
       <c r="AF61" s="11">
-        <v>119313</v>
+        <v>138378</v>
       </c>
       <c r="AG61" s="11">
-        <v>138378</v>
+        <v>62267</v>
       </c>
       <c r="AH61" s="11">
-        <v>62267</v>
+        <v>110401</v>
       </c>
       <c r="AI61" s="11">
-        <v>110401</v>
+        <v>104993</v>
       </c>
       <c r="AJ61" s="11">
-        <v>104993</v>
+        <v>145443</v>
       </c>
       <c r="AK61" s="11">
-        <v>145443</v>
+        <v>164952</v>
       </c>
       <c r="AL61" s="11">
-        <v>164952</v>
+        <v>136932</v>
       </c>
       <c r="AM61" s="11">
-        <v>136932</v>
+        <v>144422</v>
       </c>
       <c r="AN61" s="11">
-        <v>144422</v>
+        <v>132213</v>
       </c>
       <c r="AO61" s="11">
-        <v>132213</v>
+        <v>87755</v>
       </c>
       <c r="AP61" s="11">
-        <v>87755</v>
+        <v>117599</v>
       </c>
       <c r="AQ61" s="11">
-        <v>117599</v>
+        <v>253571</v>
       </c>
       <c r="AR61" s="11">
-        <v>253571</v>
+        <v>163779</v>
       </c>
       <c r="AS61" s="11">
-        <v>163779</v>
+        <v>94749</v>
       </c>
       <c r="AT61" s="11">
-        <v>94749</v>
+        <v>242115</v>
       </c>
       <c r="AU61" s="11">
-        <v>242115</v>
+        <v>129167</v>
       </c>
       <c r="AV61" s="11">
-        <v>129167</v>
+        <v>192606</v>
       </c>
       <c r="AW61" s="11">
-        <v>192606</v>
+        <v>236682</v>
       </c>
       <c r="AX61" s="11">
-        <v>236682</v>
+        <v>185918</v>
       </c>
       <c r="AY61" s="11">
-        <v>185918</v>
+        <v>247378</v>
       </c>
       <c r="AZ61" s="11">
-        <v>247378</v>
+        <v>322969</v>
       </c>
       <c r="BA61" s="11">
-        <v>322969</v>
+        <v>203125</v>
       </c>
       <c r="BB61" s="11">
-        <v>203125</v>
+        <v>241194</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8171,121 +8171,121 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>8966</v>
+        <v>504</v>
       </c>
       <c r="F62" s="13">
-        <v>504</v>
+        <v>1418</v>
       </c>
       <c r="G62" s="13">
-        <v>1418</v>
+        <v>890</v>
       </c>
       <c r="H62" s="13">
-        <v>890</v>
+        <v>405</v>
       </c>
       <c r="I62" s="13">
-        <v>405</v>
+        <v>1298</v>
       </c>
       <c r="J62" s="13">
-        <v>1298</v>
+        <v>353</v>
       </c>
       <c r="K62" s="13">
-        <v>353</v>
+        <v>2145</v>
       </c>
       <c r="L62" s="13">
-        <v>2145</v>
+        <v>3558</v>
       </c>
       <c r="M62" s="13">
-        <v>3558</v>
+        <v>3275</v>
       </c>
       <c r="N62" s="13">
-        <v>3275</v>
+        <v>2124</v>
       </c>
       <c r="O62" s="13">
-        <v>2124</v>
+        <v>2987</v>
       </c>
       <c r="P62" s="13">
-        <v>2987</v>
+        <v>4076</v>
       </c>
       <c r="Q62" s="13">
-        <v>4076</v>
+        <v>0</v>
       </c>
       <c r="R62" s="13">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="S62" s="13">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="T62" s="13">
-        <v>89</v>
+        <v>2056</v>
       </c>
       <c r="U62" s="13">
-        <v>2056</v>
+        <v>1579</v>
       </c>
       <c r="V62" s="13">
-        <v>1579</v>
+        <v>0</v>
       </c>
       <c r="W62" s="13">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="X62" s="13">
-        <v>216</v>
+        <v>1610</v>
       </c>
       <c r="Y62" s="13">
-        <v>1610</v>
+        <v>2049</v>
       </c>
       <c r="Z62" s="13">
-        <v>2049</v>
+        <v>439</v>
       </c>
       <c r="AA62" s="13">
-        <v>439</v>
+        <v>4875</v>
       </c>
       <c r="AB62" s="13">
-        <v>4875</v>
+        <v>7140</v>
       </c>
       <c r="AC62" s="13">
-        <v>7140</v>
+        <v>173</v>
       </c>
       <c r="AD62" s="13">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="AE62" s="13">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AF62" s="13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG62" s="13">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AH62" s="13">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="AI62" s="13">
-        <v>85</v>
+        <v>1516</v>
       </c>
       <c r="AJ62" s="13">
-        <v>1516</v>
+        <v>2158</v>
       </c>
       <c r="AK62" s="13">
-        <v>2158</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="13">
-        <v>0</v>
+        <v>1778</v>
       </c>
       <c r="AM62" s="13">
-        <v>1778</v>
+        <v>15021</v>
       </c>
       <c r="AN62" s="13">
-        <v>15021</v>
+        <v>23452</v>
       </c>
       <c r="AO62" s="13">
-        <v>23452</v>
+        <v>13</v>
       </c>
       <c r="AP62" s="13">
-        <v>13</v>
+        <v>7639</v>
       </c>
       <c r="AQ62" s="13">
-        <v>7639</v>
+        <v>0</v>
       </c>
       <c r="AR62" s="13">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>0</v>
       </c>
       <c r="AT62" s="13">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AU62" s="13">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="13">
-        <v>0</v>
+        <v>1231</v>
       </c>
       <c r="AW62" s="13">
-        <v>1231</v>
+        <v>9004</v>
       </c>
       <c r="AX62" s="13">
-        <v>9004</v>
+        <v>35462</v>
       </c>
       <c r="AY62" s="13">
-        <v>35462</v>
+        <v>13202</v>
       </c>
       <c r="AZ62" s="13">
-        <v>13202</v>
+        <v>22824</v>
       </c>
       <c r="BA62" s="13">
-        <v>22824</v>
+        <v>365</v>
       </c>
       <c r="BB62" s="13">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8425,8 +8425,8 @@
       <c r="Q64" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="R64" s="17" t="s">
-        <v>66</v>
+      <c r="R64" s="17">
+        <v>0</v>
       </c>
       <c r="S64" s="17">
         <v>0</v>
@@ -8641,65 +8641,65 @@
       <c r="Q66" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R66" s="11" t="s">
-        <v>66</v>
+      <c r="R66" s="11">
+        <v>-3132</v>
       </c>
       <c r="S66" s="11">
-        <v>-3132</v>
+        <v>-10</v>
       </c>
       <c r="T66" s="11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="U66" s="11">
-        <v>0</v>
+        <v>-224</v>
       </c>
       <c r="V66" s="11">
-        <v>-224</v>
+        <v>-2565</v>
       </c>
       <c r="W66" s="11">
-        <v>-2565</v>
+        <v>0</v>
       </c>
       <c r="X66" s="11">
         <v>0</v>
       </c>
       <c r="Y66" s="11">
-        <v>0</v>
+        <v>-76</v>
       </c>
       <c r="Z66" s="11">
-        <v>-76</v>
+        <v>-1988</v>
       </c>
       <c r="AA66" s="11">
-        <v>-1988</v>
+        <v>-1555</v>
       </c>
       <c r="AB66" s="11">
-        <v>-1555</v>
-      </c>
-      <c r="AC66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="11" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD66" s="11">
+        <v>-1979</v>
       </c>
       <c r="AE66" s="11">
-        <v>-1979</v>
+        <v>-1329</v>
       </c>
       <c r="AF66" s="11">
-        <v>-1329</v>
+        <v>-528</v>
       </c>
       <c r="AG66" s="11">
-        <v>-528</v>
+        <v>0</v>
       </c>
       <c r="AH66" s="11">
-        <v>0</v>
+        <v>-276</v>
       </c>
       <c r="AI66" s="11">
-        <v>-276</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="11">
-        <v>0</v>
+        <v>-6428</v>
       </c>
       <c r="AK66" s="11">
-        <v>-6428</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="11">
         <v>0</v>
@@ -8708,22 +8708,22 @@
         <v>0</v>
       </c>
       <c r="AN66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO66" s="11">
         <v>-60</v>
       </c>
-      <c r="AP66" s="11" t="s">
-        <v>66</v>
+      <c r="AO66" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP66" s="11">
+        <v>0</v>
       </c>
       <c r="AQ66" s="11">
         <v>0</v>
       </c>
       <c r="AR66" s="11">
-        <v>0</v>
+        <v>-489</v>
       </c>
       <c r="AS66" s="11">
-        <v>-489</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="11">
         <v>0</v>
@@ -8735,22 +8735,22 @@
         <v>0</v>
       </c>
       <c r="AW66" s="11">
-        <v>0</v>
+        <v>-1323</v>
       </c>
       <c r="AX66" s="11">
-        <v>-1323</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="11">
-        <v>0</v>
+        <v>-1561</v>
       </c>
       <c r="AZ66" s="11">
-        <v>-1561</v>
-      </c>
-      <c r="BA66" s="11">
         <v>-154</v>
       </c>
-      <c r="BB66" s="11" t="s">
-        <v>66</v>
+      <c r="BA66" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB66" s="11">
+        <v>-2751</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8824,8 +8824,8 @@
       <c r="Y67" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z67" s="13" t="s">
-        <v>66</v>
+      <c r="Z67" s="13">
+        <v>0</v>
       </c>
       <c r="AA67" s="13">
         <v>0</v>
@@ -8833,17 +8833,17 @@
       <c r="AB67" s="13">
         <v>0</v>
       </c>
-      <c r="AC67" s="13">
-        <v>0</v>
+      <c r="AC67" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="AD67" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AE67" s="13" t="s">
-        <v>66</v>
+      <c r="AE67" s="13">
+        <v>-543</v>
       </c>
       <c r="AF67" s="13">
-        <v>-543</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="13">
         <v>0</v>
@@ -8855,31 +8855,31 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="13">
-        <v>0</v>
+        <v>-12477</v>
       </c>
       <c r="AK67" s="13">
-        <v>-12477</v>
+        <v>-3169</v>
       </c>
       <c r="AL67" s="13">
-        <v>-3169</v>
+        <v>-5</v>
       </c>
       <c r="AM67" s="13">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="13">
         <v>0</v>
       </c>
       <c r="AO67" s="13">
-        <v>0</v>
+        <v>-3163</v>
       </c>
       <c r="AP67" s="13">
-        <v>-3163</v>
+        <v>-2905</v>
       </c>
       <c r="AQ67" s="13">
-        <v>-2905</v>
+        <v>-2614</v>
       </c>
       <c r="AR67" s="13">
-        <v>-2614</v>
+        <v>0</v>
       </c>
       <c r="AS67" s="13">
         <v>0</v>
@@ -8894,19 +8894,19 @@
         <v>0</v>
       </c>
       <c r="AW67" s="13">
-        <v>0</v>
+        <v>-393</v>
       </c>
       <c r="AX67" s="13">
-        <v>-393</v>
+        <v>0</v>
       </c>
       <c r="AY67" s="13">
         <v>0</v>
       </c>
       <c r="AZ67" s="13">
-        <v>0</v>
+        <v>-174</v>
       </c>
       <c r="BA67" s="13">
-        <v>-174</v>
+        <v>0</v>
       </c>
       <c r="BB67" s="13">
         <v>0</v>
@@ -8959,95 +8959,95 @@
       <c r="Q68" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R68" s="11" t="s">
-        <v>66</v>
+      <c r="R68" s="11">
+        <v>-20</v>
       </c>
       <c r="S68" s="11">
         <v>-20</v>
       </c>
       <c r="T68" s="11">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="U68" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="V68" s="11">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="W68" s="11">
-        <v>-7</v>
+        <v>-42</v>
       </c>
       <c r="X68" s="11">
-        <v>-42</v>
+        <v>-63</v>
       </c>
       <c r="Y68" s="11">
-        <v>-63</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="11">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="AA68" s="11">
-        <v>-33</v>
+        <v>-57</v>
       </c>
       <c r="AB68" s="11">
-        <v>-57</v>
+        <v>-24</v>
       </c>
       <c r="AC68" s="11">
+        <v>-199</v>
+      </c>
+      <c r="AD68" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AE68" s="11">
+        <v>-154</v>
+      </c>
+      <c r="AF68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="11">
+        <v>-16</v>
+      </c>
+      <c r="AH68" s="11">
+        <v>-8</v>
+      </c>
+      <c r="AI68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AK68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AM68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="11">
         <v>-24</v>
       </c>
-      <c r="AD68" s="11">
-        <v>-199</v>
-      </c>
-      <c r="AE68" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AF68" s="11">
-        <v>-154</v>
-      </c>
-      <c r="AG68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="11">
-        <v>-16</v>
-      </c>
-      <c r="AI68" s="11">
-        <v>-8</v>
-      </c>
-      <c r="AJ68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK68" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AL68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM68" s="11">
+      <c r="AO68" s="11">
         <v>-1</v>
       </c>
-      <c r="AN68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO68" s="11">
-        <v>-24</v>
-      </c>
       <c r="AP68" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="11">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="AR68" s="11">
-        <v>-45</v>
+        <v>-90</v>
       </c>
       <c r="AS68" s="11">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="11">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AU68" s="11">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="11">
         <v>0</v>
@@ -9062,10 +9062,10 @@
         <v>0</v>
       </c>
       <c r="AZ68" s="11">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="BA68" s="11">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="11">
         <v>0</v>
@@ -9121,11 +9121,11 @@
       <c r="R69" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S69" s="13" t="s">
-        <v>66</v>
+      <c r="S69" s="13">
+        <v>-7</v>
       </c>
       <c r="T69" s="13">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="U69" s="13">
         <v>0</v>
@@ -9151,14 +9151,14 @@
       <c r="AB69" s="13">
         <v>0</v>
       </c>
-      <c r="AC69" s="13">
-        <v>0</v>
+      <c r="AC69" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="AD69" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AE69" s="13" t="s">
-        <v>66</v>
+      <c r="AE69" s="13">
+        <v>0</v>
       </c>
       <c r="AF69" s="13">
         <v>0</v>
@@ -9187,11 +9187,11 @@
       <c r="AN69" s="13">
         <v>0</v>
       </c>
-      <c r="AO69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP69" s="13" t="s">
-        <v>66</v>
+      <c r="AO69" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP69" s="13">
+        <v>0</v>
       </c>
       <c r="AQ69" s="13">
         <v>0</v>
@@ -9223,8 +9223,8 @@
       <c r="AZ69" s="13">
         <v>0</v>
       </c>
-      <c r="BA69" s="13">
-        <v>0</v>
+      <c r="BA69" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="BB69" s="13" t="s">
         <v>66</v>
@@ -9277,56 +9277,56 @@
       <c r="Q70" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R70" s="11" t="s">
-        <v>66</v>
+      <c r="R70" s="11">
+        <v>-273</v>
       </c>
       <c r="S70" s="11">
-        <v>-273</v>
+        <v>0</v>
       </c>
       <c r="T70" s="11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U70" s="11">
-        <v>-2</v>
+        <v>-135</v>
       </c>
       <c r="V70" s="11">
-        <v>-135</v>
+        <v>-58</v>
       </c>
       <c r="W70" s="11">
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="X70" s="11">
         <v>0</v>
       </c>
       <c r="Y70" s="11">
-        <v>0</v>
+        <v>-86</v>
       </c>
       <c r="Z70" s="11">
-        <v>-86</v>
+        <v>-144</v>
       </c>
       <c r="AA70" s="11">
-        <v>-144</v>
+        <v>-378</v>
       </c>
       <c r="AB70" s="11">
-        <v>-378</v>
-      </c>
-      <c r="AC70" s="11">
         <v>-436</v>
       </c>
-      <c r="AD70" s="11" t="s">
-        <v>66</v>
+      <c r="AC70" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD70" s="11">
+        <v>-545</v>
       </c>
       <c r="AE70" s="11">
-        <v>-545</v>
+        <v>-11</v>
       </c>
       <c r="AF70" s="11">
-        <v>-11</v>
+        <v>-623</v>
       </c>
       <c r="AG70" s="11">
-        <v>-623</v>
+        <v>-46</v>
       </c>
       <c r="AH70" s="11">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="AI70" s="11">
         <v>0</v>
@@ -9344,13 +9344,13 @@
         <v>0</v>
       </c>
       <c r="AN70" s="11">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="AO70" s="11">
-        <v>-38</v>
+        <v>-3</v>
       </c>
       <c r="AP70" s="11">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AQ70" s="11">
         <v>0</v>
@@ -9362,28 +9362,28 @@
         <v>0</v>
       </c>
       <c r="AT70" s="11">
-        <v>0</v>
+        <v>-277</v>
       </c>
       <c r="AU70" s="11">
-        <v>-277</v>
+        <v>0</v>
       </c>
       <c r="AV70" s="11">
         <v>0</v>
       </c>
       <c r="AW70" s="11">
-        <v>0</v>
+        <v>-1284</v>
       </c>
       <c r="AX70" s="11">
-        <v>-1284</v>
+        <v>0</v>
       </c>
       <c r="AY70" s="11">
         <v>0</v>
       </c>
       <c r="AZ70" s="11">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="BA70" s="11">
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="BB70" s="11">
         <v>0</v>
@@ -9439,17 +9439,17 @@
       <c r="R71" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S71" s="13" t="s">
-        <v>66</v>
+      <c r="S71" s="13">
+        <v>0</v>
       </c>
       <c r="T71" s="13">
         <v>0</v>
       </c>
       <c r="U71" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V71" s="13">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W71" s="13">
         <v>0</v>
@@ -9461,22 +9461,22 @@
         <v>0</v>
       </c>
       <c r="Z71" s="13">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AA71" s="13">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="AB71" s="13">
         <v>-1</v>
       </c>
-      <c r="AC71" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AD71" s="13" t="s">
-        <v>66</v>
+      <c r="AC71" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD71" s="13">
+        <v>-21</v>
       </c>
       <c r="AE71" s="13">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="13">
         <v>0</v>
@@ -9505,11 +9505,11 @@
       <c r="AN71" s="13">
         <v>0</v>
       </c>
-      <c r="AO71" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP71" s="13" t="s">
-        <v>66</v>
+      <c r="AO71" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP71" s="13">
+        <v>0</v>
       </c>
       <c r="AQ71" s="13">
         <v>0</v>
@@ -9541,8 +9541,8 @@
       <c r="AZ71" s="13">
         <v>0</v>
       </c>
-      <c r="BA71" s="13">
-        <v>0</v>
+      <c r="BA71" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="BB71" s="13" t="s">
         <v>66</v>
@@ -9595,47 +9595,47 @@
       <c r="Q72" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R72" s="11" t="s">
-        <v>66</v>
+      <c r="R72" s="11">
+        <v>-17</v>
       </c>
       <c r="S72" s="11">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="T72" s="11">
         <v>0</v>
       </c>
       <c r="U72" s="11">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="V72" s="11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="W72" s="11">
         <v>0</v>
       </c>
       <c r="X72" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y72" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AA72" s="11">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="11">
         <v>0</v>
       </c>
-      <c r="AC72" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="11" t="s">
-        <v>66</v>
+      <c r="AC72" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD72" s="11">
+        <v>-42</v>
       </c>
       <c r="AE72" s="11">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="AF72" s="11">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="AI72" s="11">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="AJ72" s="11">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="AK72" s="11">
         <v>0</v>
@@ -9664,11 +9664,11 @@
       <c r="AN72" s="11">
         <v>0</v>
       </c>
-      <c r="AO72" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP72" s="11" t="s">
-        <v>66</v>
+      <c r="AO72" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP72" s="11">
+        <v>0</v>
       </c>
       <c r="AQ72" s="11">
         <v>0</v>
@@ -9700,8 +9700,8 @@
       <c r="AZ72" s="11">
         <v>0</v>
       </c>
-      <c r="BA72" s="11">
-        <v>0</v>
+      <c r="BA72" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="BB72" s="11" t="s">
         <v>66</v>
@@ -9754,20 +9754,20 @@
       <c r="Q73" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="R73" s="13" t="s">
-        <v>66</v>
+      <c r="R73" s="13">
+        <v>-20</v>
       </c>
       <c r="S73" s="13">
-        <v>-20</v>
+        <v>-35</v>
       </c>
       <c r="T73" s="13">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="U73" s="13">
-        <v>0</v>
+        <v>-82</v>
       </c>
       <c r="V73" s="13">
-        <v>-82</v>
+        <v>0</v>
       </c>
       <c r="W73" s="13">
         <v>0</v>
@@ -9779,25 +9779,25 @@
         <v>0</v>
       </c>
       <c r="Z73" s="13">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="AA73" s="13">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="AB73" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="13">
         <v>-41</v>
       </c>
-      <c r="AD73" s="13" t="s">
-        <v>66</v>
+      <c r="AC73" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD73" s="13">
+        <v>0</v>
       </c>
       <c r="AE73" s="13">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="AF73" s="13">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="AG73" s="13">
         <v>0</v>
@@ -9821,13 +9821,13 @@
         <v>0</v>
       </c>
       <c r="AN73" s="13">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="AO73" s="13">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="AP73" s="13">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="13">
         <v>0</v>
@@ -9857,10 +9857,10 @@
         <v>0</v>
       </c>
       <c r="AZ73" s="13">
-        <v>0</v>
+        <v>-2112</v>
       </c>
       <c r="BA73" s="13">
-        <v>-2112</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="13">
         <v>0</v>
@@ -9913,116 +9913,116 @@
       <c r="Q74" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="R74" s="17" t="s">
-        <v>66</v>
+      <c r="R74" s="17">
+        <v>-3462</v>
       </c>
       <c r="S74" s="17">
-        <v>-3462</v>
+        <v>-72</v>
       </c>
       <c r="T74" s="17">
-        <v>-72</v>
+        <v>-8</v>
       </c>
       <c r="U74" s="17">
-        <v>-8</v>
+        <v>-453</v>
       </c>
       <c r="V74" s="17">
-        <v>-453</v>
+        <v>-2630</v>
       </c>
       <c r="W74" s="17">
-        <v>-2630</v>
+        <v>-42</v>
       </c>
       <c r="X74" s="17">
-        <v>-42</v>
+        <v>-64</v>
       </c>
       <c r="Y74" s="17">
-        <v>-64</v>
+        <v>-162</v>
       </c>
       <c r="Z74" s="17">
-        <v>-162</v>
+        <v>-2220</v>
       </c>
       <c r="AA74" s="17">
-        <v>-2220</v>
+        <v>-1991</v>
       </c>
       <c r="AB74" s="17">
-        <v>-1991</v>
+        <v>-502</v>
       </c>
       <c r="AC74" s="17">
-        <v>-502</v>
+        <v>-199</v>
       </c>
       <c r="AD74" s="17">
-        <v>-199</v>
+        <v>-2589</v>
       </c>
       <c r="AE74" s="17">
-        <v>-2589</v>
+        <v>-2066</v>
       </c>
       <c r="AF74" s="17">
-        <v>-2066</v>
+        <v>-1151</v>
       </c>
       <c r="AG74" s="17">
-        <v>-1151</v>
+        <v>-62</v>
       </c>
       <c r="AH74" s="17">
-        <v>-62</v>
+        <v>-284</v>
       </c>
       <c r="AI74" s="17">
-        <v>-284</v>
+        <v>-31</v>
       </c>
       <c r="AJ74" s="17">
-        <v>-31</v>
+        <v>-18907</v>
       </c>
       <c r="AK74" s="17">
-        <v>-18907</v>
+        <v>-3169</v>
       </c>
       <c r="AL74" s="17">
-        <v>-3169</v>
+        <v>-6</v>
       </c>
       <c r="AM74" s="17">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AN74" s="17">
-        <v>0</v>
+        <v>-141</v>
       </c>
       <c r="AO74" s="17">
-        <v>-141</v>
+        <v>-3180</v>
       </c>
       <c r="AP74" s="17">
-        <v>-3180</v>
+        <v>-2905</v>
       </c>
       <c r="AQ74" s="17">
-        <v>-2905</v>
+        <v>-2659</v>
       </c>
       <c r="AR74" s="17">
-        <v>-2659</v>
+        <v>-579</v>
       </c>
       <c r="AS74" s="17">
-        <v>-579</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="17">
-        <v>0</v>
+        <v>-294</v>
       </c>
       <c r="AU74" s="17">
-        <v>-294</v>
+        <v>0</v>
       </c>
       <c r="AV74" s="17">
         <v>0</v>
       </c>
       <c r="AW74" s="17">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="AX74" s="17">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="17">
-        <v>0</v>
+        <v>-1561</v>
       </c>
       <c r="AZ74" s="17">
-        <v>-1561</v>
+        <v>-2577</v>
       </c>
       <c r="BA74" s="17">
-        <v>-2577</v>
+        <v>0</v>
       </c>
       <c r="BB74" s="17">
-        <v>0</v>
+        <v>-2751</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10129,116 +10129,116 @@
       <c r="Q76" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R76" s="11" t="s">
-        <v>66</v>
+      <c r="R76" s="11">
+        <v>-63265</v>
       </c>
       <c r="S76" s="11">
-        <v>-63265</v>
+        <v>-58144</v>
       </c>
       <c r="T76" s="11">
-        <v>-58144</v>
+        <v>-83011</v>
       </c>
       <c r="U76" s="11">
-        <v>-83011</v>
+        <v>-24906</v>
       </c>
       <c r="V76" s="11">
-        <v>-24906</v>
+        <v>-83461</v>
       </c>
       <c r="W76" s="11">
-        <v>-83461</v>
+        <v>-42648</v>
       </c>
       <c r="X76" s="11">
-        <v>-42648</v>
+        <v>-31338</v>
       </c>
       <c r="Y76" s="11">
-        <v>-31338</v>
+        <v>-68435</v>
       </c>
       <c r="Z76" s="11">
-        <v>-68435</v>
+        <v>-64849</v>
       </c>
       <c r="AA76" s="11">
-        <v>-64849</v>
+        <v>-65420</v>
       </c>
       <c r="AB76" s="11">
-        <v>-65420</v>
+        <v>-125963</v>
       </c>
       <c r="AC76" s="11">
-        <v>-125963</v>
+        <v>-28932</v>
       </c>
       <c r="AD76" s="11">
-        <v>-28932</v>
+        <v>-40658</v>
       </c>
       <c r="AE76" s="11">
-        <v>-40658</v>
+        <v>-108904</v>
       </c>
       <c r="AF76" s="11">
-        <v>-108904</v>
+        <v>-100750</v>
       </c>
       <c r="AG76" s="11">
-        <v>-100750</v>
+        <v>-113010</v>
       </c>
       <c r="AH76" s="11">
-        <v>-113010</v>
+        <v>-41649</v>
       </c>
       <c r="AI76" s="11">
-        <v>-41649</v>
+        <v>-146641</v>
       </c>
       <c r="AJ76" s="11">
-        <v>-146641</v>
+        <v>-180377</v>
       </c>
       <c r="AK76" s="11">
-        <v>-180377</v>
+        <v>-203368</v>
       </c>
       <c r="AL76" s="11">
-        <v>-203368</v>
+        <v>-161348</v>
       </c>
       <c r="AM76" s="11">
-        <v>-161348</v>
+        <v>-151978</v>
       </c>
       <c r="AN76" s="11">
-        <v>-151978</v>
+        <v>-104362</v>
       </c>
       <c r="AO76" s="11">
-        <v>-104362</v>
+        <v>-25476</v>
       </c>
       <c r="AP76" s="11">
-        <v>-25476</v>
+        <v>-34599</v>
       </c>
       <c r="AQ76" s="11">
-        <v>-34599</v>
+        <v>-62749</v>
       </c>
       <c r="AR76" s="11">
-        <v>-62749</v>
+        <v>-66702</v>
       </c>
       <c r="AS76" s="11">
-        <v>-66702</v>
+        <v>-37106</v>
       </c>
       <c r="AT76" s="11">
-        <v>-37106</v>
+        <v>-71526</v>
       </c>
       <c r="AU76" s="11">
-        <v>-71526</v>
+        <v>-49836</v>
       </c>
       <c r="AV76" s="11">
-        <v>-49836</v>
+        <v>-73130</v>
       </c>
       <c r="AW76" s="11">
-        <v>-73130</v>
+        <v>-70277</v>
       </c>
       <c r="AX76" s="11">
-        <v>-70277</v>
+        <v>-55213</v>
       </c>
       <c r="AY76" s="11">
-        <v>-55213</v>
+        <v>-53253</v>
       </c>
       <c r="AZ76" s="11">
-        <v>-53253</v>
+        <v>-53433</v>
       </c>
       <c r="BA76" s="11">
-        <v>-53433</v>
+        <v>-45260</v>
       </c>
       <c r="BB76" s="11">
-        <v>-45260</v>
+        <v>-65689</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10248,154 +10248,154 @@
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19">
-        <v>392193</v>
+        <v>166856</v>
       </c>
       <c r="F77" s="19">
-        <v>166856</v>
+        <v>399651</v>
       </c>
       <c r="G77" s="19">
-        <v>399651</v>
+        <v>376209</v>
       </c>
       <c r="H77" s="19">
-        <v>376209</v>
+        <v>489572</v>
       </c>
       <c r="I77" s="19">
-        <v>489572</v>
+        <v>299358</v>
       </c>
       <c r="J77" s="19">
-        <v>299358</v>
+        <v>421522</v>
       </c>
       <c r="K77" s="19">
-        <v>421522</v>
+        <v>452579</v>
       </c>
       <c r="L77" s="19">
-        <v>452579</v>
+        <v>380450</v>
       </c>
       <c r="M77" s="19">
-        <v>380450</v>
+        <v>598858</v>
       </c>
       <c r="N77" s="19">
-        <v>598858</v>
+        <v>443252</v>
       </c>
       <c r="O77" s="19">
-        <v>443252</v>
+        <v>505828</v>
       </c>
       <c r="P77" s="19">
-        <v>505828</v>
+        <v>407791</v>
       </c>
       <c r="Q77" s="19">
-        <v>407791</v>
+        <v>38154</v>
       </c>
       <c r="R77" s="19">
-        <v>38154</v>
+        <v>477310</v>
       </c>
       <c r="S77" s="19">
-        <v>477310</v>
+        <v>533693</v>
       </c>
       <c r="T77" s="19">
-        <v>533693</v>
+        <v>623231</v>
       </c>
       <c r="U77" s="19">
-        <v>623231</v>
+        <v>481651</v>
       </c>
       <c r="V77" s="19">
-        <v>481651</v>
+        <v>709835</v>
       </c>
       <c r="W77" s="19">
-        <v>709835</v>
+        <v>745976</v>
       </c>
       <c r="X77" s="19">
-        <v>745976</v>
+        <v>618707</v>
       </c>
       <c r="Y77" s="19">
-        <v>618707</v>
+        <v>813673</v>
       </c>
       <c r="Z77" s="19">
-        <v>813673</v>
+        <v>818569</v>
       </c>
       <c r="AA77" s="19">
-        <v>818569</v>
+        <v>866862</v>
       </c>
       <c r="AB77" s="19">
-        <v>866862</v>
+        <v>891514</v>
       </c>
       <c r="AC77" s="19">
-        <v>891514</v>
+        <v>590086</v>
       </c>
       <c r="AD77" s="19">
-        <v>590086</v>
+        <v>816445</v>
       </c>
       <c r="AE77" s="19">
-        <v>816445</v>
+        <v>842730</v>
       </c>
       <c r="AF77" s="19">
-        <v>842730</v>
+        <v>871997</v>
       </c>
       <c r="AG77" s="19">
-        <v>871997</v>
+        <v>362444</v>
       </c>
       <c r="AH77" s="19">
-        <v>362444</v>
+        <v>924342</v>
       </c>
       <c r="AI77" s="19">
-        <v>924342</v>
+        <v>832463</v>
       </c>
       <c r="AJ77" s="19">
-        <v>832463</v>
+        <v>934131</v>
       </c>
       <c r="AK77" s="19">
-        <v>934131</v>
+        <v>1081663</v>
       </c>
       <c r="AL77" s="19">
-        <v>1081663</v>
+        <v>1141803</v>
       </c>
       <c r="AM77" s="19">
-        <v>1141803</v>
+        <v>990094</v>
       </c>
       <c r="AN77" s="19">
-        <v>990094</v>
+        <v>1092327</v>
       </c>
       <c r="AO77" s="19">
-        <v>1092327</v>
+        <v>847357</v>
       </c>
       <c r="AP77" s="19">
-        <v>847357</v>
+        <v>1185090</v>
       </c>
       <c r="AQ77" s="19">
-        <v>1185090</v>
+        <v>2091682</v>
       </c>
       <c r="AR77" s="19">
-        <v>2091682</v>
+        <v>2214654</v>
       </c>
       <c r="AS77" s="19">
-        <v>2214654</v>
+        <v>1243218</v>
       </c>
       <c r="AT77" s="19">
-        <v>1243218</v>
+        <v>2386065</v>
       </c>
       <c r="AU77" s="19">
-        <v>2386065</v>
+        <v>1665183</v>
       </c>
       <c r="AV77" s="19">
-        <v>1665183</v>
+        <v>2394422</v>
       </c>
       <c r="AW77" s="19">
-        <v>2394422</v>
+        <v>2314101</v>
       </c>
       <c r="AX77" s="19">
-        <v>2314101</v>
+        <v>1879570</v>
       </c>
       <c r="AY77" s="19">
-        <v>1879570</v>
+        <v>1824777</v>
       </c>
       <c r="AZ77" s="19">
-        <v>1824777</v>
+        <v>1858709</v>
       </c>
       <c r="BA77" s="19">
-        <v>1858709</v>
+        <v>1493481</v>
       </c>
       <c r="BB77" s="19">
-        <v>1493481</v>
+        <v>2226140</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10841,154 +10841,154 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>539177</v>
+        <v>641717</v>
       </c>
       <c r="F84" s="11">
-        <v>641717</v>
+        <v>658130</v>
       </c>
       <c r="G84" s="11">
-        <v>658130</v>
+        <v>656264</v>
       </c>
       <c r="H84" s="11">
-        <v>656264</v>
+        <v>671641</v>
       </c>
       <c r="I84" s="11">
-        <v>671641</v>
+        <v>757024</v>
       </c>
       <c r="J84" s="11">
-        <v>757024</v>
+        <v>712228</v>
       </c>
       <c r="K84" s="11">
-        <v>712228</v>
+        <v>674250</v>
       </c>
       <c r="L84" s="11">
-        <v>674250</v>
+        <v>1198151</v>
       </c>
       <c r="M84" s="11">
-        <v>1198151</v>
+        <v>1225655</v>
       </c>
       <c r="N84" s="11">
-        <v>1225655</v>
+        <v>1407829</v>
       </c>
       <c r="O84" s="11">
-        <v>1407829</v>
+        <v>1154140</v>
       </c>
       <c r="P84" s="11">
-        <v>1154140</v>
+        <v>1222334</v>
       </c>
       <c r="Q84" s="11">
-        <v>1222334</v>
+        <v>0</v>
       </c>
       <c r="R84" s="11">
-        <v>0</v>
+        <v>1479253</v>
       </c>
       <c r="S84" s="11">
-        <v>1479253</v>
+        <v>1362841</v>
       </c>
       <c r="T84" s="11">
-        <v>1362841</v>
+        <v>1174343</v>
       </c>
       <c r="U84" s="11">
-        <v>1174343</v>
+        <v>1265470</v>
       </c>
       <c r="V84" s="11">
-        <v>1265470</v>
+        <v>1771383</v>
       </c>
       <c r="W84" s="11">
-        <v>1771383</v>
+        <v>1839175</v>
       </c>
       <c r="X84" s="11">
-        <v>1839175</v>
+        <v>1903131</v>
       </c>
       <c r="Y84" s="11">
-        <v>1903131</v>
+        <v>1841970</v>
       </c>
       <c r="Z84" s="11">
-        <v>1841970</v>
+        <v>1688912</v>
       </c>
       <c r="AA84" s="11">
-        <v>1688912</v>
+        <v>1834056</v>
       </c>
       <c r="AB84" s="11">
-        <v>1834056</v>
+        <v>2423745</v>
       </c>
       <c r="AC84" s="11">
-        <v>2423745</v>
+        <v>2573422</v>
       </c>
       <c r="AD84" s="11">
-        <v>2573422</v>
+        <v>2644952</v>
       </c>
       <c r="AE84" s="11">
-        <v>2644952</v>
+        <v>2625592</v>
       </c>
       <c r="AF84" s="11">
-        <v>2625592</v>
+        <v>2590612</v>
       </c>
       <c r="AG84" s="11">
-        <v>2590612</v>
+        <v>2563141</v>
       </c>
       <c r="AH84" s="11">
-        <v>2563141</v>
+        <v>2193344</v>
       </c>
       <c r="AI84" s="11">
-        <v>2193344</v>
+        <v>2774824</v>
       </c>
       <c r="AJ84" s="11">
-        <v>2774824</v>
+        <v>2741415</v>
       </c>
       <c r="AK84" s="11">
-        <v>2741415</v>
+        <v>2772430</v>
       </c>
       <c r="AL84" s="11">
-        <v>2772430</v>
+        <v>2788919</v>
       </c>
       <c r="AM84" s="11">
-        <v>2788919</v>
+        <v>2818451</v>
       </c>
       <c r="AN84" s="11">
-        <v>2818451</v>
+        <v>2739898</v>
       </c>
       <c r="AO84" s="11">
-        <v>2739898</v>
+        <v>3250000</v>
       </c>
       <c r="AP84" s="11">
-        <v>3250000</v>
+        <v>3779253</v>
       </c>
       <c r="AQ84" s="11">
-        <v>3779253</v>
+        <v>4515934</v>
       </c>
       <c r="AR84" s="11">
-        <v>4515934</v>
+        <v>4594359</v>
       </c>
       <c r="AS84" s="11">
-        <v>4594359</v>
+        <v>4667693</v>
       </c>
       <c r="AT84" s="11">
-        <v>4667693</v>
+        <v>4854714</v>
       </c>
       <c r="AU84" s="11">
-        <v>4854714</v>
+        <v>4443011</v>
       </c>
       <c r="AV84" s="11">
-        <v>4443011</v>
+        <v>4908700</v>
       </c>
       <c r="AW84" s="11">
-        <v>4908700</v>
+        <v>4779943</v>
       </c>
       <c r="AX84" s="11">
-        <v>4779943</v>
+        <v>4548796</v>
       </c>
       <c r="AY84" s="11">
-        <v>4548796</v>
+        <v>4504315</v>
       </c>
       <c r="AZ84" s="11">
-        <v>4504315</v>
+        <v>4015940</v>
       </c>
       <c r="BA84" s="11">
-        <v>4015940</v>
+        <v>5314796</v>
       </c>
       <c r="BB84" s="11">
-        <v>5314796</v>
+        <v>5619674</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11000,154 +11000,154 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
-        <v>171212</v>
+        <v>163443</v>
       </c>
       <c r="F85" s="13">
-        <v>163443</v>
+        <v>221869</v>
       </c>
       <c r="G85" s="13">
-        <v>221869</v>
+        <v>262130</v>
       </c>
       <c r="H85" s="13">
-        <v>262130</v>
+        <v>256683</v>
       </c>
       <c r="I85" s="13">
-        <v>256683</v>
+        <v>264274</v>
       </c>
       <c r="J85" s="13">
-        <v>264274</v>
+        <v>242756</v>
       </c>
       <c r="K85" s="13">
-        <v>242756</v>
+        <v>261357</v>
       </c>
       <c r="L85" s="13">
-        <v>261357</v>
+        <v>263655</v>
       </c>
       <c r="M85" s="13">
-        <v>263655</v>
+        <v>243902</v>
       </c>
       <c r="N85" s="13">
-        <v>243902</v>
+        <v>254734</v>
       </c>
       <c r="O85" s="13">
-        <v>254734</v>
+        <v>236351</v>
       </c>
       <c r="P85" s="13">
-        <v>236351</v>
+        <v>252821</v>
       </c>
       <c r="Q85" s="13">
-        <v>252821</v>
+        <v>269052</v>
       </c>
       <c r="R85" s="13">
-        <v>269052</v>
+        <v>300730</v>
       </c>
       <c r="S85" s="13">
-        <v>300730</v>
+        <v>332507</v>
       </c>
       <c r="T85" s="13">
-        <v>332507</v>
+        <v>323732</v>
       </c>
       <c r="U85" s="13">
-        <v>323732</v>
+        <v>363053</v>
       </c>
       <c r="V85" s="13">
-        <v>363053</v>
+        <v>359795</v>
       </c>
       <c r="W85" s="13">
-        <v>359795</v>
+        <v>461761</v>
       </c>
       <c r="X85" s="13">
-        <v>461761</v>
+        <v>475246</v>
       </c>
       <c r="Y85" s="13">
-        <v>475246</v>
+        <v>468638</v>
       </c>
       <c r="Z85" s="13">
-        <v>468638</v>
+        <v>525099</v>
       </c>
       <c r="AA85" s="13">
-        <v>525099</v>
+        <v>562586</v>
       </c>
       <c r="AB85" s="13">
-        <v>562586</v>
+        <v>569283</v>
       </c>
       <c r="AC85" s="13">
-        <v>569283</v>
+        <v>551723</v>
       </c>
       <c r="AD85" s="13">
-        <v>551723</v>
+        <v>570114</v>
       </c>
       <c r="AE85" s="13">
-        <v>570114</v>
+        <v>582548</v>
       </c>
       <c r="AF85" s="13">
-        <v>582548</v>
+        <v>592189</v>
       </c>
       <c r="AG85" s="13">
-        <v>592189</v>
+        <v>585333</v>
       </c>
       <c r="AH85" s="13">
-        <v>585333</v>
+        <v>582019</v>
       </c>
       <c r="AI85" s="13">
-        <v>582019</v>
+        <v>567032</v>
       </c>
       <c r="AJ85" s="13">
-        <v>567032</v>
+        <v>590020</v>
       </c>
       <c r="AK85" s="13">
-        <v>590020</v>
+        <v>580835</v>
       </c>
       <c r="AL85" s="13">
-        <v>580835</v>
+        <v>575039</v>
       </c>
       <c r="AM85" s="13">
-        <v>575039</v>
+        <v>585485</v>
       </c>
       <c r="AN85" s="13">
-        <v>585485</v>
+        <v>675065</v>
       </c>
       <c r="AO85" s="13">
-        <v>675065</v>
+        <v>772941</v>
       </c>
       <c r="AP85" s="13">
-        <v>772941</v>
+        <v>778967</v>
       </c>
       <c r="AQ85" s="13">
-        <v>778967</v>
+        <v>933857</v>
       </c>
       <c r="AR85" s="13">
-        <v>933857</v>
+        <v>1000891</v>
       </c>
       <c r="AS85" s="13">
-        <v>1000891</v>
+        <v>935133</v>
       </c>
       <c r="AT85" s="13">
-        <v>935133</v>
+        <v>960341</v>
       </c>
       <c r="AU85" s="13">
-        <v>960341</v>
+        <v>966057</v>
       </c>
       <c r="AV85" s="13">
-        <v>966057</v>
+        <v>1027789</v>
       </c>
       <c r="AW85" s="13">
-        <v>1027789</v>
+        <v>1043146</v>
       </c>
       <c r="AX85" s="13">
-        <v>1043146</v>
+        <v>989028</v>
       </c>
       <c r="AY85" s="13">
-        <v>989028</v>
+        <v>1004935</v>
       </c>
       <c r="AZ85" s="13">
-        <v>1004935</v>
+        <v>1043319</v>
       </c>
       <c r="BA85" s="13">
-        <v>1043319</v>
+        <v>1213377</v>
       </c>
       <c r="BB85" s="13">
-        <v>1213377</v>
+        <v>1244591</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11159,154 +11159,154 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>85319</v>
+        <v>86560</v>
       </c>
       <c r="F86" s="11">
-        <v>86560</v>
+        <v>90216</v>
       </c>
       <c r="G86" s="11">
-        <v>90216</v>
+        <v>101012</v>
       </c>
       <c r="H86" s="11">
-        <v>101012</v>
+        <v>98029</v>
       </c>
       <c r="I86" s="11">
-        <v>98029</v>
+        <v>96405</v>
       </c>
       <c r="J86" s="11">
-        <v>96405</v>
+        <v>99183</v>
       </c>
       <c r="K86" s="11">
-        <v>99183</v>
+        <v>101804</v>
       </c>
       <c r="L86" s="11">
-        <v>101804</v>
+        <v>103594</v>
       </c>
       <c r="M86" s="11">
-        <v>103594</v>
+        <v>105338</v>
       </c>
       <c r="N86" s="11">
-        <v>105338</v>
+        <v>99534</v>
       </c>
       <c r="O86" s="11">
-        <v>99534</v>
+        <v>101144</v>
       </c>
       <c r="P86" s="11">
-        <v>101144</v>
+        <v>87245</v>
       </c>
       <c r="Q86" s="11">
-        <v>87245</v>
+        <v>100105</v>
       </c>
       <c r="R86" s="11">
-        <v>100105</v>
+        <v>106911</v>
       </c>
       <c r="S86" s="11">
-        <v>106911</v>
+        <v>142635</v>
       </c>
       <c r="T86" s="11">
-        <v>142635</v>
+        <v>142648</v>
       </c>
       <c r="U86" s="11">
-        <v>142648</v>
+        <v>144275</v>
       </c>
       <c r="V86" s="11">
-        <v>144275</v>
+        <v>140280</v>
       </c>
       <c r="W86" s="11">
-        <v>140280</v>
+        <v>143134</v>
       </c>
       <c r="X86" s="11">
-        <v>143134</v>
+        <v>124868</v>
       </c>
       <c r="Y86" s="11">
-        <v>124868</v>
+        <v>150584</v>
       </c>
       <c r="Z86" s="11">
-        <v>150584</v>
+        <v>148535</v>
       </c>
       <c r="AA86" s="11">
-        <v>148535</v>
+        <v>148470</v>
       </c>
       <c r="AB86" s="11">
-        <v>148470</v>
+        <v>169150</v>
       </c>
       <c r="AC86" s="11">
-        <v>169150</v>
+        <v>179801</v>
       </c>
       <c r="AD86" s="11">
-        <v>179801</v>
+        <v>187852</v>
       </c>
       <c r="AE86" s="11">
-        <v>187852</v>
+        <v>209305</v>
       </c>
       <c r="AF86" s="11">
-        <v>209305</v>
+        <v>207902</v>
       </c>
       <c r="AG86" s="11">
-        <v>207902</v>
+        <v>209820</v>
       </c>
       <c r="AH86" s="11">
-        <v>209820</v>
+        <v>211255</v>
       </c>
       <c r="AI86" s="11">
-        <v>211255</v>
+        <v>227617</v>
       </c>
       <c r="AJ86" s="11">
-        <v>227617</v>
+        <v>246778</v>
       </c>
       <c r="AK86" s="11">
-        <v>246778</v>
+        <v>256121</v>
       </c>
       <c r="AL86" s="11">
-        <v>256121</v>
+        <v>260780</v>
       </c>
       <c r="AM86" s="11">
-        <v>260780</v>
+        <v>270237</v>
       </c>
       <c r="AN86" s="11">
-        <v>270237</v>
+        <v>277906</v>
       </c>
       <c r="AO86" s="11">
-        <v>277906</v>
+        <v>290503</v>
       </c>
       <c r="AP86" s="11">
-        <v>290503</v>
+        <v>351171</v>
       </c>
       <c r="AQ86" s="11">
-        <v>351171</v>
+        <v>525271</v>
       </c>
       <c r="AR86" s="11">
-        <v>525271</v>
+        <v>617057</v>
       </c>
       <c r="AS86" s="11">
-        <v>617057</v>
+        <v>631163</v>
       </c>
       <c r="AT86" s="11">
-        <v>631163</v>
+        <v>625669</v>
       </c>
       <c r="AU86" s="11">
-        <v>625669</v>
+        <v>634365</v>
       </c>
       <c r="AV86" s="11">
-        <v>634365</v>
+        <v>638217</v>
       </c>
       <c r="AW86" s="11">
-        <v>638217</v>
+        <v>634888</v>
       </c>
       <c r="AX86" s="11">
-        <v>634888</v>
+        <v>622197</v>
       </c>
       <c r="AY86" s="11">
-        <v>622197</v>
+        <v>619316</v>
       </c>
       <c r="AZ86" s="11">
-        <v>619316</v>
+        <v>609859</v>
       </c>
       <c r="BA86" s="11">
-        <v>609859</v>
+        <v>722522</v>
       </c>
       <c r="BB86" s="11">
-        <v>722522</v>
+        <v>717383</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11318,154 +11318,154 @@
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
-        <v>156081</v>
+        <v>165683</v>
       </c>
       <c r="F87" s="13">
-        <v>165683</v>
+        <v>202468</v>
       </c>
       <c r="G87" s="13">
-        <v>202468</v>
+        <v>228974</v>
       </c>
       <c r="H87" s="13">
-        <v>228974</v>
+        <v>187168</v>
       </c>
       <c r="I87" s="13">
-        <v>187168</v>
+        <v>220442</v>
       </c>
       <c r="J87" s="13">
-        <v>220442</v>
+        <v>209142</v>
       </c>
       <c r="K87" s="13">
-        <v>209142</v>
+        <v>228639</v>
       </c>
       <c r="L87" s="13">
-        <v>228639</v>
+        <v>224033</v>
       </c>
       <c r="M87" s="13">
-        <v>224033</v>
+        <v>215933</v>
       </c>
       <c r="N87" s="13">
-        <v>215933</v>
+        <v>220549</v>
       </c>
       <c r="O87" s="13">
-        <v>220549</v>
+        <v>226904</v>
       </c>
       <c r="P87" s="13">
-        <v>226904</v>
+        <v>211384</v>
       </c>
       <c r="Q87" s="13">
-        <v>211384</v>
+        <v>228612</v>
       </c>
       <c r="R87" s="13">
-        <v>228612</v>
+        <v>228621</v>
       </c>
       <c r="S87" s="13">
-        <v>228621</v>
+        <v>302144</v>
       </c>
       <c r="T87" s="13">
-        <v>302144</v>
+        <v>316957</v>
       </c>
       <c r="U87" s="13">
-        <v>316957</v>
+        <v>320020</v>
       </c>
       <c r="V87" s="13">
-        <v>320020</v>
+        <v>328794</v>
       </c>
       <c r="W87" s="13">
-        <v>328794</v>
+        <v>333320</v>
       </c>
       <c r="X87" s="13">
-        <v>333320</v>
+        <v>342698</v>
       </c>
       <c r="Y87" s="13">
-        <v>342698</v>
+        <v>342760</v>
       </c>
       <c r="Z87" s="13">
-        <v>342760</v>
+        <v>342965</v>
       </c>
       <c r="AA87" s="13">
-        <v>342965</v>
+        <v>343194</v>
       </c>
       <c r="AB87" s="13">
-        <v>343194</v>
+        <v>342966</v>
       </c>
       <c r="AC87" s="13">
-        <v>342966</v>
+        <v>402381</v>
       </c>
       <c r="AD87" s="13">
-        <v>402381</v>
+        <v>457022</v>
       </c>
       <c r="AE87" s="13">
-        <v>457022</v>
+        <v>457310</v>
       </c>
       <c r="AF87" s="13">
-        <v>457310</v>
+        <v>457000</v>
       </c>
       <c r="AG87" s="13">
-        <v>457000</v>
+        <v>457145</v>
       </c>
       <c r="AH87" s="13">
-        <v>457145</v>
+        <v>457357</v>
       </c>
       <c r="AI87" s="13">
-        <v>457357</v>
+        <v>456887</v>
       </c>
       <c r="AJ87" s="13">
-        <v>456887</v>
+        <v>457149</v>
       </c>
       <c r="AK87" s="13">
-        <v>457149</v>
+        <v>457611</v>
       </c>
       <c r="AL87" s="13">
-        <v>457611</v>
+        <v>457434</v>
       </c>
       <c r="AM87" s="13">
-        <v>457434</v>
+        <v>456865</v>
       </c>
       <c r="AN87" s="13">
-        <v>456865</v>
+        <v>457832</v>
       </c>
       <c r="AO87" s="13">
-        <v>457832</v>
+        <v>749861</v>
       </c>
       <c r="AP87" s="13">
-        <v>749861</v>
+        <v>741165</v>
       </c>
       <c r="AQ87" s="13">
-        <v>741165</v>
+        <v>883093</v>
       </c>
       <c r="AR87" s="13">
-        <v>883093</v>
+        <v>983593</v>
       </c>
       <c r="AS87" s="13">
-        <v>983593</v>
+        <v>982545</v>
       </c>
       <c r="AT87" s="13">
-        <v>982545</v>
+        <v>982335</v>
       </c>
       <c r="AU87" s="13">
-        <v>982335</v>
+        <v>982256</v>
       </c>
       <c r="AV87" s="13">
-        <v>982256</v>
+        <v>982306</v>
       </c>
       <c r="AW87" s="13">
-        <v>982306</v>
+        <v>982189</v>
       </c>
       <c r="AX87" s="13">
-        <v>982189</v>
+        <v>983274</v>
       </c>
       <c r="AY87" s="13">
-        <v>983274</v>
+        <v>983324</v>
       </c>
       <c r="AZ87" s="13">
-        <v>983324</v>
+        <v>982715</v>
       </c>
       <c r="BA87" s="13">
-        <v>982715</v>
+        <v>1227930</v>
       </c>
       <c r="BB87" s="13">
-        <v>1227930</v>
+        <v>1227172</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11477,154 +11477,154 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>228862</v>
+        <v>254222</v>
       </c>
       <c r="F88" s="11">
-        <v>254222</v>
+        <v>258703</v>
       </c>
       <c r="G88" s="11">
-        <v>258703</v>
+        <v>352250</v>
       </c>
       <c r="H88" s="11">
-        <v>352250</v>
+        <v>331121</v>
       </c>
       <c r="I88" s="11">
-        <v>331121</v>
+        <v>329399</v>
       </c>
       <c r="J88" s="11">
-        <v>329399</v>
+        <v>305605</v>
       </c>
       <c r="K88" s="11">
-        <v>305605</v>
+        <v>340126</v>
       </c>
       <c r="L88" s="11">
-        <v>340126</v>
+        <v>325664</v>
       </c>
       <c r="M88" s="11">
-        <v>325664</v>
+        <v>302010</v>
       </c>
       <c r="N88" s="11">
-        <v>302010</v>
+        <v>329907</v>
       </c>
       <c r="O88" s="11">
-        <v>329907</v>
+        <v>317719</v>
       </c>
       <c r="P88" s="11">
-        <v>317719</v>
+        <v>289141</v>
       </c>
       <c r="Q88" s="11">
-        <v>289141</v>
+        <v>355683</v>
       </c>
       <c r="R88" s="11">
-        <v>355683</v>
+        <v>347524</v>
       </c>
       <c r="S88" s="11">
-        <v>347524</v>
+        <v>456397</v>
       </c>
       <c r="T88" s="11">
-        <v>456397</v>
+        <v>512428</v>
       </c>
       <c r="U88" s="11">
-        <v>512428</v>
+        <v>523753</v>
       </c>
       <c r="V88" s="11">
-        <v>523753</v>
+        <v>528129</v>
       </c>
       <c r="W88" s="11">
-        <v>528129</v>
+        <v>505381</v>
       </c>
       <c r="X88" s="11">
-        <v>505381</v>
+        <v>507531</v>
       </c>
       <c r="Y88" s="11">
-        <v>507531</v>
+        <v>508003</v>
       </c>
       <c r="Z88" s="11">
-        <v>508003</v>
+        <v>515473</v>
       </c>
       <c r="AA88" s="11">
-        <v>515473</v>
+        <v>498309</v>
       </c>
       <c r="AB88" s="11">
-        <v>498309</v>
+        <v>676729</v>
       </c>
       <c r="AC88" s="11">
-        <v>676729</v>
+        <v>720628</v>
       </c>
       <c r="AD88" s="11">
-        <v>720628</v>
+        <v>684033</v>
       </c>
       <c r="AE88" s="11">
-        <v>684033</v>
+        <v>681520</v>
       </c>
       <c r="AF88" s="11">
-        <v>681520</v>
+        <v>683204</v>
       </c>
       <c r="AG88" s="11">
-        <v>683204</v>
+        <v>700797</v>
       </c>
       <c r="AH88" s="11">
-        <v>700797</v>
+        <v>686278</v>
       </c>
       <c r="AI88" s="11">
-        <v>686278</v>
+        <v>683927</v>
       </c>
       <c r="AJ88" s="11">
-        <v>683927</v>
+        <v>843751</v>
       </c>
       <c r="AK88" s="11">
-        <v>843751</v>
+        <v>886473</v>
       </c>
       <c r="AL88" s="11">
-        <v>886473</v>
+        <v>875155</v>
       </c>
       <c r="AM88" s="11">
-        <v>875155</v>
+        <v>1012763</v>
       </c>
       <c r="AN88" s="11">
-        <v>1012763</v>
+        <v>1029485</v>
       </c>
       <c r="AO88" s="11">
-        <v>1029485</v>
+        <v>1371982</v>
       </c>
       <c r="AP88" s="11">
-        <v>1371982</v>
+        <v>1463471</v>
       </c>
       <c r="AQ88" s="11">
-        <v>1463471</v>
+        <v>1604608</v>
       </c>
       <c r="AR88" s="11">
-        <v>1604608</v>
+        <v>1752333</v>
       </c>
       <c r="AS88" s="11">
-        <v>1752333</v>
+        <v>1833809</v>
       </c>
       <c r="AT88" s="11">
-        <v>1833809</v>
+        <v>1829249</v>
       </c>
       <c r="AU88" s="11">
-        <v>1829249</v>
+        <v>1798440</v>
       </c>
       <c r="AV88" s="11">
-        <v>1798440</v>
+        <v>1751700</v>
       </c>
       <c r="AW88" s="11">
-        <v>1751700</v>
+        <v>1769493</v>
       </c>
       <c r="AX88" s="11">
-        <v>1769493</v>
+        <v>1814315</v>
       </c>
       <c r="AY88" s="11">
-        <v>1814315</v>
+        <v>1809009</v>
       </c>
       <c r="AZ88" s="11">
-        <v>1809009</v>
+        <v>1767069</v>
       </c>
       <c r="BA88" s="11">
-        <v>1767069</v>
+        <v>1898066</v>
       </c>
       <c r="BB88" s="11">
-        <v>1898066</v>
+        <v>1948828</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11636,154 +11636,154 @@
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>163450</v>
+        <v>163195</v>
       </c>
       <c r="F89" s="13">
-        <v>163195</v>
+        <v>160443</v>
       </c>
       <c r="G89" s="13">
-        <v>160443</v>
+        <v>156090</v>
       </c>
       <c r="H89" s="13">
-        <v>156090</v>
+        <v>148689</v>
       </c>
       <c r="I89" s="13">
-        <v>148689</v>
+        <v>172253</v>
       </c>
       <c r="J89" s="13">
-        <v>172253</v>
+        <v>217341</v>
       </c>
       <c r="K89" s="13">
-        <v>217341</v>
+        <v>219636</v>
       </c>
       <c r="L89" s="13">
+        <v>208719</v>
+      </c>
+      <c r="M89" s="13">
+        <v>218742</v>
+      </c>
+      <c r="N89" s="13">
+        <v>217026</v>
+      </c>
+      <c r="O89" s="13">
         <v>219636</v>
       </c>
-      <c r="M89" s="13">
-        <v>208719</v>
-      </c>
-      <c r="N89" s="13">
-        <v>218742</v>
-      </c>
-      <c r="O89" s="13">
-        <v>217026</v>
-      </c>
       <c r="P89" s="13">
-        <v>219636</v>
+        <v>218505</v>
       </c>
       <c r="Q89" s="13">
-        <v>218505</v>
+        <v>217030</v>
       </c>
       <c r="R89" s="13">
-        <v>217030</v>
+        <v>363122</v>
       </c>
       <c r="S89" s="13">
-        <v>363122</v>
+        <v>391449</v>
       </c>
       <c r="T89" s="13">
-        <v>391449</v>
+        <v>388039</v>
       </c>
       <c r="U89" s="13">
-        <v>388039</v>
+        <v>439992</v>
       </c>
       <c r="V89" s="13">
-        <v>439992</v>
+        <v>475908</v>
       </c>
       <c r="W89" s="13">
-        <v>475908</v>
+        <v>477716</v>
       </c>
       <c r="X89" s="13">
-        <v>477716</v>
+        <v>476646</v>
       </c>
       <c r="Y89" s="13">
-        <v>476646</v>
+        <v>478439</v>
       </c>
       <c r="Z89" s="13">
-        <v>478439</v>
+        <v>467788</v>
       </c>
       <c r="AA89" s="13">
-        <v>467788</v>
+        <v>428821</v>
       </c>
       <c r="AB89" s="13">
-        <v>428821</v>
+        <v>428356</v>
       </c>
       <c r="AC89" s="13">
-        <v>428356</v>
+        <v>480098</v>
       </c>
       <c r="AD89" s="13">
-        <v>480098</v>
+        <v>482232</v>
       </c>
       <c r="AE89" s="13">
-        <v>482232</v>
+        <v>482231</v>
       </c>
       <c r="AF89" s="13">
-        <v>482231</v>
+        <v>602798</v>
       </c>
       <c r="AG89" s="13">
-        <v>602798</v>
+        <v>602793</v>
       </c>
       <c r="AH89" s="13">
-        <v>602793</v>
+        <v>602851</v>
       </c>
       <c r="AI89" s="13">
-        <v>602851</v>
+        <v>602802</v>
       </c>
       <c r="AJ89" s="13">
+        <v>602799</v>
+      </c>
+      <c r="AK89" s="13">
+        <v>602975</v>
+      </c>
+      <c r="AL89" s="13">
+        <v>602797</v>
+      </c>
+      <c r="AM89" s="13">
         <v>602802</v>
       </c>
-      <c r="AK89" s="13">
-        <v>602799</v>
-      </c>
-      <c r="AL89" s="13">
-        <v>602975</v>
-      </c>
-      <c r="AM89" s="13">
-        <v>602797</v>
-      </c>
       <c r="AN89" s="13">
-        <v>602802</v>
+        <v>602801</v>
       </c>
       <c r="AO89" s="13">
-        <v>602801</v>
+        <v>648203</v>
       </c>
       <c r="AP89" s="13">
-        <v>648203</v>
+        <v>715531</v>
       </c>
       <c r="AQ89" s="13">
-        <v>715531</v>
+        <v>919614</v>
       </c>
       <c r="AR89" s="13">
-        <v>919614</v>
+        <v>1059597</v>
       </c>
       <c r="AS89" s="13">
-        <v>1059597</v>
+        <v>1068275</v>
       </c>
       <c r="AT89" s="13">
-        <v>1068275</v>
+        <v>1068306</v>
       </c>
       <c r="AU89" s="13">
-        <v>1068306</v>
+        <v>1062824</v>
       </c>
       <c r="AV89" s="13">
-        <v>1062824</v>
+        <v>1068264</v>
       </c>
       <c r="AW89" s="13">
-        <v>1068264</v>
+        <v>1068263</v>
       </c>
       <c r="AX89" s="13">
-        <v>1068263</v>
+        <v>1119477</v>
       </c>
       <c r="AY89" s="13">
-        <v>1119477</v>
+        <v>1078739</v>
       </c>
       <c r="AZ89" s="13">
-        <v>1078739</v>
+        <v>1078461</v>
       </c>
       <c r="BA89" s="13">
-        <v>1078461</v>
+        <v>1305663</v>
       </c>
       <c r="BB89" s="13">
-        <v>1305663</v>
+        <v>1305667</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11795,154 +11795,154 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>135489</v>
+        <v>139999</v>
       </c>
       <c r="F90" s="11">
-        <v>139999</v>
+        <v>139643</v>
       </c>
       <c r="G90" s="11">
-        <v>139643</v>
+        <v>134093</v>
       </c>
       <c r="H90" s="11">
-        <v>134093</v>
+        <v>139070</v>
       </c>
       <c r="I90" s="11">
-        <v>139070</v>
+        <v>169909</v>
       </c>
       <c r="J90" s="11">
-        <v>169909</v>
+        <v>171262</v>
       </c>
       <c r="K90" s="11">
-        <v>171262</v>
+        <v>168675</v>
       </c>
       <c r="L90" s="11">
-        <v>168675</v>
+        <v>175549</v>
       </c>
       <c r="M90" s="11">
-        <v>175549</v>
+        <v>169903</v>
       </c>
       <c r="N90" s="11">
-        <v>169903</v>
+        <v>170395</v>
       </c>
       <c r="O90" s="11">
-        <v>170395</v>
+        <v>173731</v>
       </c>
       <c r="P90" s="11">
-        <v>173731</v>
+        <v>172840</v>
       </c>
       <c r="Q90" s="11">
-        <v>172840</v>
+        <v>171037</v>
       </c>
       <c r="R90" s="11">
-        <v>171037</v>
+        <v>277552</v>
       </c>
       <c r="S90" s="11">
-        <v>277552</v>
+        <v>295217</v>
       </c>
       <c r="T90" s="11">
-        <v>295217</v>
+        <v>294414</v>
       </c>
       <c r="U90" s="11">
-        <v>294414</v>
+        <v>302480</v>
       </c>
       <c r="V90" s="11">
-        <v>302480</v>
+        <v>356045</v>
       </c>
       <c r="W90" s="11">
-        <v>356045</v>
+        <v>363518</v>
       </c>
       <c r="X90" s="11">
-        <v>363518</v>
+        <v>371273</v>
       </c>
       <c r="Y90" s="11">
-        <v>371273</v>
+        <v>364241</v>
       </c>
       <c r="Z90" s="11">
-        <v>364241</v>
+        <v>380134</v>
       </c>
       <c r="AA90" s="11">
-        <v>380134</v>
+        <v>404195</v>
       </c>
       <c r="AB90" s="11">
-        <v>404195</v>
+        <v>480022</v>
       </c>
       <c r="AC90" s="11">
-        <v>480022</v>
+        <v>389013</v>
       </c>
       <c r="AD90" s="11">
-        <v>389013</v>
+        <v>391561</v>
       </c>
       <c r="AE90" s="11">
-        <v>391561</v>
+        <v>391158</v>
       </c>
       <c r="AF90" s="11">
-        <v>391158</v>
+        <v>445843</v>
       </c>
       <c r="AG90" s="11">
-        <v>445843</v>
+        <v>438022</v>
       </c>
       <c r="AH90" s="11">
-        <v>438022</v>
+        <v>444209</v>
       </c>
       <c r="AI90" s="11">
-        <v>444209</v>
+        <v>444234</v>
       </c>
       <c r="AJ90" s="11">
-        <v>444234</v>
+        <v>456590</v>
       </c>
       <c r="AK90" s="11">
-        <v>456590</v>
+        <v>528845</v>
       </c>
       <c r="AL90" s="11">
-        <v>528845</v>
+        <v>531012</v>
       </c>
       <c r="AM90" s="11">
-        <v>531012</v>
+        <v>533977</v>
       </c>
       <c r="AN90" s="11">
-        <v>533977</v>
+        <v>500888</v>
       </c>
       <c r="AO90" s="11">
-        <v>500888</v>
+        <v>529730</v>
       </c>
       <c r="AP90" s="11">
-        <v>529730</v>
+        <v>577303</v>
       </c>
       <c r="AQ90" s="11">
-        <v>577303</v>
+        <v>795322</v>
       </c>
       <c r="AR90" s="11">
-        <v>795322</v>
+        <v>971158</v>
       </c>
       <c r="AS90" s="11">
-        <v>971158</v>
+        <v>998651</v>
       </c>
       <c r="AT90" s="11">
-        <v>998651</v>
+        <v>996678</v>
       </c>
       <c r="AU90" s="11">
-        <v>996678</v>
+        <v>971159</v>
       </c>
       <c r="AV90" s="11">
-        <v>971159</v>
+        <v>989057</v>
       </c>
       <c r="AW90" s="11">
-        <v>989057</v>
+        <v>996254</v>
       </c>
       <c r="AX90" s="11">
-        <v>996254</v>
+        <v>1005816</v>
       </c>
       <c r="AY90" s="11">
-        <v>1005816</v>
+        <v>1007637</v>
       </c>
       <c r="AZ90" s="11">
-        <v>1007637</v>
+        <v>1009212</v>
       </c>
       <c r="BA90" s="11">
-        <v>1009212</v>
+        <v>1115875</v>
       </c>
       <c r="BB90" s="11">
-        <v>1115875</v>
+        <v>1111401</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11954,154 +11954,154 @@
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>313048</v>
+        <v>382108</v>
       </c>
       <c r="F91" s="13">
-        <v>382108</v>
+        <v>321251</v>
       </c>
       <c r="G91" s="13">
-        <v>321251</v>
+        <v>268882</v>
       </c>
       <c r="H91" s="13">
-        <v>268882</v>
+        <v>503106</v>
       </c>
       <c r="I91" s="13">
-        <v>503106</v>
+        <v>446355</v>
       </c>
       <c r="J91" s="13">
-        <v>446355</v>
+        <v>226427</v>
       </c>
       <c r="K91" s="13">
-        <v>226427</v>
+        <v>362821</v>
       </c>
       <c r="L91" s="13">
-        <v>362821</v>
+        <v>286704</v>
       </c>
       <c r="M91" s="13">
-        <v>286704</v>
+        <v>336173</v>
       </c>
       <c r="N91" s="13">
-        <v>336173</v>
+        <v>368558</v>
       </c>
       <c r="O91" s="13">
-        <v>368558</v>
+        <v>430838</v>
       </c>
       <c r="P91" s="13">
-        <v>430838</v>
+        <v>494600</v>
       </c>
       <c r="Q91" s="13">
-        <v>494600</v>
+        <v>0</v>
       </c>
       <c r="R91" s="13">
-        <v>0</v>
+        <v>492958</v>
       </c>
       <c r="S91" s="13">
-        <v>492958</v>
+        <v>618056</v>
       </c>
       <c r="T91" s="13">
-        <v>618056</v>
+        <v>490107</v>
       </c>
       <c r="U91" s="13">
-        <v>490107</v>
-      </c>
-      <c r="V91" s="13">
         <v>1435455</v>
       </c>
-      <c r="W91" s="13" t="s">
-        <v>66</v>
+      <c r="V91" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="W91" s="13">
+        <v>375000</v>
       </c>
       <c r="X91" s="13">
-        <v>375000</v>
+        <v>434431</v>
       </c>
       <c r="Y91" s="13">
-        <v>434431</v>
+        <v>595986</v>
       </c>
       <c r="Z91" s="13">
-        <v>595986</v>
+        <v>688088</v>
       </c>
       <c r="AA91" s="13">
-        <v>688088</v>
+        <v>1073552</v>
       </c>
       <c r="AB91" s="13">
-        <v>1073552</v>
+        <v>1045847</v>
       </c>
       <c r="AC91" s="13">
-        <v>1045847</v>
+        <v>1176871</v>
       </c>
       <c r="AD91" s="13">
-        <v>1176871</v>
+        <v>1166667</v>
       </c>
       <c r="AE91" s="13">
-        <v>1166667</v>
+        <v>1000000</v>
       </c>
       <c r="AF91" s="13">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="AG91" s="13">
-        <v>1250000</v>
+        <v>1090909</v>
       </c>
       <c r="AH91" s="13">
-        <v>1090909</v>
+        <v>1287879</v>
       </c>
       <c r="AI91" s="13">
-        <v>1287879</v>
+        <v>502986</v>
       </c>
       <c r="AJ91" s="13">
-        <v>502986</v>
-      </c>
-      <c r="AK91" s="13">
         <v>744651</v>
       </c>
-      <c r="AL91" s="13" t="s">
-        <v>66</v>
+      <c r="AK91" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL91" s="13">
+        <v>867740</v>
       </c>
       <c r="AM91" s="13">
-        <v>867740</v>
+        <v>1343200</v>
       </c>
       <c r="AN91" s="13">
-        <v>1343200</v>
+        <v>1337897</v>
       </c>
       <c r="AO91" s="13">
-        <v>1337897</v>
+        <v>1300000</v>
       </c>
       <c r="AP91" s="13">
-        <v>1300000</v>
-      </c>
-      <c r="AQ91" s="13">
         <v>1018533</v>
       </c>
+      <c r="AQ91" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="AR91" s="13" t="s">
         <v>66</v>
       </c>
       <c r="AS91" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AT91" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU91" s="13">
+      <c r="AT91" s="13">
         <v>1722222</v>
       </c>
-      <c r="AV91" s="13" t="s">
-        <v>66</v>
+      <c r="AU91" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV91" s="13">
+        <v>2008157</v>
       </c>
       <c r="AW91" s="13">
-        <v>2008157</v>
+        <v>1573576</v>
       </c>
       <c r="AX91" s="13">
-        <v>1573576</v>
+        <v>2057199</v>
       </c>
       <c r="AY91" s="13">
-        <v>2057199</v>
+        <v>2225556</v>
       </c>
       <c r="AZ91" s="13">
-        <v>2225556</v>
+        <v>1738706</v>
       </c>
       <c r="BA91" s="13">
-        <v>1738706</v>
-      </c>
-      <c r="BB91" s="13">
         <v>2225610</v>
+      </c>
+      <c r="BB91" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
